--- a/Septiembre/19 septiembre/llano de aguascalientes/PLANTILLA LISTA DE ASPIRANTES ITEL (1).xlsx
+++ b/Septiembre/19 septiembre/llano de aguascalientes/PLANTILLA LISTA DE ASPIRANTES ITEL (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Septiembre\19 septiembre\llano de aguascalientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4CE6BF-686C-4143-B06D-690821466B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4DFF31-32B2-4A63-B5E1-B783521F67DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE ASPIRANTES" sheetId="1" r:id="rId1"/>
@@ -2681,75 +2681,75 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2765,38 +2765,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3020,6 +2988,38 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3034,31 +3034,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:M694" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:M694" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="9">
-      <filters>
-        <dateGroupItem year="2024" month="9" day="21" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:M694" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:M694" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A119:M169">
     <sortCondition ref="K1:K694"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FICHA" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NOMBRE ASPIRANTE" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CURP" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CORREO ELECTRONICO" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="CLAVE CARRERA" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CARRERA" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VERSION" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA SIMULACRO" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="HORA DE SIMULACRO" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="FECHA APLICACIÓN OFICIAL" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HORA APLICACIÓN OFICIAL" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="¿ASPIRANTE EN PLANTEL?" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="AULA" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FICHA" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NOMBRE ASPIRANTE" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CURP" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CORREO ELECTRONICO" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="CLAVE CARRERA" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CARRERA" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VERSION" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA SIMULACRO" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="HORA DE SIMULACRO" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="FECHA APLICACIÓN OFICIAL" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HORA APLICACIÓN OFICIAL" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="¿ASPIRANTE EN PLANTEL?" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="AULA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3366,24 +3360,24 @@
   </sheetPr>
   <dimension ref="A1:O694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171:F275"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="42.875" style="5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="27" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="42.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16" style="26" customWidth="1"/>
     <col min="6" max="6" width="63.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="27" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="28" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="22.375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="27" customWidth="1"/>
-    <col min="12" max="12" width="13.375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25" style="27" customWidth="1"/>
+    <col min="10" max="10" width="22.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="26" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="27" customWidth="1"/>
     <col min="13" max="13" width="24.5" style="5" customWidth="1"/>
     <col min="14" max="16384" width="11" style="5"/>
   </cols>
@@ -3429,7 +3423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3470,7 +3464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3511,7 +3505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3552,7 +3546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3592,10 +3586,10 @@
       <c r="M5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3636,7 +3630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3677,7 +3671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3718,7 +3712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3759,7 +3753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3800,7 +3794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3841,7 +3835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3882,7 +3876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -3923,7 +3917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -3964,7 +3958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4005,7 +3999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4046,7 +4040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4087,7 +4081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4128,7 +4122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4169,7 +4163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4210,7 +4204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4251,7 +4245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4292,7 +4286,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4333,7 +4327,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4374,7 +4368,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4415,7 +4409,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -4456,7 +4450,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -4497,7 +4491,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4538,7 +4532,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4579,7 +4573,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4620,7 +4614,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -4661,7 +4655,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -4702,7 +4696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -4743,7 +4737,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -4784,7 +4778,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4825,7 +4819,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4866,7 +4860,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4907,7 +4901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4948,7 +4942,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4989,7 +4983,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -5030,7 +5024,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -5071,7 +5065,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -5112,7 +5106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -5153,7 +5147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -5194,7 +5188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -5235,7 +5229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -5276,7 +5270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -5317,7 +5311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -5358,7 +5352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -5399,7 +5393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -5440,7 +5434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -5481,7 +5475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -5522,7 +5516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -5563,7 +5557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -5604,7 +5598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -5645,7 +5639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -5686,7 +5680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -5727,7 +5721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -5768,7 +5762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -5809,7 +5803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -5850,7 +5844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -5891,7 +5885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -5932,7 +5926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -5973,7 +5967,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -6014,7 +6008,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -6055,7 +6049,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -6096,7 +6090,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -6137,7 +6131,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -6178,7 +6172,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -6219,7 +6213,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -6260,7 +6254,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -6301,7 +6295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -6342,7 +6336,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -6383,7 +6377,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -6424,7 +6418,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -6465,7 +6459,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -6506,7 +6500,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -6547,7 +6541,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -6588,7 +6582,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -6629,7 +6623,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -6670,7 +6664,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -6711,7 +6705,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -6752,7 +6746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -6793,7 +6787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -6834,7 +6828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -6875,7 +6869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -6916,7 +6910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -6957,7 +6951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -6998,7 +6992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -7039,7 +7033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -7080,7 +7074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -7121,7 +7115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -7162,7 +7156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -7203,7 +7197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -7244,7 +7238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -7285,7 +7279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -7326,7 +7320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -7367,7 +7361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -7408,7 +7402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -7449,7 +7443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -7490,7 +7484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -7531,7 +7525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -7572,7 +7566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -7613,7 +7607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -7654,7 +7648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -7695,7 +7689,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -7736,7 +7730,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -7777,7 +7771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -7818,7 +7812,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -7859,7 +7853,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -7900,7 +7894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -7941,7 +7935,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -7982,7 +7976,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -8023,7 +8017,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -8064,7 +8058,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -8105,7 +8099,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -8146,7 +8140,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -8187,7 +8181,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -8228,7 +8222,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -8269,7 +8263,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -8310,7 +8304,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -8351,7 +8345,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -8392,7 +8386,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -8433,7 +8427,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -8474,7 +8468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -8515,7 +8509,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -8556,7 +8550,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -8597,7 +8591,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -8638,7 +8632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -8679,7 +8673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -8720,7 +8714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -8761,7 +8755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -8802,7 +8796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -8843,7 +8837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -8884,7 +8878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -8925,7 +8919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -8966,7 +8960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -9007,7 +9001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -9048,7 +9042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -9089,7 +9083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -9130,7 +9124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -9171,7 +9165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -9212,7 +9206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -9253,7 +9247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -9294,7 +9288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -9335,7 +9329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -9376,7 +9370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -9417,7 +9411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -9458,7 +9452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -9499,7 +9493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -9540,7 +9534,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -9581,7 +9575,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -9622,7 +9616,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -9663,7 +9657,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -9704,7 +9698,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -9745,7 +9739,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -9786,7 +9780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -9827,7 +9821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -9868,7 +9862,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -9909,7 +9903,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -9950,7 +9944,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -9991,7 +9985,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -10032,7 +10026,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -10073,7 +10067,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -10114,7 +10108,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -10155,7 +10149,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -10196,7 +10190,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -10237,7 +10231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -10278,7 +10272,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -10288,7 +10282,7 @@
       <c r="C169" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="D169" s="16" t="s">
+      <c r="D169" s="15" t="s">
         <v>536</v>
       </c>
       <c r="E169" s="8" t="s">
@@ -10319,7 +10313,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -10329,7 +10323,7 @@
       <c r="C170" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="D170" s="17" t="s">
+      <c r="D170" s="16" t="s">
         <v>539</v>
       </c>
       <c r="E170" s="8" t="s">
@@ -12830,7 +12824,7 @@
       <c r="C231" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="D231" s="17" t="s">
+      <c r="D231" s="16" t="s">
         <v>539</v>
       </c>
       <c r="E231" s="8" t="s">
@@ -14552,7 +14546,7 @@
       <c r="C273" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="D273" s="16" t="s">
+      <c r="D273" s="15" t="s">
         <v>845</v>
       </c>
       <c r="E273" s="8" t="s">
@@ -14587,13 +14581,13 @@
       <c r="A274" s="6">
         <v>273</v>
       </c>
-      <c r="B274" s="18" t="s">
+      <c r="B274" s="17" t="s">
         <v>846</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D274" s="16" t="s">
+      <c r="D274" s="15" t="s">
         <v>848</v>
       </c>
       <c r="E274" s="8" t="s">
@@ -14628,13 +14622,13 @@
       <c r="A275" s="6">
         <v>274</v>
       </c>
-      <c r="B275" s="18" t="s">
+      <c r="B275" s="17" t="s">
         <v>849</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="D275" s="16" t="s">
+      <c r="D275" s="15" t="s">
         <v>851</v>
       </c>
       <c r="E275" s="8" t="s">
@@ -14665,3850 +14659,3850 @@
         <v>85</v>
       </c>
     </row>
-    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="19"/>
-      <c r="E276" s="20"/>
-      <c r="F276" s="21"/>
-      <c r="G276" s="21"/>
-      <c r="H276" s="22"/>
-      <c r="I276" s="23"/>
-      <c r="J276" s="24"/>
-      <c r="K276" s="20"/>
-      <c r="L276" s="25"/>
-      <c r="M276" s="21"/>
-    </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="19"/>
-      <c r="E277" s="20"/>
-      <c r="F277" s="21"/>
-      <c r="G277" s="21"/>
-      <c r="H277" s="22"/>
-      <c r="I277" s="23"/>
-      <c r="J277" s="24"/>
-      <c r="K277" s="20"/>
-      <c r="L277" s="25"/>
-      <c r="M277" s="21"/>
-    </row>
-    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="19"/>
-      <c r="E278" s="20"/>
-      <c r="F278" s="21"/>
-      <c r="G278" s="21"/>
-      <c r="H278" s="22"/>
-      <c r="I278" s="23"/>
-      <c r="J278" s="24"/>
-      <c r="K278" s="20"/>
-      <c r="L278" s="25"/>
-      <c r="M278" s="21"/>
-    </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="19"/>
-      <c r="E279" s="20"/>
-      <c r="F279" s="21"/>
-      <c r="G279" s="21"/>
-      <c r="H279" s="22"/>
-      <c r="I279" s="23"/>
-      <c r="J279" s="24"/>
-      <c r="K279" s="20"/>
-      <c r="L279" s="25"/>
-      <c r="M279" s="21"/>
-    </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="19"/>
-      <c r="E280" s="20"/>
-      <c r="F280" s="21"/>
-      <c r="G280" s="21"/>
-      <c r="H280" s="22"/>
-      <c r="I280" s="23"/>
-      <c r="J280" s="24"/>
-      <c r="K280" s="20"/>
-      <c r="L280" s="25"/>
-      <c r="M280" s="21"/>
-    </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="19"/>
-      <c r="E281" s="20"/>
-      <c r="F281" s="21"/>
-      <c r="G281" s="21"/>
-      <c r="H281" s="22"/>
-      <c r="I281" s="23"/>
-      <c r="J281" s="24"/>
-      <c r="K281" s="20"/>
-      <c r="L281" s="25"/>
-      <c r="M281" s="21"/>
-    </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="19"/>
-      <c r="E282" s="20"/>
-      <c r="F282" s="21"/>
-      <c r="G282" s="21"/>
-      <c r="H282" s="22"/>
-      <c r="I282" s="23"/>
-      <c r="J282" s="24"/>
-      <c r="K282" s="20"/>
-      <c r="L282" s="25"/>
-      <c r="M282" s="21"/>
-    </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="19"/>
-      <c r="E283" s="20"/>
-      <c r="F283" s="21"/>
-      <c r="G283" s="21"/>
-      <c r="H283" s="22"/>
-      <c r="I283" s="23"/>
-      <c r="J283" s="24"/>
-      <c r="K283" s="20"/>
-      <c r="L283" s="25"/>
-      <c r="M283" s="21"/>
-    </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="19"/>
-      <c r="E284" s="20"/>
-      <c r="F284" s="21"/>
-      <c r="G284" s="21"/>
-      <c r="H284" s="22"/>
-      <c r="I284" s="23"/>
-      <c r="J284" s="24"/>
-      <c r="K284" s="20"/>
-      <c r="L284" s="25"/>
-      <c r="M284" s="21"/>
-    </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="19"/>
-      <c r="E285" s="20"/>
-      <c r="F285" s="21"/>
-      <c r="G285" s="21"/>
-      <c r="H285" s="22"/>
-      <c r="I285" s="23"/>
-      <c r="J285" s="24"/>
-      <c r="K285" s="20"/>
-      <c r="L285" s="25"/>
-      <c r="M285" s="21"/>
-    </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="19"/>
-      <c r="E286" s="20"/>
-      <c r="F286" s="21"/>
-      <c r="G286" s="21"/>
-      <c r="H286" s="22"/>
-      <c r="I286" s="23"/>
-      <c r="J286" s="24"/>
-      <c r="K286" s="20"/>
-      <c r="L286" s="25"/>
-      <c r="M286" s="21"/>
-    </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="19"/>
-      <c r="E287" s="20"/>
-      <c r="F287" s="21"/>
-      <c r="G287" s="21"/>
-      <c r="H287" s="22"/>
-      <c r="I287" s="23"/>
-      <c r="J287" s="24"/>
-      <c r="K287" s="20"/>
-      <c r="L287" s="25"/>
-      <c r="M287" s="21"/>
-    </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="19"/>
-      <c r="E288" s="20"/>
-      <c r="F288" s="21"/>
-      <c r="G288" s="21"/>
-      <c r="H288" s="22"/>
-      <c r="I288" s="23"/>
-      <c r="J288" s="24"/>
-      <c r="K288" s="20"/>
-      <c r="L288" s="25"/>
-      <c r="M288" s="21"/>
-    </row>
-    <row r="289" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="19"/>
-      <c r="E289" s="20"/>
-      <c r="F289" s="21"/>
-      <c r="G289" s="21"/>
-      <c r="H289" s="22"/>
-      <c r="I289" s="23"/>
-      <c r="J289" s="24"/>
-      <c r="K289" s="20"/>
-      <c r="L289" s="25"/>
-      <c r="M289" s="21"/>
-    </row>
-    <row r="290" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="19"/>
-      <c r="E290" s="20"/>
-      <c r="F290" s="21"/>
-      <c r="G290" s="21"/>
-      <c r="H290" s="22"/>
-      <c r="I290" s="23"/>
-      <c r="J290" s="24"/>
-      <c r="K290" s="20"/>
-      <c r="L290" s="25"/>
-      <c r="M290" s="21"/>
-    </row>
-    <row r="291" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="19"/>
-      <c r="E291" s="20"/>
-      <c r="F291" s="21"/>
-      <c r="G291" s="21"/>
-      <c r="H291" s="22"/>
-      <c r="I291" s="23"/>
-      <c r="J291" s="24"/>
-      <c r="K291" s="20"/>
-      <c r="L291" s="25"/>
-      <c r="M291" s="21"/>
-    </row>
-    <row r="292" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E292" s="20"/>
-      <c r="F292" s="21"/>
-      <c r="G292" s="21"/>
-      <c r="H292" s="22"/>
-      <c r="I292" s="23"/>
-      <c r="J292" s="24"/>
-      <c r="K292" s="20"/>
-      <c r="L292" s="25"/>
-      <c r="M292" s="26"/>
-    </row>
-    <row r="293" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E293" s="20"/>
-      <c r="F293" s="21"/>
-      <c r="G293" s="21"/>
-      <c r="H293" s="22"/>
-      <c r="I293" s="23"/>
-      <c r="J293" s="24"/>
-      <c r="K293" s="20"/>
-      <c r="L293" s="25"/>
-      <c r="M293" s="26"/>
-    </row>
-    <row r="294" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E294" s="20"/>
-      <c r="F294" s="21"/>
-      <c r="G294" s="21"/>
-      <c r="H294" s="22"/>
-      <c r="I294" s="23"/>
-      <c r="J294" s="24"/>
-      <c r="K294" s="20"/>
-      <c r="L294" s="25"/>
-      <c r="M294" s="26"/>
-    </row>
-    <row r="295" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E295" s="20"/>
-      <c r="F295" s="21"/>
-      <c r="G295" s="21"/>
-      <c r="H295" s="22"/>
-      <c r="I295" s="23"/>
-      <c r="J295" s="24"/>
-      <c r="K295" s="20"/>
-      <c r="L295" s="25"/>
-      <c r="M295" s="26"/>
-    </row>
-    <row r="296" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E296" s="20"/>
-      <c r="F296" s="21"/>
-      <c r="G296" s="21"/>
-      <c r="H296" s="22"/>
-      <c r="I296" s="23"/>
-      <c r="J296" s="24"/>
-      <c r="K296" s="20"/>
-      <c r="L296" s="25"/>
-      <c r="M296" s="26"/>
-    </row>
-    <row r="297" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E297" s="20"/>
-      <c r="F297" s="21"/>
-      <c r="G297" s="21"/>
-      <c r="H297" s="22"/>
-      <c r="I297" s="23"/>
-      <c r="J297" s="24"/>
-      <c r="K297" s="20"/>
-      <c r="L297" s="25"/>
-      <c r="M297" s="26"/>
-    </row>
-    <row r="298" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E298" s="20"/>
-      <c r="F298" s="21"/>
-      <c r="G298" s="21"/>
-      <c r="H298" s="22"/>
-      <c r="I298" s="23"/>
-      <c r="J298" s="24"/>
-      <c r="K298" s="20"/>
-      <c r="L298" s="25"/>
-      <c r="M298" s="26"/>
-    </row>
-    <row r="299" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E299" s="20"/>
-      <c r="F299" s="21"/>
-      <c r="G299" s="21"/>
-      <c r="H299" s="22"/>
-      <c r="I299" s="23"/>
-      <c r="J299" s="24"/>
-      <c r="K299" s="20"/>
-      <c r="L299" s="25"/>
-      <c r="M299" s="26"/>
-    </row>
-    <row r="300" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E300" s="20"/>
-      <c r="F300" s="21"/>
-      <c r="G300" s="21"/>
-      <c r="H300" s="22"/>
-      <c r="I300" s="23"/>
-      <c r="J300" s="24"/>
-      <c r="K300" s="20"/>
-      <c r="L300" s="25"/>
-      <c r="M300" s="26"/>
-    </row>
-    <row r="301" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E301" s="20"/>
-      <c r="F301" s="21"/>
-      <c r="G301" s="21"/>
-      <c r="H301" s="22"/>
-      <c r="I301" s="23"/>
-      <c r="J301" s="24"/>
-      <c r="K301" s="20"/>
-      <c r="L301" s="25"/>
-      <c r="M301" s="26"/>
-    </row>
-    <row r="302" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E302" s="20"/>
-      <c r="F302" s="21"/>
-      <c r="G302" s="21"/>
-      <c r="H302" s="22"/>
-      <c r="I302" s="23"/>
-      <c r="J302" s="24"/>
-      <c r="K302" s="20"/>
-      <c r="L302" s="25"/>
-      <c r="M302" s="26"/>
-    </row>
-    <row r="303" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E303" s="20"/>
-      <c r="F303" s="21"/>
-      <c r="G303" s="21"/>
-      <c r="H303" s="22"/>
-      <c r="I303" s="23"/>
-      <c r="J303" s="24"/>
-      <c r="K303" s="20"/>
-      <c r="L303" s="25"/>
-      <c r="M303" s="26"/>
-    </row>
-    <row r="304" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E304" s="20"/>
-      <c r="F304" s="21"/>
-      <c r="G304" s="21"/>
-      <c r="H304" s="22"/>
-      <c r="I304" s="23"/>
-      <c r="J304" s="24"/>
-      <c r="K304" s="20"/>
-      <c r="L304" s="25"/>
-      <c r="M304" s="26"/>
-    </row>
-    <row r="305" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G305" s="21"/>
-      <c r="H305" s="22"/>
-      <c r="I305" s="23"/>
-      <c r="J305" s="24"/>
-      <c r="K305" s="20"/>
-      <c r="L305" s="25"/>
-      <c r="M305" s="26"/>
-    </row>
-    <row r="306" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G306" s="21"/>
-      <c r="H306" s="22"/>
-      <c r="I306" s="23"/>
-      <c r="J306" s="24"/>
-      <c r="K306" s="20"/>
-      <c r="L306" s="25"/>
-      <c r="M306" s="26"/>
-    </row>
-    <row r="307" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G307" s="21"/>
-      <c r="H307" s="22"/>
-      <c r="I307" s="23"/>
-      <c r="J307" s="24"/>
-      <c r="K307" s="20"/>
-      <c r="L307" s="25"/>
-      <c r="M307" s="26"/>
-    </row>
-    <row r="308" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G308" s="21"/>
-      <c r="H308" s="22"/>
-      <c r="I308" s="23"/>
-      <c r="J308" s="24"/>
-      <c r="K308" s="20"/>
-      <c r="L308" s="25"/>
-      <c r="M308" s="26"/>
-    </row>
-    <row r="309" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G309" s="21"/>
-      <c r="H309" s="22"/>
-      <c r="I309" s="23"/>
-      <c r="J309" s="24"/>
-      <c r="K309" s="20"/>
-      <c r="L309" s="25"/>
-      <c r="M309" s="26"/>
-    </row>
-    <row r="310" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G310" s="21"/>
-      <c r="H310" s="22"/>
-      <c r="I310" s="23"/>
-      <c r="J310" s="24"/>
-      <c r="K310" s="20"/>
-      <c r="L310" s="25"/>
-      <c r="M310" s="26"/>
-    </row>
-    <row r="311" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G311" s="21"/>
-      <c r="H311" s="22"/>
-      <c r="I311" s="23"/>
-      <c r="J311" s="24"/>
-      <c r="K311" s="20"/>
-      <c r="L311" s="25"/>
-      <c r="M311" s="26"/>
-    </row>
-    <row r="312" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G312" s="21"/>
-      <c r="H312" s="22"/>
-      <c r="I312" s="23"/>
-      <c r="J312" s="24"/>
-      <c r="K312" s="20"/>
-      <c r="L312" s="25"/>
-      <c r="M312" s="26"/>
-    </row>
-    <row r="313" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G313" s="21"/>
-      <c r="H313" s="22"/>
-      <c r="I313" s="23"/>
-      <c r="J313" s="24"/>
-      <c r="K313" s="20"/>
-      <c r="L313" s="25"/>
-      <c r="M313" s="26"/>
-    </row>
-    <row r="314" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G314" s="21"/>
-      <c r="H314" s="22"/>
-      <c r="I314" s="23"/>
-      <c r="J314" s="24"/>
-      <c r="K314" s="20"/>
-      <c r="L314" s="25"/>
-      <c r="M314" s="26"/>
-    </row>
-    <row r="315" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G315" s="21"/>
-      <c r="H315" s="22"/>
-      <c r="I315" s="23"/>
-      <c r="J315" s="24"/>
-      <c r="K315" s="20"/>
-      <c r="L315" s="25"/>
-      <c r="M315" s="26"/>
-    </row>
-    <row r="316" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G316" s="21"/>
-      <c r="H316" s="22"/>
-      <c r="I316" s="23"/>
-      <c r="J316" s="24"/>
-      <c r="K316" s="20"/>
-      <c r="L316" s="25"/>
-      <c r="M316" s="26"/>
-    </row>
-    <row r="317" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G317" s="21"/>
-      <c r="H317" s="22"/>
-      <c r="I317" s="23"/>
-      <c r="J317" s="24"/>
-      <c r="K317" s="20"/>
-      <c r="L317" s="25"/>
-      <c r="M317" s="26"/>
-    </row>
-    <row r="318" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G318" s="21"/>
-      <c r="H318" s="22"/>
-      <c r="I318" s="23"/>
-      <c r="J318" s="24"/>
-      <c r="K318" s="20"/>
-      <c r="L318" s="25"/>
-      <c r="M318" s="26"/>
-    </row>
-    <row r="319" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G319" s="21"/>
-      <c r="H319" s="22"/>
-      <c r="I319" s="23"/>
-      <c r="J319" s="24"/>
-      <c r="K319" s="20"/>
-      <c r="L319" s="25"/>
-      <c r="M319" s="26"/>
-    </row>
-    <row r="320" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G320" s="21"/>
-      <c r="H320" s="22"/>
-      <c r="I320" s="23"/>
-      <c r="J320" s="24"/>
-      <c r="K320" s="20"/>
-      <c r="L320" s="25"/>
-      <c r="M320" s="26"/>
-    </row>
-    <row r="321" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G321" s="21"/>
-      <c r="H321" s="22"/>
-      <c r="I321" s="23"/>
-      <c r="J321" s="24"/>
-      <c r="K321" s="20"/>
-      <c r="L321" s="25"/>
-      <c r="M321" s="26"/>
-    </row>
-    <row r="322" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G322" s="21"/>
-      <c r="H322" s="22"/>
-      <c r="I322" s="23"/>
-      <c r="J322" s="24"/>
-      <c r="K322" s="20"/>
-      <c r="L322" s="25"/>
-      <c r="M322" s="26"/>
-    </row>
-    <row r="323" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G323" s="21"/>
-      <c r="H323" s="22"/>
-      <c r="I323" s="23"/>
-      <c r="J323" s="24"/>
-      <c r="K323" s="20"/>
-      <c r="L323" s="25"/>
-      <c r="M323" s="26"/>
-    </row>
-    <row r="324" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G324" s="21"/>
-      <c r="H324" s="22"/>
-      <c r="I324" s="23"/>
-      <c r="J324" s="24"/>
-      <c r="K324" s="20"/>
-      <c r="L324" s="25"/>
-      <c r="M324" s="26"/>
-    </row>
-    <row r="325" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G325" s="21"/>
-      <c r="H325" s="22"/>
-      <c r="I325" s="23"/>
-      <c r="J325" s="24"/>
-      <c r="K325" s="20"/>
-      <c r="L325" s="25"/>
-      <c r="M325" s="26"/>
-    </row>
-    <row r="326" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G326" s="21"/>
-      <c r="H326" s="22"/>
-      <c r="I326" s="23"/>
-      <c r="J326" s="24"/>
-      <c r="K326" s="20"/>
-      <c r="L326" s="25"/>
-      <c r="M326" s="26"/>
-    </row>
-    <row r="327" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G327" s="21"/>
-      <c r="H327" s="22"/>
-      <c r="I327" s="23"/>
-      <c r="J327" s="24"/>
-      <c r="K327" s="20"/>
-      <c r="L327" s="25"/>
-      <c r="M327" s="26"/>
-    </row>
-    <row r="328" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G328" s="21"/>
-      <c r="H328" s="22"/>
-      <c r="I328" s="23"/>
-      <c r="J328" s="24"/>
-      <c r="K328" s="20"/>
-      <c r="L328" s="25"/>
-      <c r="M328" s="26"/>
-    </row>
-    <row r="329" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G329" s="21"/>
-      <c r="H329" s="22"/>
-      <c r="I329" s="23"/>
-      <c r="J329" s="24"/>
-      <c r="K329" s="20"/>
-      <c r="L329" s="25"/>
-      <c r="M329" s="26"/>
-    </row>
-    <row r="330" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G330" s="21"/>
-      <c r="H330" s="22"/>
-      <c r="I330" s="23"/>
-      <c r="J330" s="24"/>
-      <c r="K330" s="20"/>
-      <c r="L330" s="25"/>
-      <c r="M330" s="26"/>
-    </row>
-    <row r="331" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G331" s="21"/>
-      <c r="H331" s="22"/>
-      <c r="I331" s="23"/>
-      <c r="J331" s="24"/>
-      <c r="K331" s="20"/>
-      <c r="L331" s="25"/>
-      <c r="M331" s="26"/>
-    </row>
-    <row r="332" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G332" s="21"/>
-      <c r="H332" s="22"/>
-      <c r="I332" s="23"/>
-      <c r="J332" s="24"/>
-      <c r="K332" s="20"/>
-      <c r="L332" s="25"/>
-      <c r="M332" s="26"/>
-    </row>
-    <row r="333" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G333" s="21"/>
-      <c r="H333" s="22"/>
-      <c r="I333" s="23"/>
-      <c r="J333" s="24"/>
-      <c r="K333" s="20"/>
-      <c r="L333" s="25"/>
-      <c r="M333" s="26"/>
-    </row>
-    <row r="334" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G334" s="21"/>
-      <c r="H334" s="22"/>
-      <c r="I334" s="23"/>
-      <c r="J334" s="24"/>
-      <c r="K334" s="20"/>
-      <c r="L334" s="25"/>
-      <c r="M334" s="26"/>
-    </row>
-    <row r="335" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G335" s="21"/>
-      <c r="H335" s="22"/>
-      <c r="I335" s="23"/>
-      <c r="J335" s="24"/>
-      <c r="K335" s="20"/>
-      <c r="L335" s="25"/>
-      <c r="M335" s="26"/>
-    </row>
-    <row r="336" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G336" s="21"/>
-      <c r="H336" s="22"/>
-      <c r="I336" s="23"/>
-      <c r="J336" s="24"/>
-      <c r="K336" s="20"/>
-      <c r="L336" s="25"/>
-      <c r="M336" s="26"/>
-    </row>
-    <row r="337" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G337" s="21"/>
-      <c r="H337" s="22"/>
-      <c r="I337" s="23"/>
-      <c r="J337" s="24"/>
-      <c r="K337" s="20"/>
-      <c r="L337" s="25"/>
-      <c r="M337" s="26"/>
-    </row>
-    <row r="338" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G338" s="21"/>
-      <c r="H338" s="22"/>
-      <c r="I338" s="23"/>
-      <c r="J338" s="24"/>
-      <c r="K338" s="20"/>
-      <c r="L338" s="25"/>
-      <c r="M338" s="26"/>
-    </row>
-    <row r="339" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G339" s="21"/>
-      <c r="H339" s="22"/>
-      <c r="I339" s="23"/>
-      <c r="J339" s="24"/>
-      <c r="K339" s="20"/>
-      <c r="L339" s="25"/>
-      <c r="M339" s="26"/>
-    </row>
-    <row r="340" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G340" s="21"/>
-      <c r="H340" s="22"/>
-      <c r="I340" s="23"/>
-      <c r="J340" s="24"/>
-      <c r="K340" s="20"/>
-      <c r="L340" s="25"/>
-      <c r="M340" s="26"/>
-    </row>
-    <row r="341" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G341" s="21"/>
-      <c r="H341" s="22"/>
-      <c r="I341" s="23"/>
-      <c r="J341" s="24"/>
-      <c r="K341" s="20"/>
-      <c r="L341" s="25"/>
-      <c r="M341" s="26"/>
-    </row>
-    <row r="342" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G342" s="21"/>
-      <c r="H342" s="22"/>
-      <c r="I342" s="23"/>
-      <c r="J342" s="24"/>
-      <c r="K342" s="20"/>
-      <c r="L342" s="25"/>
-      <c r="M342" s="26"/>
-    </row>
-    <row r="343" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G343" s="21"/>
-      <c r="H343" s="22"/>
-      <c r="I343" s="23"/>
-      <c r="J343" s="24"/>
-      <c r="K343" s="20"/>
-      <c r="L343" s="25"/>
-      <c r="M343" s="26"/>
-    </row>
-    <row r="344" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G344" s="21"/>
-      <c r="H344" s="22"/>
-      <c r="I344" s="23"/>
-      <c r="J344" s="24"/>
-      <c r="K344" s="20"/>
-      <c r="L344" s="25"/>
-      <c r="M344" s="26"/>
-    </row>
-    <row r="345" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G345" s="21"/>
-      <c r="H345" s="22"/>
-      <c r="I345" s="23"/>
-      <c r="J345" s="24"/>
-      <c r="K345" s="20"/>
-      <c r="L345" s="25"/>
-      <c r="M345" s="26"/>
-    </row>
-    <row r="346" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G346" s="21"/>
-      <c r="H346" s="22"/>
-      <c r="I346" s="23"/>
-      <c r="J346" s="24"/>
-      <c r="K346" s="20"/>
-      <c r="L346" s="25"/>
-      <c r="M346" s="26"/>
-    </row>
-    <row r="347" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G347" s="21"/>
-      <c r="H347" s="22"/>
-      <c r="I347" s="23"/>
-      <c r="J347" s="24"/>
-      <c r="K347" s="20"/>
-      <c r="L347" s="25"/>
-      <c r="M347" s="26"/>
-    </row>
-    <row r="348" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G348" s="21"/>
-      <c r="H348" s="22"/>
-      <c r="I348" s="23"/>
-      <c r="J348" s="24"/>
-      <c r="K348" s="20"/>
-      <c r="L348" s="25"/>
-      <c r="M348" s="26"/>
-    </row>
-    <row r="349" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G349" s="21"/>
-      <c r="H349" s="22"/>
-      <c r="I349" s="23"/>
-      <c r="J349" s="24"/>
-      <c r="K349" s="20"/>
-      <c r="L349" s="25"/>
-      <c r="M349" s="26"/>
-    </row>
-    <row r="350" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G350" s="21"/>
-      <c r="H350" s="22"/>
-      <c r="I350" s="23"/>
-      <c r="J350" s="24"/>
-      <c r="K350" s="20"/>
-      <c r="L350" s="25"/>
-      <c r="M350" s="26"/>
-    </row>
-    <row r="351" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G351" s="21"/>
-      <c r="H351" s="22"/>
-      <c r="I351" s="23"/>
-      <c r="J351" s="24"/>
-      <c r="K351" s="20"/>
-      <c r="L351" s="25"/>
-      <c r="M351" s="26"/>
-    </row>
-    <row r="352" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G352" s="21"/>
-      <c r="H352" s="22"/>
-      <c r="I352" s="23"/>
-      <c r="J352" s="24"/>
-      <c r="K352" s="20"/>
-      <c r="L352" s="25"/>
-      <c r="M352" s="26"/>
-    </row>
-    <row r="353" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G353" s="21"/>
-      <c r="H353" s="22"/>
-      <c r="I353" s="23"/>
-      <c r="J353" s="24"/>
-      <c r="K353" s="20"/>
-      <c r="L353" s="25"/>
-      <c r="M353" s="26"/>
-    </row>
-    <row r="354" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G354" s="21"/>
-      <c r="H354" s="22"/>
-      <c r="I354" s="23"/>
-      <c r="J354" s="24"/>
-      <c r="K354" s="20"/>
-      <c r="L354" s="25"/>
-      <c r="M354" s="26"/>
-    </row>
-    <row r="355" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G355" s="21"/>
-      <c r="H355" s="22"/>
-      <c r="I355" s="23"/>
-      <c r="J355" s="24"/>
-      <c r="K355" s="20"/>
-      <c r="L355" s="25"/>
-      <c r="M355" s="26"/>
-    </row>
-    <row r="356" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G356" s="21"/>
-      <c r="H356" s="22"/>
-      <c r="I356" s="23"/>
-      <c r="J356" s="24"/>
-      <c r="K356" s="20"/>
-      <c r="L356" s="25"/>
-      <c r="M356" s="26"/>
-    </row>
-    <row r="357" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G357" s="21"/>
-      <c r="H357" s="22"/>
-      <c r="I357" s="23"/>
-      <c r="J357" s="24"/>
-      <c r="K357" s="20"/>
-      <c r="L357" s="25"/>
-      <c r="M357" s="26"/>
-    </row>
-    <row r="358" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G358" s="21"/>
-      <c r="H358" s="22"/>
-      <c r="I358" s="23"/>
-      <c r="J358" s="24"/>
-      <c r="K358" s="20"/>
-      <c r="L358" s="25"/>
-      <c r="M358" s="26"/>
-    </row>
-    <row r="359" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G359" s="21"/>
-      <c r="H359" s="22"/>
-      <c r="I359" s="23"/>
-      <c r="J359" s="24"/>
-      <c r="K359" s="20"/>
-      <c r="L359" s="25"/>
-      <c r="M359" s="26"/>
-    </row>
-    <row r="360" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G360" s="21"/>
-      <c r="H360" s="22"/>
-      <c r="I360" s="23"/>
-      <c r="J360" s="24"/>
-      <c r="K360" s="20"/>
-      <c r="L360" s="25"/>
-      <c r="M360" s="26"/>
-    </row>
-    <row r="361" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G361" s="21"/>
-      <c r="H361" s="22"/>
-      <c r="I361" s="23"/>
-      <c r="J361" s="24"/>
-      <c r="K361" s="20"/>
-      <c r="L361" s="25"/>
-      <c r="M361" s="26"/>
-    </row>
-    <row r="362" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G362" s="21"/>
-      <c r="H362" s="22"/>
-      <c r="I362" s="23"/>
-      <c r="J362" s="24"/>
-      <c r="K362" s="20"/>
-      <c r="L362" s="25"/>
-      <c r="M362" s="26"/>
-    </row>
-    <row r="363" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G363" s="21"/>
-      <c r="H363" s="22"/>
-      <c r="I363" s="23"/>
-      <c r="J363" s="24"/>
-      <c r="K363" s="20"/>
-      <c r="L363" s="25"/>
-      <c r="M363" s="26"/>
-    </row>
-    <row r="364" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G364" s="21"/>
-      <c r="H364" s="22"/>
-      <c r="I364" s="23"/>
-      <c r="J364" s="24"/>
-      <c r="K364" s="20"/>
-      <c r="L364" s="25"/>
-      <c r="M364" s="26"/>
-    </row>
-    <row r="365" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G365" s="21"/>
-      <c r="H365" s="22"/>
-      <c r="I365" s="23"/>
-      <c r="J365" s="24"/>
-      <c r="K365" s="20"/>
-      <c r="L365" s="25"/>
-      <c r="M365" s="26"/>
-    </row>
-    <row r="366" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G366" s="21"/>
-      <c r="H366" s="22"/>
-      <c r="I366" s="23"/>
-      <c r="J366" s="24"/>
-      <c r="K366" s="20"/>
-      <c r="L366" s="25"/>
-      <c r="M366" s="26"/>
-    </row>
-    <row r="367" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G367" s="21"/>
-      <c r="H367" s="22"/>
-      <c r="I367" s="23"/>
-      <c r="J367" s="24"/>
-      <c r="K367" s="20"/>
-      <c r="L367" s="25"/>
-      <c r="M367" s="26"/>
-    </row>
-    <row r="368" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G368" s="21"/>
-      <c r="H368" s="22"/>
-      <c r="I368" s="23"/>
-      <c r="J368" s="24"/>
-      <c r="K368" s="20"/>
-      <c r="L368" s="25"/>
-      <c r="M368" s="26"/>
-    </row>
-    <row r="369" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G369" s="21"/>
-      <c r="H369" s="22"/>
-      <c r="I369" s="23"/>
-      <c r="J369" s="24"/>
-      <c r="K369" s="20"/>
-      <c r="L369" s="25"/>
-      <c r="M369" s="26"/>
-    </row>
-    <row r="370" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G370" s="21"/>
-      <c r="H370" s="22"/>
-      <c r="I370" s="23"/>
-      <c r="J370" s="24"/>
-      <c r="K370" s="20"/>
-      <c r="L370" s="25"/>
-      <c r="M370" s="26"/>
-    </row>
-    <row r="371" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G371" s="21"/>
-      <c r="H371" s="22"/>
-      <c r="I371" s="23"/>
-      <c r="J371" s="24"/>
-      <c r="K371" s="20"/>
-      <c r="L371" s="25"/>
-      <c r="M371" s="26"/>
-    </row>
-    <row r="372" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G372" s="21"/>
-      <c r="H372" s="22"/>
-      <c r="I372" s="23"/>
-      <c r="J372" s="24"/>
-      <c r="K372" s="20"/>
-      <c r="L372" s="25"/>
-      <c r="M372" s="26"/>
-    </row>
-    <row r="373" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G373" s="21"/>
-      <c r="H373" s="22"/>
-      <c r="I373" s="23"/>
-      <c r="J373" s="24"/>
-      <c r="K373" s="20"/>
-      <c r="L373" s="25"/>
-      <c r="M373" s="26"/>
-    </row>
-    <row r="374" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G374" s="21"/>
-      <c r="H374" s="22"/>
-      <c r="I374" s="23"/>
-      <c r="J374" s="24"/>
-      <c r="K374" s="20"/>
-      <c r="L374" s="25"/>
-      <c r="M374" s="26"/>
-    </row>
-    <row r="375" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G375" s="21"/>
-      <c r="H375" s="22"/>
-      <c r="I375" s="23"/>
-      <c r="J375" s="24"/>
-      <c r="K375" s="20"/>
-      <c r="L375" s="25"/>
-      <c r="M375" s="26"/>
-    </row>
-    <row r="376" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G376" s="21"/>
-      <c r="H376" s="22"/>
-      <c r="I376" s="23"/>
-      <c r="J376" s="24"/>
-      <c r="K376" s="20"/>
-      <c r="L376" s="25"/>
-      <c r="M376" s="26"/>
-    </row>
-    <row r="377" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G377" s="21"/>
-      <c r="H377" s="22"/>
-      <c r="I377" s="23"/>
-      <c r="J377" s="24"/>
-      <c r="K377" s="20"/>
-      <c r="L377" s="25"/>
-      <c r="M377" s="26"/>
-    </row>
-    <row r="378" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G378" s="21"/>
-      <c r="H378" s="22"/>
-      <c r="I378" s="23"/>
-      <c r="J378" s="24"/>
-      <c r="K378" s="20"/>
-      <c r="L378" s="25"/>
-      <c r="M378" s="26"/>
-    </row>
-    <row r="379" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G379" s="21"/>
-      <c r="H379" s="22"/>
-      <c r="I379" s="23"/>
-      <c r="J379" s="24"/>
-      <c r="K379" s="20"/>
-      <c r="L379" s="25"/>
-      <c r="M379" s="26"/>
-    </row>
-    <row r="380" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G380" s="21"/>
-      <c r="H380" s="22"/>
-      <c r="I380" s="23"/>
-      <c r="J380" s="24"/>
-      <c r="K380" s="20"/>
-      <c r="L380" s="25"/>
-      <c r="M380" s="26"/>
-    </row>
-    <row r="381" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G381" s="21"/>
-      <c r="H381" s="22"/>
-      <c r="I381" s="23"/>
-      <c r="J381" s="24"/>
-      <c r="K381" s="20"/>
-      <c r="L381" s="25"/>
-      <c r="M381" s="26"/>
-    </row>
-    <row r="382" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G382" s="21"/>
-      <c r="H382" s="22"/>
-      <c r="I382" s="23"/>
-      <c r="J382" s="24"/>
-      <c r="K382" s="20"/>
-      <c r="L382" s="25"/>
-      <c r="M382" s="26"/>
-    </row>
-    <row r="383" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G383" s="21"/>
-      <c r="H383" s="22"/>
-      <c r="I383" s="23"/>
-      <c r="J383" s="24"/>
-      <c r="K383" s="20"/>
-      <c r="L383" s="25"/>
-      <c r="M383" s="26"/>
-    </row>
-    <row r="384" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G384" s="21"/>
-      <c r="H384" s="22"/>
-      <c r="I384" s="23"/>
-      <c r="J384" s="24"/>
-      <c r="K384" s="20"/>
-      <c r="L384" s="25"/>
-      <c r="M384" s="26"/>
-    </row>
-    <row r="385" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G385" s="21"/>
-      <c r="H385" s="22"/>
-      <c r="I385" s="23"/>
-      <c r="J385" s="24"/>
-      <c r="K385" s="20"/>
-      <c r="L385" s="25"/>
-      <c r="M385" s="26"/>
-    </row>
-    <row r="386" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G386" s="21"/>
-      <c r="H386" s="22"/>
-      <c r="I386" s="23"/>
-      <c r="J386" s="24"/>
-      <c r="K386" s="20"/>
-      <c r="L386" s="25"/>
-      <c r="M386" s="26"/>
-    </row>
-    <row r="387" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G387" s="21"/>
-      <c r="H387" s="22"/>
-      <c r="I387" s="23"/>
-      <c r="J387" s="24"/>
-      <c r="K387" s="20"/>
-      <c r="L387" s="25"/>
-      <c r="M387" s="26"/>
-    </row>
-    <row r="388" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G388" s="21"/>
-      <c r="H388" s="22"/>
-      <c r="I388" s="23"/>
-      <c r="J388" s="24"/>
-      <c r="K388" s="20"/>
-      <c r="L388" s="25"/>
-      <c r="M388" s="26"/>
-    </row>
-    <row r="389" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G389" s="21"/>
-      <c r="H389" s="22"/>
-      <c r="I389" s="23"/>
-      <c r="J389" s="24"/>
-      <c r="K389" s="20"/>
-      <c r="L389" s="25"/>
-      <c r="M389" s="26"/>
-    </row>
-    <row r="390" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G390" s="21"/>
-      <c r="H390" s="22"/>
-      <c r="I390" s="23"/>
-      <c r="J390" s="24"/>
-      <c r="K390" s="20"/>
-      <c r="L390" s="25"/>
-      <c r="M390" s="26"/>
-    </row>
-    <row r="391" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G391" s="21"/>
-      <c r="H391" s="22"/>
-      <c r="I391" s="23"/>
-      <c r="J391" s="24"/>
-      <c r="K391" s="20"/>
-      <c r="L391" s="25"/>
-      <c r="M391" s="26"/>
-    </row>
-    <row r="392" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G392" s="21"/>
-      <c r="H392" s="22"/>
-      <c r="I392" s="23"/>
-      <c r="J392" s="24"/>
-      <c r="K392" s="20"/>
-      <c r="L392" s="25"/>
-      <c r="M392" s="26"/>
-    </row>
-    <row r="393" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G393" s="21"/>
-      <c r="H393" s="22"/>
-      <c r="I393" s="23"/>
-      <c r="J393" s="24"/>
-      <c r="K393" s="20"/>
-      <c r="L393" s="25"/>
-      <c r="M393" s="26"/>
-    </row>
-    <row r="394" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G394" s="21"/>
-      <c r="H394" s="22"/>
-      <c r="I394" s="23"/>
-      <c r="J394" s="24"/>
-      <c r="K394" s="20"/>
-      <c r="L394" s="25"/>
-      <c r="M394" s="26"/>
-    </row>
-    <row r="395" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G395" s="21"/>
-      <c r="H395" s="22"/>
-      <c r="I395" s="23"/>
-      <c r="J395" s="24"/>
-      <c r="K395" s="20"/>
-      <c r="L395" s="25"/>
-      <c r="M395" s="26"/>
-    </row>
-    <row r="396" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G396" s="21"/>
-      <c r="H396" s="22"/>
-      <c r="I396" s="23"/>
-      <c r="J396" s="24"/>
-      <c r="K396" s="20"/>
-      <c r="L396" s="25"/>
-      <c r="M396" s="26"/>
-    </row>
-    <row r="397" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G397" s="21"/>
-      <c r="H397" s="22"/>
-      <c r="I397" s="23"/>
-      <c r="J397" s="24"/>
-      <c r="K397" s="20"/>
-      <c r="L397" s="25"/>
-      <c r="M397" s="26"/>
-    </row>
-    <row r="398" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G398" s="21"/>
-      <c r="H398" s="22"/>
-      <c r="I398" s="23"/>
-      <c r="J398" s="24"/>
-      <c r="K398" s="20"/>
-      <c r="L398" s="25"/>
-      <c r="M398" s="26"/>
-    </row>
-    <row r="399" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G399" s="21"/>
-      <c r="H399" s="22"/>
-      <c r="I399" s="23"/>
-      <c r="J399" s="24"/>
-      <c r="K399" s="20"/>
-      <c r="L399" s="25"/>
-      <c r="M399" s="26"/>
-    </row>
-    <row r="400" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G400" s="21"/>
-      <c r="H400" s="22"/>
-      <c r="I400" s="23"/>
-      <c r="J400" s="24"/>
-      <c r="K400" s="20"/>
-      <c r="L400" s="25"/>
-      <c r="M400" s="26"/>
-    </row>
-    <row r="401" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G401" s="21"/>
-      <c r="H401" s="22"/>
-      <c r="I401" s="23"/>
-      <c r="J401" s="24"/>
-      <c r="K401" s="20"/>
-      <c r="L401" s="25"/>
-      <c r="M401" s="26"/>
-    </row>
-    <row r="402" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G402" s="21"/>
-      <c r="H402" s="22"/>
-      <c r="I402" s="23"/>
-      <c r="J402" s="24"/>
-      <c r="K402" s="20"/>
-      <c r="L402" s="25"/>
-      <c r="M402" s="26"/>
-    </row>
-    <row r="403" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G403" s="21"/>
-      <c r="H403" s="22"/>
-      <c r="I403" s="23"/>
-      <c r="J403" s="24"/>
-      <c r="K403" s="20"/>
-      <c r="L403" s="25"/>
-      <c r="M403" s="26"/>
-    </row>
-    <row r="404" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G404" s="21"/>
-      <c r="H404" s="22"/>
-      <c r="I404" s="23"/>
-      <c r="J404" s="24"/>
-      <c r="K404" s="20"/>
-      <c r="L404" s="25"/>
-      <c r="M404" s="26"/>
-    </row>
-    <row r="405" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G405" s="21"/>
-      <c r="H405" s="22"/>
-      <c r="I405" s="23"/>
-      <c r="J405" s="24"/>
-      <c r="K405" s="20"/>
-      <c r="L405" s="25"/>
-      <c r="M405" s="26"/>
-    </row>
-    <row r="406" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G406" s="21"/>
-      <c r="H406" s="22"/>
-      <c r="I406" s="23"/>
-      <c r="J406" s="24"/>
-      <c r="K406" s="20"/>
-      <c r="L406" s="25"/>
-      <c r="M406" s="26"/>
-    </row>
-    <row r="407" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G407" s="21"/>
-      <c r="H407" s="22"/>
-      <c r="I407" s="23"/>
-      <c r="J407" s="24"/>
-      <c r="K407" s="20"/>
-      <c r="L407" s="25"/>
-      <c r="M407" s="26"/>
-    </row>
-    <row r="408" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G408" s="21"/>
-      <c r="H408" s="22"/>
-      <c r="I408" s="23"/>
-      <c r="J408" s="24"/>
-      <c r="K408" s="20"/>
-      <c r="L408" s="25"/>
-      <c r="M408" s="26"/>
-    </row>
-    <row r="409" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G409" s="21"/>
-      <c r="H409" s="22"/>
-      <c r="I409" s="23"/>
-      <c r="J409" s="24"/>
-      <c r="K409" s="20"/>
-      <c r="L409" s="25"/>
-      <c r="M409" s="26"/>
-    </row>
-    <row r="410" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G410" s="21"/>
-      <c r="H410" s="22"/>
-      <c r="I410" s="23"/>
-      <c r="J410" s="24"/>
-      <c r="K410" s="20"/>
-      <c r="L410" s="25"/>
-      <c r="M410" s="26"/>
-    </row>
-    <row r="411" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G411" s="21"/>
-      <c r="H411" s="22"/>
-      <c r="I411" s="23"/>
-      <c r="J411" s="24"/>
-      <c r="K411" s="20"/>
-      <c r="L411" s="25"/>
-      <c r="M411" s="26"/>
-    </row>
-    <row r="412" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G412" s="21"/>
-      <c r="H412" s="22"/>
-      <c r="I412" s="23"/>
-      <c r="J412" s="24"/>
-      <c r="K412" s="20"/>
-      <c r="L412" s="25"/>
-      <c r="M412" s="26"/>
-    </row>
-    <row r="413" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G413" s="21"/>
-      <c r="H413" s="22"/>
-      <c r="I413" s="23"/>
-      <c r="J413" s="24"/>
-      <c r="K413" s="20"/>
-      <c r="L413" s="25"/>
-      <c r="M413" s="26"/>
-    </row>
-    <row r="414" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G414" s="21"/>
-      <c r="H414" s="22"/>
-      <c r="I414" s="23"/>
-      <c r="J414" s="24"/>
-      <c r="K414" s="20"/>
-      <c r="L414" s="25"/>
-      <c r="M414" s="26"/>
-    </row>
-    <row r="415" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G415" s="21"/>
-      <c r="H415" s="22"/>
-      <c r="I415" s="23"/>
-      <c r="J415" s="24"/>
-      <c r="K415" s="20"/>
-      <c r="L415" s="25"/>
-      <c r="M415" s="26"/>
-    </row>
-    <row r="416" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G416" s="21"/>
-      <c r="H416" s="22"/>
-      <c r="I416" s="23"/>
-      <c r="J416" s="24"/>
-      <c r="K416" s="20"/>
-      <c r="L416" s="25"/>
-      <c r="M416" s="26"/>
-    </row>
-    <row r="417" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G417" s="21"/>
-      <c r="H417" s="22"/>
-      <c r="I417" s="23"/>
-      <c r="J417" s="24"/>
-      <c r="K417" s="20"/>
-      <c r="L417" s="25"/>
-      <c r="M417" s="26"/>
-    </row>
-    <row r="418" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G418" s="21"/>
-      <c r="H418" s="22"/>
-      <c r="I418" s="23"/>
-      <c r="J418" s="24"/>
-      <c r="K418" s="20"/>
-      <c r="L418" s="25"/>
-      <c r="M418" s="26"/>
-    </row>
-    <row r="419" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G419" s="21"/>
-      <c r="H419" s="22"/>
-      <c r="I419" s="23"/>
-      <c r="J419" s="24"/>
-      <c r="K419" s="20"/>
-      <c r="L419" s="25"/>
-      <c r="M419" s="26"/>
-    </row>
-    <row r="420" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G420" s="21"/>
-      <c r="H420" s="22"/>
-      <c r="I420" s="23"/>
-      <c r="J420" s="24"/>
-      <c r="K420" s="20"/>
-      <c r="L420" s="25"/>
-      <c r="M420" s="26"/>
-    </row>
-    <row r="421" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G421" s="21"/>
-      <c r="H421" s="22"/>
-      <c r="I421" s="23"/>
-      <c r="J421" s="24"/>
-      <c r="K421" s="20"/>
-      <c r="L421" s="25"/>
-      <c r="M421" s="26"/>
-    </row>
-    <row r="422" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G422" s="21"/>
-      <c r="H422" s="22"/>
-      <c r="I422" s="23"/>
-      <c r="J422" s="24"/>
-      <c r="K422" s="20"/>
-      <c r="L422" s="25"/>
-      <c r="M422" s="26"/>
-    </row>
-    <row r="423" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G423" s="21"/>
-      <c r="H423" s="22"/>
-      <c r="I423" s="23"/>
-      <c r="J423" s="24"/>
-      <c r="K423" s="20"/>
-      <c r="L423" s="25"/>
-      <c r="M423" s="26"/>
-    </row>
-    <row r="424" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G424" s="21"/>
-      <c r="H424" s="22"/>
-      <c r="I424" s="23"/>
-      <c r="J424" s="24"/>
-      <c r="K424" s="20"/>
-      <c r="L424" s="25"/>
-      <c r="M424" s="26"/>
-    </row>
-    <row r="425" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G425" s="21"/>
-      <c r="H425" s="22"/>
-      <c r="I425" s="23"/>
-      <c r="J425" s="24"/>
-      <c r="K425" s="20"/>
-      <c r="L425" s="25"/>
-      <c r="M425" s="26"/>
-    </row>
-    <row r="426" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G426" s="21"/>
-      <c r="H426" s="22"/>
-      <c r="I426" s="23"/>
-      <c r="J426" s="24"/>
-      <c r="K426" s="20"/>
-      <c r="L426" s="25"/>
-      <c r="M426" s="26"/>
-    </row>
-    <row r="427" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G427" s="21"/>
-      <c r="H427" s="22"/>
-      <c r="I427" s="23"/>
-      <c r="J427" s="24"/>
-      <c r="K427" s="20"/>
-      <c r="L427" s="25"/>
-      <c r="M427" s="26"/>
-    </row>
-    <row r="428" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G428" s="21"/>
-      <c r="H428" s="22"/>
-      <c r="I428" s="23"/>
-      <c r="J428" s="24"/>
-      <c r="K428" s="20"/>
-      <c r="L428" s="25"/>
-      <c r="M428" s="26"/>
-    </row>
-    <row r="429" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G429" s="21"/>
-      <c r="H429" s="22"/>
-      <c r="I429" s="23"/>
-      <c r="J429" s="24"/>
-      <c r="K429" s="20"/>
-      <c r="L429" s="25"/>
-      <c r="M429" s="26"/>
-    </row>
-    <row r="430" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G430" s="21"/>
-      <c r="H430" s="22"/>
-      <c r="I430" s="23"/>
-      <c r="J430" s="24"/>
-      <c r="K430" s="20"/>
-      <c r="L430" s="25"/>
-      <c r="M430" s="26"/>
-    </row>
-    <row r="431" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G431" s="21"/>
-      <c r="H431" s="22"/>
-      <c r="I431" s="23"/>
-      <c r="J431" s="24"/>
-      <c r="K431" s="20"/>
-      <c r="L431" s="25"/>
-      <c r="M431" s="26"/>
-    </row>
-    <row r="432" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G432" s="21"/>
-      <c r="H432" s="22"/>
-      <c r="I432" s="23"/>
-      <c r="J432" s="24"/>
-      <c r="K432" s="20"/>
-      <c r="L432" s="25"/>
-      <c r="M432" s="26"/>
-    </row>
-    <row r="433" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G433" s="21"/>
-      <c r="H433" s="22"/>
-      <c r="I433" s="23"/>
-      <c r="J433" s="24"/>
-      <c r="K433" s="20"/>
-      <c r="L433" s="25"/>
-      <c r="M433" s="26"/>
-    </row>
-    <row r="434" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G434" s="21"/>
-      <c r="H434" s="22"/>
-      <c r="I434" s="23"/>
-      <c r="J434" s="24"/>
-      <c r="K434" s="20"/>
-      <c r="L434" s="25"/>
-      <c r="M434" s="26"/>
-    </row>
-    <row r="435" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G435" s="21"/>
-      <c r="H435" s="22"/>
-      <c r="I435" s="23"/>
-      <c r="J435" s="24"/>
-      <c r="K435" s="20"/>
-      <c r="L435" s="25"/>
-      <c r="M435" s="26"/>
-    </row>
-    <row r="436" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G436" s="21"/>
-      <c r="H436" s="22"/>
-      <c r="I436" s="23"/>
-      <c r="J436" s="24"/>
-      <c r="K436" s="20"/>
-      <c r="L436" s="25"/>
-      <c r="M436" s="26"/>
-    </row>
-    <row r="437" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G437" s="21"/>
-      <c r="H437" s="22"/>
-      <c r="I437" s="23"/>
-      <c r="J437" s="24"/>
-      <c r="K437" s="20"/>
-      <c r="L437" s="25"/>
-      <c r="M437" s="26"/>
-    </row>
-    <row r="438" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G438" s="21"/>
-      <c r="H438" s="22"/>
-      <c r="I438" s="23"/>
-      <c r="J438" s="24"/>
-      <c r="K438" s="20"/>
-      <c r="L438" s="25"/>
-      <c r="M438" s="26"/>
-    </row>
-    <row r="439" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G439" s="21"/>
-      <c r="H439" s="22"/>
-      <c r="I439" s="23"/>
-      <c r="J439" s="24"/>
-      <c r="K439" s="20"/>
-      <c r="L439" s="25"/>
-      <c r="M439" s="26"/>
-    </row>
-    <row r="440" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G440" s="21"/>
-      <c r="H440" s="22"/>
-      <c r="I440" s="23"/>
-      <c r="J440" s="24"/>
-      <c r="K440" s="20"/>
-      <c r="L440" s="25"/>
-      <c r="M440" s="26"/>
-    </row>
-    <row r="441" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G441" s="21"/>
-      <c r="H441" s="22"/>
-      <c r="I441" s="23"/>
-      <c r="J441" s="24"/>
-      <c r="K441" s="20"/>
-      <c r="L441" s="25"/>
-      <c r="M441" s="26"/>
-    </row>
-    <row r="442" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G442" s="21"/>
-      <c r="H442" s="22"/>
-      <c r="I442" s="23"/>
-      <c r="J442" s="24"/>
-      <c r="K442" s="20"/>
-      <c r="L442" s="25"/>
-      <c r="M442" s="26"/>
-    </row>
-    <row r="443" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G443" s="21"/>
-      <c r="H443" s="22"/>
-      <c r="I443" s="23"/>
-      <c r="J443" s="24"/>
-      <c r="K443" s="20"/>
-      <c r="L443" s="25"/>
-      <c r="M443" s="26"/>
-    </row>
-    <row r="444" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G444" s="21"/>
-      <c r="H444" s="22"/>
-      <c r="I444" s="23"/>
-      <c r="J444" s="24"/>
-      <c r="K444" s="20"/>
-      <c r="L444" s="25"/>
-      <c r="M444" s="26"/>
-    </row>
-    <row r="445" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G445" s="21"/>
-      <c r="H445" s="22"/>
-      <c r="I445" s="23"/>
-      <c r="J445" s="24"/>
-      <c r="K445" s="20"/>
-      <c r="L445" s="25"/>
-      <c r="M445" s="26"/>
-    </row>
-    <row r="446" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G446" s="21"/>
-      <c r="H446" s="22"/>
-      <c r="I446" s="23"/>
-      <c r="J446" s="24"/>
-      <c r="K446" s="20"/>
-      <c r="L446" s="25"/>
-      <c r="M446" s="26"/>
-    </row>
-    <row r="447" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G447" s="21"/>
-      <c r="H447" s="22"/>
-      <c r="I447" s="23"/>
-      <c r="J447" s="24"/>
-      <c r="K447" s="20"/>
-      <c r="L447" s="25"/>
-      <c r="M447" s="26"/>
-    </row>
-    <row r="448" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G448" s="21"/>
-      <c r="H448" s="22"/>
-      <c r="I448" s="23"/>
-      <c r="J448" s="24"/>
-      <c r="K448" s="20"/>
-      <c r="L448" s="25"/>
-      <c r="M448" s="26"/>
-    </row>
-    <row r="449" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G449" s="21"/>
-      <c r="H449" s="22"/>
-      <c r="I449" s="23"/>
-      <c r="J449" s="24"/>
-      <c r="K449" s="20"/>
-      <c r="L449" s="25"/>
-      <c r="M449" s="26"/>
-    </row>
-    <row r="450" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G450" s="21"/>
-      <c r="H450" s="22"/>
-      <c r="I450" s="23"/>
-      <c r="J450" s="24"/>
-      <c r="K450" s="20"/>
-      <c r="L450" s="25"/>
-      <c r="M450" s="26"/>
-    </row>
-    <row r="451" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G451" s="21"/>
-      <c r="H451" s="22"/>
-      <c r="I451" s="23"/>
-      <c r="J451" s="24"/>
-      <c r="K451" s="20"/>
-      <c r="L451" s="25"/>
-      <c r="M451" s="26"/>
-    </row>
-    <row r="452" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G452" s="21"/>
-      <c r="H452" s="22"/>
-      <c r="I452" s="23"/>
-      <c r="J452" s="24"/>
-      <c r="K452" s="20"/>
-      <c r="L452" s="25"/>
-      <c r="M452" s="26"/>
-    </row>
-    <row r="453" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G453" s="21"/>
-      <c r="H453" s="22"/>
-      <c r="I453" s="23"/>
-      <c r="J453" s="24"/>
-      <c r="K453" s="20"/>
-      <c r="L453" s="25"/>
-      <c r="M453" s="26"/>
-    </row>
-    <row r="454" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G454" s="21"/>
-      <c r="H454" s="22"/>
-      <c r="I454" s="23"/>
-      <c r="J454" s="24"/>
-      <c r="K454" s="20"/>
-      <c r="L454" s="25"/>
-      <c r="M454" s="26"/>
-    </row>
-    <row r="455" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G455" s="21"/>
-      <c r="H455" s="22"/>
-      <c r="I455" s="23"/>
-      <c r="J455" s="24"/>
-      <c r="K455" s="20"/>
-      <c r="L455" s="25"/>
-      <c r="M455" s="26"/>
-    </row>
-    <row r="456" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G456" s="21"/>
-      <c r="H456" s="22"/>
-      <c r="I456" s="23"/>
-      <c r="J456" s="24"/>
-      <c r="K456" s="20"/>
-      <c r="L456" s="25"/>
-      <c r="M456" s="26"/>
-    </row>
-    <row r="457" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G457" s="21"/>
-      <c r="H457" s="22"/>
-      <c r="I457" s="23"/>
-      <c r="J457" s="24"/>
-      <c r="K457" s="20"/>
-      <c r="L457" s="25"/>
-      <c r="M457" s="26"/>
-    </row>
-    <row r="458" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G458" s="21"/>
-      <c r="H458" s="22"/>
-      <c r="I458" s="23"/>
-      <c r="J458" s="24"/>
-      <c r="K458" s="20"/>
-      <c r="L458" s="25"/>
-      <c r="M458" s="26"/>
-    </row>
-    <row r="459" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G459" s="21"/>
-      <c r="H459" s="22"/>
-      <c r="I459" s="23"/>
-      <c r="J459" s="24"/>
-      <c r="K459" s="20"/>
-      <c r="L459" s="25"/>
-      <c r="M459" s="26"/>
-    </row>
-    <row r="460" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G460" s="21"/>
-      <c r="H460" s="22"/>
-      <c r="I460" s="23"/>
-      <c r="J460" s="24"/>
-      <c r="K460" s="20"/>
-      <c r="L460" s="25"/>
-      <c r="M460" s="26"/>
-    </row>
-    <row r="461" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G461" s="21"/>
-      <c r="H461" s="22"/>
-      <c r="I461" s="23"/>
-      <c r="J461" s="24"/>
-      <c r="K461" s="20"/>
-      <c r="L461" s="25"/>
-      <c r="M461" s="26"/>
-    </row>
-    <row r="462" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G462" s="21"/>
-      <c r="H462" s="22"/>
-      <c r="I462" s="23"/>
-      <c r="J462" s="24"/>
-      <c r="K462" s="20"/>
-      <c r="L462" s="25"/>
-      <c r="M462" s="26"/>
-    </row>
-    <row r="463" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G463" s="21"/>
-      <c r="H463" s="22"/>
-      <c r="I463" s="23"/>
-      <c r="J463" s="24"/>
-      <c r="K463" s="20"/>
-      <c r="L463" s="25"/>
-      <c r="M463" s="26"/>
-    </row>
-    <row r="464" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G464" s="21"/>
-      <c r="H464" s="22"/>
-      <c r="I464" s="23"/>
-      <c r="J464" s="24"/>
-      <c r="K464" s="20"/>
-      <c r="L464" s="25"/>
-      <c r="M464" s="26"/>
-    </row>
-    <row r="465" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G465" s="21"/>
-      <c r="H465" s="22"/>
-      <c r="I465" s="23"/>
-      <c r="J465" s="24"/>
-      <c r="K465" s="20"/>
-      <c r="L465" s="25"/>
-      <c r="M465" s="26"/>
-    </row>
-    <row r="466" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G466" s="21"/>
-      <c r="H466" s="22"/>
-      <c r="I466" s="23"/>
-      <c r="J466" s="24"/>
-      <c r="K466" s="20"/>
-      <c r="L466" s="25"/>
-      <c r="M466" s="26"/>
-    </row>
-    <row r="467" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G467" s="21"/>
-      <c r="H467" s="22"/>
-      <c r="I467" s="23"/>
-      <c r="J467" s="24"/>
-      <c r="K467" s="20"/>
-      <c r="L467" s="25"/>
-      <c r="M467" s="26"/>
-    </row>
-    <row r="468" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G468" s="21"/>
-      <c r="H468" s="22"/>
-      <c r="I468" s="23"/>
-      <c r="J468" s="24"/>
-      <c r="K468" s="20"/>
-      <c r="L468" s="25"/>
-      <c r="M468" s="26"/>
-    </row>
-    <row r="469" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G469" s="21"/>
-      <c r="H469" s="22"/>
-      <c r="I469" s="23"/>
-      <c r="J469" s="24"/>
-      <c r="K469" s="20"/>
-      <c r="L469" s="25"/>
-      <c r="M469" s="26"/>
-    </row>
-    <row r="470" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G470" s="21"/>
-      <c r="H470" s="22"/>
-      <c r="I470" s="23"/>
-      <c r="J470" s="24"/>
-      <c r="K470" s="20"/>
-      <c r="L470" s="25"/>
-      <c r="M470" s="26"/>
-    </row>
-    <row r="471" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G471" s="21"/>
-      <c r="H471" s="22"/>
-      <c r="I471" s="23"/>
-      <c r="J471" s="24"/>
-      <c r="K471" s="20"/>
-      <c r="L471" s="25"/>
-      <c r="M471" s="26"/>
-    </row>
-    <row r="472" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G472" s="21"/>
-      <c r="H472" s="22"/>
-      <c r="I472" s="23"/>
-      <c r="J472" s="24"/>
-      <c r="K472" s="20"/>
-      <c r="L472" s="25"/>
-      <c r="M472" s="26"/>
-    </row>
-    <row r="473" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G473" s="21"/>
-      <c r="H473" s="22"/>
-      <c r="I473" s="23"/>
-      <c r="J473" s="24"/>
-      <c r="K473" s="20"/>
-      <c r="L473" s="25"/>
-      <c r="M473" s="26"/>
-    </row>
-    <row r="474" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G474" s="21"/>
-      <c r="H474" s="22"/>
-      <c r="I474" s="23"/>
-      <c r="J474" s="24"/>
-      <c r="K474" s="20"/>
-      <c r="L474" s="25"/>
-      <c r="M474" s="26"/>
-    </row>
-    <row r="475" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G475" s="21"/>
-      <c r="H475" s="22"/>
-      <c r="I475" s="23"/>
-      <c r="J475" s="24"/>
-      <c r="K475" s="20"/>
-      <c r="L475" s="25"/>
-      <c r="M475" s="26"/>
-    </row>
-    <row r="476" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G476" s="21"/>
-      <c r="H476" s="22"/>
-      <c r="I476" s="23"/>
-      <c r="J476" s="24"/>
-      <c r="K476" s="20"/>
-      <c r="L476" s="25"/>
-      <c r="M476" s="26"/>
-    </row>
-    <row r="477" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G477" s="21"/>
-      <c r="H477" s="22"/>
-      <c r="I477" s="23"/>
-      <c r="J477" s="24"/>
-      <c r="K477" s="20"/>
-      <c r="L477" s="25"/>
-      <c r="M477" s="26"/>
-    </row>
-    <row r="478" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G478" s="21"/>
-      <c r="H478" s="22"/>
-      <c r="I478" s="23"/>
-      <c r="J478" s="24"/>
-      <c r="K478" s="20"/>
-      <c r="L478" s="25"/>
-      <c r="M478" s="26"/>
-    </row>
-    <row r="479" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G479" s="21"/>
-      <c r="H479" s="22"/>
-      <c r="I479" s="23"/>
-      <c r="J479" s="24"/>
-      <c r="K479" s="20"/>
-      <c r="L479" s="25"/>
-      <c r="M479" s="26"/>
-    </row>
-    <row r="480" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G480" s="21"/>
-      <c r="H480" s="22"/>
-      <c r="I480" s="23"/>
-      <c r="J480" s="24"/>
-      <c r="K480" s="20"/>
-      <c r="L480" s="25"/>
-      <c r="M480" s="26"/>
-    </row>
-    <row r="481" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G481" s="21"/>
-      <c r="H481" s="22"/>
-      <c r="I481" s="23"/>
-      <c r="J481" s="24"/>
-      <c r="K481" s="20"/>
-      <c r="L481" s="25"/>
-      <c r="M481" s="26"/>
-    </row>
-    <row r="482" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G482" s="21"/>
-      <c r="H482" s="22"/>
-      <c r="I482" s="23"/>
-      <c r="J482" s="24"/>
-      <c r="K482" s="20"/>
-      <c r="L482" s="25"/>
-      <c r="M482" s="26"/>
-    </row>
-    <row r="483" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G483" s="21"/>
-      <c r="H483" s="22"/>
-      <c r="I483" s="23"/>
-      <c r="J483" s="24"/>
-      <c r="K483" s="20"/>
-      <c r="L483" s="25"/>
-      <c r="M483" s="26"/>
-    </row>
-    <row r="484" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G484" s="21"/>
-      <c r="H484" s="22"/>
-      <c r="I484" s="23"/>
-      <c r="J484" s="24"/>
-      <c r="K484" s="20"/>
-      <c r="L484" s="25"/>
-      <c r="M484" s="26"/>
-    </row>
-    <row r="485" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G485" s="21"/>
-      <c r="H485" s="22"/>
-      <c r="I485" s="23"/>
-      <c r="J485" s="24"/>
-      <c r="K485" s="20"/>
-      <c r="L485" s="25"/>
-      <c r="M485" s="26"/>
-    </row>
-    <row r="486" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G486" s="21"/>
-      <c r="H486" s="22"/>
-      <c r="I486" s="23"/>
-      <c r="J486" s="24"/>
-      <c r="K486" s="20"/>
-      <c r="L486" s="25"/>
-      <c r="M486" s="26"/>
-    </row>
-    <row r="487" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G487" s="21"/>
-      <c r="H487" s="22"/>
-      <c r="I487" s="23"/>
-      <c r="J487" s="24"/>
-      <c r="K487" s="20"/>
-      <c r="L487" s="25"/>
-      <c r="M487" s="26"/>
-    </row>
-    <row r="488" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G488" s="21"/>
-      <c r="H488" s="22"/>
-      <c r="I488" s="23"/>
-      <c r="J488" s="24"/>
-      <c r="K488" s="20"/>
-      <c r="L488" s="25"/>
-      <c r="M488" s="26"/>
-    </row>
-    <row r="489" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G489" s="21"/>
-      <c r="H489" s="22"/>
-      <c r="I489" s="23"/>
-      <c r="J489" s="24"/>
-      <c r="K489" s="20"/>
-      <c r="L489" s="25"/>
-      <c r="M489" s="26"/>
-    </row>
-    <row r="490" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G490" s="21"/>
-      <c r="H490" s="22"/>
-      <c r="I490" s="23"/>
-      <c r="J490" s="24"/>
-      <c r="K490" s="20"/>
-      <c r="L490" s="25"/>
-      <c r="M490" s="26"/>
-    </row>
-    <row r="491" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G491" s="21"/>
-      <c r="H491" s="22"/>
-      <c r="I491" s="23"/>
-      <c r="J491" s="24"/>
-      <c r="K491" s="20"/>
-      <c r="L491" s="25"/>
-      <c r="M491" s="26"/>
-    </row>
-    <row r="492" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G492" s="21"/>
-      <c r="H492" s="22"/>
-      <c r="I492" s="23"/>
-      <c r="J492" s="24"/>
-      <c r="K492" s="20"/>
-      <c r="L492" s="25"/>
-      <c r="M492" s="26"/>
-    </row>
-    <row r="493" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G493" s="21"/>
-      <c r="H493" s="22"/>
-      <c r="I493" s="23"/>
-      <c r="J493" s="24"/>
-      <c r="K493" s="20"/>
-      <c r="L493" s="25"/>
-      <c r="M493" s="26"/>
-    </row>
-    <row r="494" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G494" s="21"/>
-      <c r="H494" s="22"/>
-      <c r="I494" s="23"/>
-      <c r="J494" s="24"/>
-      <c r="K494" s="20"/>
-      <c r="L494" s="25"/>
-      <c r="M494" s="26"/>
-    </row>
-    <row r="495" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G495" s="21"/>
-      <c r="H495" s="22"/>
-      <c r="I495" s="23"/>
-      <c r="J495" s="24"/>
-      <c r="K495" s="20"/>
-      <c r="L495" s="25"/>
-      <c r="M495" s="26"/>
-    </row>
-    <row r="496" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G496" s="21"/>
-      <c r="H496" s="22"/>
-      <c r="I496" s="23"/>
-      <c r="J496" s="24"/>
-      <c r="K496" s="20"/>
-      <c r="L496" s="25"/>
-      <c r="M496" s="26"/>
-    </row>
-    <row r="497" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G497" s="21"/>
-      <c r="H497" s="22"/>
-      <c r="I497" s="23"/>
-      <c r="J497" s="24"/>
-      <c r="K497" s="20"/>
-      <c r="L497" s="25"/>
-      <c r="M497" s="26"/>
-    </row>
-    <row r="498" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G498" s="21"/>
-      <c r="H498" s="22"/>
-      <c r="I498" s="23"/>
-      <c r="J498" s="24"/>
-      <c r="K498" s="20"/>
-      <c r="L498" s="25"/>
-      <c r="M498" s="26"/>
-    </row>
-    <row r="499" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G499" s="21"/>
-      <c r="H499" s="22"/>
-      <c r="I499" s="23"/>
-      <c r="J499" s="24"/>
-      <c r="K499" s="20"/>
-      <c r="L499" s="25"/>
-      <c r="M499" s="26"/>
-    </row>
-    <row r="500" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G500" s="21"/>
-      <c r="H500" s="22"/>
-      <c r="I500" s="23"/>
-      <c r="J500" s="24"/>
-      <c r="K500" s="20"/>
-      <c r="L500" s="25"/>
-      <c r="M500" s="26"/>
-    </row>
-    <row r="501" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G501" s="21"/>
-      <c r="H501" s="22"/>
-      <c r="I501" s="23"/>
-      <c r="J501" s="24"/>
-      <c r="K501" s="20"/>
-      <c r="L501" s="25"/>
-      <c r="M501" s="26"/>
-    </row>
-    <row r="502" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G502" s="21"/>
-      <c r="H502" s="22"/>
-      <c r="I502" s="23"/>
-      <c r="J502" s="24"/>
-      <c r="K502" s="20"/>
-      <c r="L502" s="25"/>
-      <c r="M502" s="26"/>
-    </row>
-    <row r="503" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G503" s="21"/>
-      <c r="H503" s="22"/>
-      <c r="I503" s="23"/>
-      <c r="J503" s="24"/>
-      <c r="K503" s="20"/>
-      <c r="L503" s="25"/>
-      <c r="M503" s="26"/>
-    </row>
-    <row r="504" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G504" s="21"/>
-      <c r="H504" s="22"/>
-      <c r="I504" s="23"/>
-      <c r="J504" s="24"/>
-      <c r="K504" s="20"/>
-      <c r="L504" s="25"/>
-      <c r="M504" s="26"/>
-    </row>
-    <row r="505" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G505" s="21"/>
-      <c r="H505" s="22"/>
-      <c r="I505" s="23"/>
-      <c r="J505" s="24"/>
-      <c r="K505" s="20"/>
-      <c r="L505" s="25"/>
-      <c r="M505" s="26"/>
-    </row>
-    <row r="506" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G506" s="21"/>
-      <c r="H506" s="22"/>
-      <c r="I506" s="23"/>
-      <c r="J506" s="24"/>
-      <c r="K506" s="20"/>
-      <c r="L506" s="25"/>
-      <c r="M506" s="26"/>
-    </row>
-    <row r="507" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G507" s="21"/>
-      <c r="H507" s="22"/>
-      <c r="I507" s="23"/>
-      <c r="J507" s="24"/>
-      <c r="K507" s="20"/>
-      <c r="L507" s="25"/>
-      <c r="M507" s="26"/>
-    </row>
-    <row r="508" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G508" s="21"/>
-      <c r="H508" s="22"/>
-      <c r="I508" s="23"/>
-      <c r="J508" s="24"/>
-      <c r="K508" s="20"/>
-      <c r="L508" s="25"/>
-      <c r="M508" s="26"/>
-    </row>
-    <row r="509" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G509" s="21"/>
-      <c r="H509" s="22"/>
-      <c r="I509" s="23"/>
-      <c r="J509" s="24"/>
-      <c r="K509" s="20"/>
-      <c r="L509" s="25"/>
-      <c r="M509" s="26"/>
-    </row>
-    <row r="510" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G510" s="21"/>
-      <c r="H510" s="22"/>
-      <c r="I510" s="23"/>
-      <c r="J510" s="24"/>
-      <c r="K510" s="20"/>
-      <c r="L510" s="25"/>
-      <c r="M510" s="26"/>
-    </row>
-    <row r="511" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G511" s="21"/>
-      <c r="H511" s="22"/>
-      <c r="I511" s="23"/>
-      <c r="J511" s="24"/>
-      <c r="K511" s="20"/>
-      <c r="L511" s="25"/>
-      <c r="M511" s="26"/>
-    </row>
-    <row r="512" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G512" s="21"/>
-      <c r="H512" s="22"/>
-      <c r="I512" s="23"/>
-      <c r="J512" s="24"/>
-      <c r="K512" s="20"/>
-      <c r="L512" s="25"/>
-      <c r="M512" s="26"/>
-    </row>
-    <row r="513" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G513" s="21"/>
-      <c r="H513" s="22"/>
-      <c r="I513" s="23"/>
-      <c r="J513" s="24"/>
-      <c r="K513" s="20"/>
-      <c r="L513" s="25"/>
-      <c r="M513" s="26"/>
-    </row>
-    <row r="514" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G514" s="21"/>
-      <c r="H514" s="22"/>
-      <c r="I514" s="23"/>
-      <c r="J514" s="24"/>
-      <c r="K514" s="20"/>
-      <c r="L514" s="25"/>
-      <c r="M514" s="26"/>
-    </row>
-    <row r="515" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G515" s="21"/>
-      <c r="H515" s="22"/>
-      <c r="I515" s="23"/>
-      <c r="J515" s="24"/>
-      <c r="K515" s="20"/>
-      <c r="L515" s="25"/>
-      <c r="M515" s="26"/>
-    </row>
-    <row r="516" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G516" s="21"/>
-      <c r="H516" s="22"/>
-      <c r="I516" s="23"/>
-      <c r="J516" s="24"/>
-      <c r="K516" s="20"/>
-      <c r="L516" s="25"/>
-      <c r="M516" s="26"/>
-    </row>
-    <row r="517" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G517" s="21"/>
-      <c r="H517" s="22"/>
-      <c r="I517" s="23"/>
-      <c r="J517" s="24"/>
-      <c r="K517" s="20"/>
-      <c r="L517" s="25"/>
-      <c r="M517" s="26"/>
-    </row>
-    <row r="518" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G518" s="21"/>
-      <c r="H518" s="22"/>
-      <c r="I518" s="23"/>
-      <c r="J518" s="24"/>
-      <c r="K518" s="20"/>
-      <c r="L518" s="25"/>
-      <c r="M518" s="26"/>
-    </row>
-    <row r="519" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G519" s="21"/>
-      <c r="H519" s="22"/>
-      <c r="I519" s="23"/>
-      <c r="J519" s="24"/>
-      <c r="K519" s="20"/>
-      <c r="L519" s="25"/>
-      <c r="M519" s="26"/>
-    </row>
-    <row r="520" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G520" s="21"/>
-      <c r="H520" s="22"/>
-      <c r="I520" s="23"/>
-      <c r="J520" s="24"/>
-      <c r="K520" s="20"/>
-      <c r="L520" s="25"/>
-      <c r="M520" s="26"/>
-    </row>
-    <row r="521" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G521" s="21"/>
-      <c r="H521" s="22"/>
-      <c r="I521" s="23"/>
-      <c r="J521" s="24"/>
-      <c r="K521" s="20"/>
-      <c r="L521" s="25"/>
-      <c r="M521" s="26"/>
-    </row>
-    <row r="522" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G522" s="21"/>
-      <c r="H522" s="22"/>
-      <c r="I522" s="23"/>
-      <c r="J522" s="24"/>
-      <c r="K522" s="20"/>
-      <c r="L522" s="25"/>
-      <c r="M522" s="26"/>
-    </row>
-    <row r="523" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G523" s="21"/>
-      <c r="H523" s="22"/>
-      <c r="I523" s="23"/>
-      <c r="J523" s="24"/>
-      <c r="K523" s="20"/>
-      <c r="L523" s="25"/>
-      <c r="M523" s="26"/>
-    </row>
-    <row r="524" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G524" s="21"/>
-      <c r="H524" s="22"/>
-      <c r="I524" s="23"/>
-      <c r="J524" s="24"/>
-      <c r="K524" s="20"/>
-      <c r="L524" s="25"/>
-      <c r="M524" s="26"/>
-    </row>
-    <row r="525" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G525" s="21"/>
-      <c r="H525" s="22"/>
-      <c r="I525" s="23"/>
-      <c r="J525" s="24"/>
-      <c r="K525" s="20"/>
-      <c r="L525" s="25"/>
-      <c r="M525" s="26"/>
-    </row>
-    <row r="526" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G526" s="21"/>
-      <c r="H526" s="22"/>
-      <c r="I526" s="23"/>
-      <c r="J526" s="24"/>
-      <c r="K526" s="20"/>
-      <c r="L526" s="25"/>
-      <c r="M526" s="26"/>
-    </row>
-    <row r="527" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G527" s="21"/>
-      <c r="H527" s="22"/>
-      <c r="I527" s="23"/>
-      <c r="J527" s="24"/>
-      <c r="K527" s="20"/>
-      <c r="L527" s="25"/>
-      <c r="M527" s="26"/>
-    </row>
-    <row r="528" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G528" s="21"/>
-      <c r="H528" s="22"/>
-      <c r="I528" s="23"/>
-      <c r="J528" s="24"/>
-      <c r="K528" s="20"/>
-      <c r="L528" s="25"/>
-      <c r="M528" s="26"/>
-    </row>
-    <row r="529" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G529" s="21"/>
-      <c r="H529" s="22"/>
-      <c r="I529" s="23"/>
-      <c r="J529" s="24"/>
-      <c r="K529" s="20"/>
-      <c r="L529" s="25"/>
-      <c r="M529" s="26"/>
-    </row>
-    <row r="530" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G530" s="21"/>
-      <c r="H530" s="22"/>
-      <c r="I530" s="23"/>
-      <c r="J530" s="24"/>
-      <c r="K530" s="20"/>
-      <c r="L530" s="25"/>
-      <c r="M530" s="26"/>
-    </row>
-    <row r="531" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G531" s="21"/>
-      <c r="H531" s="22"/>
-      <c r="I531" s="23"/>
-      <c r="J531" s="24"/>
-      <c r="K531" s="20"/>
-      <c r="L531" s="25"/>
-      <c r="M531" s="26"/>
-    </row>
-    <row r="532" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G532" s="21"/>
-      <c r="H532" s="22"/>
-      <c r="I532" s="23"/>
-      <c r="J532" s="24"/>
-      <c r="K532" s="20"/>
-      <c r="L532" s="25"/>
-      <c r="M532" s="26"/>
-    </row>
-    <row r="533" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G533" s="21"/>
-      <c r="H533" s="22"/>
-      <c r="I533" s="23"/>
-      <c r="J533" s="24"/>
-      <c r="K533" s="20"/>
-      <c r="L533" s="25"/>
-      <c r="M533" s="26"/>
-    </row>
-    <row r="534" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G534" s="21"/>
-      <c r="H534" s="22"/>
-      <c r="I534" s="23"/>
-      <c r="J534" s="24"/>
-      <c r="K534" s="20"/>
-      <c r="L534" s="25"/>
-      <c r="M534" s="26"/>
-    </row>
-    <row r="535" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G535" s="21"/>
-      <c r="H535" s="22"/>
-      <c r="I535" s="23"/>
-      <c r="J535" s="24"/>
-      <c r="K535" s="20"/>
-      <c r="L535" s="25"/>
-      <c r="M535" s="26"/>
-    </row>
-    <row r="536" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G536" s="21"/>
-      <c r="H536" s="22"/>
-      <c r="I536" s="23"/>
-      <c r="J536" s="24"/>
-      <c r="K536" s="20"/>
-      <c r="L536" s="25"/>
-      <c r="M536" s="26"/>
-    </row>
-    <row r="537" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G537" s="21"/>
-      <c r="H537" s="22"/>
-      <c r="I537" s="23"/>
-      <c r="J537" s="24"/>
-      <c r="K537" s="20"/>
-      <c r="L537" s="25"/>
-      <c r="M537" s="26"/>
-    </row>
-    <row r="538" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G538" s="21"/>
-      <c r="H538" s="22"/>
-      <c r="I538" s="23"/>
-      <c r="J538" s="24"/>
-      <c r="K538" s="20"/>
-      <c r="L538" s="25"/>
-      <c r="M538" s="26"/>
-    </row>
-    <row r="539" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G539" s="21"/>
-      <c r="H539" s="22"/>
-      <c r="I539" s="23"/>
-      <c r="J539" s="24"/>
-      <c r="K539" s="20"/>
-      <c r="L539" s="25"/>
-      <c r="M539" s="26"/>
-    </row>
-    <row r="540" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G540" s="21"/>
-      <c r="H540" s="22"/>
-      <c r="I540" s="23"/>
-      <c r="J540" s="24"/>
-      <c r="K540" s="20"/>
-      <c r="L540" s="25"/>
-      <c r="M540" s="26"/>
-    </row>
-    <row r="541" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G541" s="21"/>
-      <c r="H541" s="22"/>
-      <c r="I541" s="23"/>
-      <c r="J541" s="24"/>
-      <c r="K541" s="20"/>
-      <c r="L541" s="25"/>
-      <c r="M541" s="26"/>
-    </row>
-    <row r="542" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G542" s="21"/>
-      <c r="H542" s="22"/>
-      <c r="I542" s="23"/>
-      <c r="J542" s="24"/>
-      <c r="K542" s="20"/>
-      <c r="L542" s="25"/>
-      <c r="M542" s="26"/>
-    </row>
-    <row r="543" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G543" s="21"/>
-      <c r="H543" s="22"/>
-      <c r="I543" s="23"/>
-      <c r="J543" s="24"/>
-      <c r="K543" s="20"/>
-      <c r="L543" s="25"/>
-      <c r="M543" s="26"/>
-    </row>
-    <row r="544" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G544" s="21"/>
-      <c r="H544" s="22"/>
-      <c r="I544" s="23"/>
-      <c r="J544" s="24"/>
-      <c r="K544" s="20"/>
-      <c r="L544" s="25"/>
-      <c r="M544" s="26"/>
-    </row>
-    <row r="545" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G545" s="21"/>
-      <c r="H545" s="22"/>
-      <c r="I545" s="23"/>
-      <c r="J545" s="24"/>
-      <c r="K545" s="20"/>
-      <c r="L545" s="25"/>
-      <c r="M545" s="26"/>
-    </row>
-    <row r="546" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G546" s="21"/>
-      <c r="H546" s="22"/>
-      <c r="I546" s="23"/>
-      <c r="J546" s="24"/>
-      <c r="K546" s="20"/>
-      <c r="L546" s="25"/>
-      <c r="M546" s="26"/>
-    </row>
-    <row r="547" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G547" s="21"/>
-      <c r="H547" s="22"/>
-      <c r="I547" s="23"/>
-      <c r="J547" s="24"/>
-      <c r="K547" s="20"/>
-      <c r="L547" s="25"/>
-      <c r="M547" s="26"/>
-    </row>
-    <row r="548" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G548" s="21"/>
-      <c r="H548" s="22"/>
-      <c r="I548" s="23"/>
-      <c r="J548" s="24"/>
-      <c r="K548" s="20"/>
-      <c r="L548" s="25"/>
-      <c r="M548" s="26"/>
-    </row>
-    <row r="549" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G549" s="21"/>
-      <c r="H549" s="22"/>
-      <c r="I549" s="23"/>
-      <c r="J549" s="24"/>
-      <c r="K549" s="20"/>
-      <c r="L549" s="25"/>
-      <c r="M549" s="26"/>
-    </row>
-    <row r="550" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G550" s="21"/>
-      <c r="H550" s="22"/>
-      <c r="I550" s="23"/>
-      <c r="J550" s="24"/>
-      <c r="K550" s="20"/>
-      <c r="L550" s="25"/>
-      <c r="M550" s="26"/>
-    </row>
-    <row r="551" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G551" s="21"/>
-      <c r="H551" s="22"/>
-      <c r="I551" s="23"/>
-      <c r="J551" s="24"/>
-      <c r="K551" s="20"/>
-      <c r="L551" s="25"/>
-      <c r="M551" s="26"/>
-    </row>
-    <row r="552" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G552" s="21"/>
-      <c r="H552" s="22"/>
-      <c r="I552" s="23"/>
-      <c r="J552" s="24"/>
-      <c r="K552" s="20"/>
-      <c r="L552" s="25"/>
-      <c r="M552" s="26"/>
-    </row>
-    <row r="553" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G553" s="21"/>
-      <c r="H553" s="22"/>
-      <c r="I553" s="23"/>
-      <c r="J553" s="24"/>
-      <c r="K553" s="20"/>
-      <c r="L553" s="25"/>
-      <c r="M553" s="26"/>
-    </row>
-    <row r="554" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G554" s="21"/>
-      <c r="H554" s="22"/>
-      <c r="I554" s="23"/>
-      <c r="J554" s="24"/>
-      <c r="K554" s="20"/>
-      <c r="L554" s="25"/>
-      <c r="M554" s="26"/>
-    </row>
-    <row r="555" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G555" s="21"/>
-      <c r="H555" s="22"/>
-      <c r="I555" s="23"/>
-      <c r="J555" s="24"/>
-      <c r="K555" s="20"/>
-      <c r="L555" s="25"/>
-      <c r="M555" s="26"/>
-    </row>
-    <row r="556" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G556" s="21"/>
-      <c r="H556" s="22"/>
-      <c r="I556" s="23"/>
-      <c r="J556" s="24"/>
-      <c r="K556" s="20"/>
-      <c r="L556" s="25"/>
-      <c r="M556" s="26"/>
-    </row>
-    <row r="557" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G557" s="21"/>
-      <c r="H557" s="22"/>
-      <c r="I557" s="23"/>
-      <c r="J557" s="24"/>
-      <c r="K557" s="20"/>
-      <c r="L557" s="25"/>
-      <c r="M557" s="26"/>
-    </row>
-    <row r="558" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G558" s="21"/>
-      <c r="H558" s="22"/>
-      <c r="I558" s="23"/>
-      <c r="J558" s="24"/>
-      <c r="K558" s="20"/>
-      <c r="L558" s="25"/>
-      <c r="M558" s="26"/>
-    </row>
-    <row r="559" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G559" s="21"/>
-      <c r="H559" s="22"/>
-      <c r="I559" s="23"/>
-      <c r="J559" s="24"/>
-      <c r="K559" s="20"/>
-      <c r="L559" s="25"/>
-      <c r="M559" s="26"/>
-    </row>
-    <row r="560" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G560" s="21"/>
-      <c r="H560" s="22"/>
-      <c r="I560" s="23"/>
-      <c r="J560" s="24"/>
-      <c r="K560" s="20"/>
-      <c r="L560" s="25"/>
-      <c r="M560" s="26"/>
-    </row>
-    <row r="561" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G561" s="21"/>
-      <c r="H561" s="22"/>
-      <c r="I561" s="23"/>
-      <c r="J561" s="24"/>
-      <c r="K561" s="20"/>
-      <c r="L561" s="25"/>
-      <c r="M561" s="26"/>
-    </row>
-    <row r="562" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G562" s="21"/>
-      <c r="H562" s="22"/>
-      <c r="I562" s="23"/>
-      <c r="J562" s="24"/>
-      <c r="K562" s="20"/>
-      <c r="L562" s="25"/>
-      <c r="M562" s="26"/>
-    </row>
-    <row r="563" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G563" s="21"/>
-      <c r="H563" s="22"/>
-      <c r="I563" s="23"/>
-      <c r="J563" s="24"/>
-      <c r="K563" s="20"/>
-      <c r="L563" s="25"/>
-      <c r="M563" s="26"/>
-    </row>
-    <row r="564" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G564" s="21"/>
-      <c r="H564" s="22"/>
-      <c r="I564" s="23"/>
-      <c r="J564" s="24"/>
-      <c r="K564" s="20"/>
-      <c r="L564" s="25"/>
-      <c r="M564" s="26"/>
-    </row>
-    <row r="565" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G565" s="21"/>
-      <c r="H565" s="22"/>
-      <c r="I565" s="23"/>
-      <c r="J565" s="24"/>
-      <c r="K565" s="20"/>
-      <c r="L565" s="25"/>
-      <c r="M565" s="26"/>
-    </row>
-    <row r="566" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G566" s="21"/>
-      <c r="H566" s="22"/>
-      <c r="I566" s="23"/>
-      <c r="J566" s="24"/>
-      <c r="K566" s="20"/>
-      <c r="L566" s="25"/>
-      <c r="M566" s="26"/>
-    </row>
-    <row r="567" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G567" s="21"/>
-      <c r="H567" s="22"/>
-      <c r="I567" s="23"/>
-      <c r="J567" s="24"/>
-      <c r="K567" s="20"/>
-      <c r="L567" s="25"/>
-      <c r="M567" s="26"/>
-    </row>
-    <row r="568" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G568" s="21"/>
-      <c r="H568" s="22"/>
-      <c r="I568" s="23"/>
-      <c r="J568" s="24"/>
-      <c r="K568" s="20"/>
-      <c r="L568" s="25"/>
-      <c r="M568" s="26"/>
-    </row>
-    <row r="569" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G569" s="21"/>
-      <c r="H569" s="22"/>
-      <c r="I569" s="23"/>
-      <c r="J569" s="24"/>
-      <c r="K569" s="20"/>
-      <c r="L569" s="25"/>
-      <c r="M569" s="26"/>
-    </row>
-    <row r="570" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G570" s="21"/>
-      <c r="H570" s="22"/>
-      <c r="I570" s="23"/>
-      <c r="J570" s="24"/>
-      <c r="K570" s="20"/>
-      <c r="L570" s="25"/>
-      <c r="M570" s="26"/>
-    </row>
-    <row r="571" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G571" s="21"/>
-      <c r="H571" s="22"/>
-      <c r="I571" s="23"/>
-      <c r="J571" s="24"/>
-      <c r="K571" s="20"/>
-      <c r="L571" s="25"/>
-      <c r="M571" s="26"/>
-    </row>
-    <row r="572" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G572" s="21"/>
-      <c r="H572" s="22"/>
-      <c r="I572" s="23"/>
-      <c r="J572" s="24"/>
-      <c r="K572" s="20"/>
-      <c r="L572" s="25"/>
-      <c r="M572" s="26"/>
-    </row>
-    <row r="573" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G573" s="21"/>
-      <c r="H573" s="22"/>
-      <c r="I573" s="23"/>
-      <c r="J573" s="24"/>
-      <c r="K573" s="20"/>
-      <c r="L573" s="25"/>
-      <c r="M573" s="26"/>
-    </row>
-    <row r="574" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G574" s="21"/>
-      <c r="H574" s="22"/>
-      <c r="I574" s="23"/>
-      <c r="J574" s="24"/>
-      <c r="K574" s="20"/>
-      <c r="L574" s="25"/>
-      <c r="M574" s="26"/>
-    </row>
-    <row r="575" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G575" s="21"/>
-      <c r="H575" s="22"/>
-      <c r="I575" s="23"/>
-      <c r="J575" s="24"/>
-      <c r="K575" s="20"/>
-      <c r="L575" s="25"/>
-      <c r="M575" s="26"/>
-    </row>
-    <row r="576" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G576" s="21"/>
-      <c r="H576" s="22"/>
-      <c r="I576" s="23"/>
-      <c r="J576" s="24"/>
-      <c r="K576" s="20"/>
-      <c r="L576" s="25"/>
-      <c r="M576" s="26"/>
-    </row>
-    <row r="577" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G577" s="21"/>
-      <c r="H577" s="22"/>
-      <c r="I577" s="23"/>
-      <c r="J577" s="24"/>
-      <c r="K577" s="20"/>
-      <c r="L577" s="25"/>
-      <c r="M577" s="26"/>
-    </row>
-    <row r="578" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G578" s="21"/>
-      <c r="H578" s="22"/>
-      <c r="I578" s="23"/>
-      <c r="J578" s="24"/>
-      <c r="K578" s="20"/>
-      <c r="L578" s="25"/>
-      <c r="M578" s="26"/>
-    </row>
-    <row r="579" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G579" s="21"/>
-      <c r="H579" s="22"/>
-      <c r="I579" s="23"/>
-      <c r="J579" s="24"/>
-      <c r="K579" s="20"/>
-      <c r="L579" s="25"/>
-      <c r="M579" s="26"/>
-    </row>
-    <row r="580" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G580" s="21"/>
-      <c r="H580" s="22"/>
-      <c r="I580" s="23"/>
-      <c r="J580" s="24"/>
-      <c r="K580" s="20"/>
-      <c r="L580" s="25"/>
-      <c r="M580" s="26"/>
-    </row>
-    <row r="581" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G581" s="21"/>
-      <c r="H581" s="22"/>
-      <c r="I581" s="23"/>
-      <c r="J581" s="24"/>
-      <c r="K581" s="20"/>
-      <c r="L581" s="25"/>
-      <c r="M581" s="26"/>
-    </row>
-    <row r="582" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G582" s="21"/>
-      <c r="H582" s="22"/>
-      <c r="I582" s="23"/>
-      <c r="J582" s="24"/>
-      <c r="K582" s="20"/>
-      <c r="L582" s="25"/>
-      <c r="M582" s="26"/>
-    </row>
-    <row r="583" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G583" s="21"/>
-      <c r="H583" s="22"/>
-      <c r="I583" s="23"/>
-      <c r="J583" s="24"/>
-      <c r="K583" s="20"/>
-      <c r="L583" s="25"/>
-      <c r="M583" s="26"/>
-    </row>
-    <row r="584" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G584" s="21"/>
-      <c r="H584" s="22"/>
-      <c r="I584" s="23"/>
-      <c r="J584" s="24"/>
-      <c r="K584" s="20"/>
-      <c r="L584" s="25"/>
-      <c r="M584" s="26"/>
-    </row>
-    <row r="585" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G585" s="21"/>
-      <c r="H585" s="22"/>
-      <c r="I585" s="23"/>
-      <c r="J585" s="24"/>
-      <c r="K585" s="20"/>
-      <c r="L585" s="25"/>
-      <c r="M585" s="26"/>
-    </row>
-    <row r="586" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G586" s="21"/>
-      <c r="H586" s="22"/>
-      <c r="I586" s="23"/>
-      <c r="J586" s="24"/>
-      <c r="K586" s="20"/>
-      <c r="L586" s="25"/>
-      <c r="M586" s="26"/>
-    </row>
-    <row r="587" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G587" s="21"/>
-      <c r="H587" s="22"/>
-      <c r="I587" s="23"/>
-      <c r="J587" s="24"/>
-      <c r="K587" s="20"/>
-      <c r="L587" s="25"/>
-      <c r="M587" s="26"/>
-    </row>
-    <row r="588" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G588" s="21"/>
-      <c r="H588" s="22"/>
-      <c r="I588" s="23"/>
-      <c r="J588" s="24"/>
-      <c r="K588" s="20"/>
-      <c r="L588" s="25"/>
-      <c r="M588" s="26"/>
-    </row>
-    <row r="589" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G589" s="21"/>
-      <c r="H589" s="22"/>
-      <c r="I589" s="23"/>
-      <c r="J589" s="24"/>
-      <c r="K589" s="20"/>
-      <c r="L589" s="25"/>
-      <c r="M589" s="26"/>
-    </row>
-    <row r="590" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G590" s="21"/>
-      <c r="H590" s="22"/>
-      <c r="I590" s="23"/>
-      <c r="J590" s="24"/>
-      <c r="K590" s="20"/>
-      <c r="L590" s="25"/>
-      <c r="M590" s="26"/>
-    </row>
-    <row r="591" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G591" s="21"/>
-      <c r="H591" s="22"/>
-      <c r="I591" s="23"/>
-      <c r="J591" s="24"/>
-      <c r="K591" s="20"/>
-      <c r="L591" s="25"/>
-      <c r="M591" s="26"/>
-    </row>
-    <row r="592" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G592" s="21"/>
-      <c r="H592" s="22"/>
-      <c r="I592" s="23"/>
-      <c r="J592" s="24"/>
-      <c r="K592" s="20"/>
-      <c r="L592" s="25"/>
-      <c r="M592" s="26"/>
-    </row>
-    <row r="593" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G593" s="21"/>
-      <c r="H593" s="22"/>
-      <c r="I593" s="23"/>
-      <c r="J593" s="24"/>
-      <c r="K593" s="20"/>
-      <c r="L593" s="25"/>
-      <c r="M593" s="26"/>
-    </row>
-    <row r="594" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G594" s="21"/>
-      <c r="H594" s="22"/>
-      <c r="I594" s="23"/>
-      <c r="J594" s="24"/>
-      <c r="K594" s="20"/>
-      <c r="L594" s="25"/>
-      <c r="M594" s="26"/>
-    </row>
-    <row r="595" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G595" s="21"/>
-      <c r="H595" s="22"/>
-      <c r="I595" s="23"/>
-      <c r="J595" s="24"/>
-      <c r="K595" s="20"/>
-      <c r="L595" s="25"/>
-      <c r="M595" s="26"/>
-    </row>
-    <row r="596" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G596" s="21"/>
-      <c r="H596" s="22"/>
-      <c r="I596" s="23"/>
-      <c r="J596" s="24"/>
-      <c r="K596" s="20"/>
-      <c r="L596" s="25"/>
-      <c r="M596" s="26"/>
-    </row>
-    <row r="597" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G597" s="21"/>
-      <c r="H597" s="22"/>
-      <c r="I597" s="23"/>
-      <c r="J597" s="24"/>
-      <c r="K597" s="20"/>
-      <c r="L597" s="25"/>
-      <c r="M597" s="26"/>
-    </row>
-    <row r="598" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G598" s="21"/>
-      <c r="H598" s="22"/>
-      <c r="I598" s="23"/>
-      <c r="J598" s="24"/>
-      <c r="K598" s="20"/>
-      <c r="L598" s="25"/>
-      <c r="M598" s="26"/>
-    </row>
-    <row r="599" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G599" s="21"/>
-      <c r="H599" s="22"/>
-      <c r="I599" s="23"/>
-      <c r="J599" s="24"/>
-      <c r="K599" s="20"/>
-      <c r="L599" s="25"/>
-      <c r="M599" s="26"/>
-    </row>
-    <row r="600" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G600" s="21"/>
-      <c r="H600" s="22"/>
-      <c r="I600" s="23"/>
-      <c r="J600" s="24"/>
-      <c r="K600" s="20"/>
-      <c r="L600" s="25"/>
-      <c r="M600" s="26"/>
-    </row>
-    <row r="601" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G601" s="21"/>
-      <c r="H601" s="22"/>
-      <c r="I601" s="23"/>
-      <c r="J601" s="24"/>
-      <c r="K601" s="20"/>
-      <c r="L601" s="25"/>
-      <c r="M601" s="26"/>
-    </row>
-    <row r="602" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G602" s="21"/>
-      <c r="H602" s="22"/>
-      <c r="I602" s="23"/>
-      <c r="J602" s="24"/>
-      <c r="K602" s="20"/>
-      <c r="L602" s="25"/>
-      <c r="M602" s="26"/>
-    </row>
-    <row r="603" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G603" s="21"/>
-      <c r="H603" s="22"/>
-      <c r="I603" s="23"/>
-      <c r="J603" s="24"/>
-      <c r="K603" s="20"/>
-      <c r="L603" s="25"/>
-      <c r="M603" s="26"/>
-    </row>
-    <row r="604" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G604" s="21"/>
-      <c r="H604" s="22"/>
-      <c r="I604" s="23"/>
-      <c r="J604" s="24"/>
-      <c r="K604" s="20"/>
-      <c r="L604" s="25"/>
-      <c r="M604" s="26"/>
-    </row>
-    <row r="605" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G605" s="21"/>
-      <c r="H605" s="22"/>
-      <c r="I605" s="23"/>
-      <c r="J605" s="24"/>
-      <c r="K605" s="20"/>
-      <c r="L605" s="25"/>
-      <c r="M605" s="26"/>
-    </row>
-    <row r="606" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G606" s="21"/>
-      <c r="H606" s="22"/>
-      <c r="I606" s="23"/>
-      <c r="J606" s="24"/>
-      <c r="K606" s="20"/>
-      <c r="L606" s="25"/>
-      <c r="M606" s="26"/>
-    </row>
-    <row r="607" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G607" s="21"/>
-      <c r="H607" s="22"/>
-      <c r="I607" s="23"/>
-      <c r="J607" s="24"/>
-      <c r="K607" s="20"/>
-      <c r="L607" s="25"/>
-      <c r="M607" s="26"/>
-    </row>
-    <row r="608" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G608" s="21"/>
-      <c r="H608" s="22"/>
-      <c r="I608" s="23"/>
-      <c r="J608" s="24"/>
-      <c r="K608" s="20"/>
-      <c r="L608" s="25"/>
-      <c r="M608" s="26"/>
-    </row>
-    <row r="609" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G609" s="21"/>
-      <c r="H609" s="22"/>
-      <c r="I609" s="23"/>
-      <c r="J609" s="24"/>
-      <c r="K609" s="20"/>
-      <c r="L609" s="25"/>
-      <c r="M609" s="26"/>
-    </row>
-    <row r="610" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G610" s="21"/>
-      <c r="H610" s="22"/>
-      <c r="I610" s="23"/>
-      <c r="J610" s="24"/>
-      <c r="K610" s="20"/>
-      <c r="L610" s="25"/>
-      <c r="M610" s="26"/>
-    </row>
-    <row r="611" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G611" s="21"/>
-      <c r="H611" s="22"/>
-      <c r="I611" s="23"/>
-      <c r="J611" s="24"/>
-      <c r="K611" s="20"/>
-      <c r="L611" s="25"/>
-      <c r="M611" s="26"/>
-    </row>
-    <row r="612" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G612" s="21"/>
-      <c r="H612" s="22"/>
-      <c r="I612" s="23"/>
-      <c r="J612" s="24"/>
-      <c r="K612" s="20"/>
-      <c r="L612" s="25"/>
-      <c r="M612" s="26"/>
-    </row>
-    <row r="613" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G613" s="21"/>
-      <c r="H613" s="22"/>
-      <c r="I613" s="23"/>
-      <c r="J613" s="24"/>
-      <c r="K613" s="20"/>
-      <c r="L613" s="25"/>
-      <c r="M613" s="26"/>
-    </row>
-    <row r="614" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G614" s="21"/>
-      <c r="H614" s="22"/>
-      <c r="I614" s="23"/>
-      <c r="J614" s="24"/>
-      <c r="K614" s="20"/>
-      <c r="L614" s="25"/>
-      <c r="M614" s="26"/>
-    </row>
-    <row r="615" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G615" s="21"/>
-      <c r="H615" s="22"/>
-      <c r="I615" s="23"/>
-      <c r="J615" s="24"/>
-      <c r="K615" s="20"/>
-      <c r="L615" s="25"/>
-      <c r="M615" s="26"/>
-    </row>
-    <row r="616" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G616" s="21"/>
-      <c r="H616" s="22"/>
-      <c r="I616" s="23"/>
-      <c r="J616" s="24"/>
-      <c r="K616" s="20"/>
-      <c r="L616" s="25"/>
-      <c r="M616" s="26"/>
-    </row>
-    <row r="617" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G617" s="21"/>
-      <c r="H617" s="22"/>
-      <c r="I617" s="23"/>
-      <c r="J617" s="24"/>
-      <c r="K617" s="20"/>
-      <c r="L617" s="25"/>
-      <c r="M617" s="26"/>
-    </row>
-    <row r="618" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G618" s="21"/>
-      <c r="H618" s="22"/>
-      <c r="I618" s="23"/>
-      <c r="J618" s="24"/>
-      <c r="K618" s="20"/>
-      <c r="L618" s="25"/>
-      <c r="M618" s="26"/>
-    </row>
-    <row r="619" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G619" s="21"/>
-      <c r="H619" s="22"/>
-      <c r="I619" s="23"/>
-      <c r="J619" s="24"/>
-      <c r="K619" s="20"/>
-      <c r="L619" s="25"/>
-      <c r="M619" s="26"/>
-    </row>
-    <row r="620" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G620" s="21"/>
-      <c r="H620" s="22"/>
-      <c r="I620" s="23"/>
-      <c r="J620" s="24"/>
-      <c r="K620" s="20"/>
-      <c r="L620" s="25"/>
-      <c r="M620" s="26"/>
-    </row>
-    <row r="621" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G621" s="21"/>
-      <c r="H621" s="22"/>
-      <c r="I621" s="23"/>
-      <c r="J621" s="24"/>
-      <c r="K621" s="20"/>
-      <c r="L621" s="25"/>
-      <c r="M621" s="26"/>
-    </row>
-    <row r="622" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G622" s="21"/>
-      <c r="H622" s="22"/>
-      <c r="I622" s="23"/>
-      <c r="J622" s="24"/>
-      <c r="K622" s="20"/>
-      <c r="L622" s="25"/>
-      <c r="M622" s="26"/>
-    </row>
-    <row r="623" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G623" s="21"/>
-      <c r="H623" s="22"/>
-      <c r="I623" s="23"/>
-      <c r="J623" s="24"/>
-      <c r="K623" s="20"/>
-      <c r="L623" s="25"/>
-      <c r="M623" s="26"/>
-    </row>
-    <row r="624" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G624" s="21"/>
-      <c r="H624" s="22"/>
-      <c r="I624" s="23"/>
-      <c r="J624" s="24"/>
-      <c r="K624" s="20"/>
-      <c r="L624" s="25"/>
-      <c r="M624" s="26"/>
-    </row>
-    <row r="625" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G625" s="21"/>
-      <c r="H625" s="22"/>
-      <c r="I625" s="23"/>
-      <c r="J625" s="24"/>
-      <c r="K625" s="20"/>
-      <c r="L625" s="25"/>
-      <c r="M625" s="26"/>
-    </row>
-    <row r="626" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G626" s="21"/>
-      <c r="H626" s="22"/>
-      <c r="I626" s="23"/>
-      <c r="J626" s="24"/>
-      <c r="K626" s="20"/>
-      <c r="L626" s="25"/>
-      <c r="M626" s="26"/>
-    </row>
-    <row r="627" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G627" s="21"/>
-      <c r="H627" s="22"/>
-      <c r="I627" s="23"/>
-      <c r="J627" s="24"/>
-      <c r="K627" s="20"/>
-      <c r="L627" s="25"/>
-      <c r="M627" s="26"/>
-    </row>
-    <row r="628" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G628" s="21"/>
-      <c r="H628" s="22"/>
-      <c r="I628" s="23"/>
-      <c r="J628" s="24"/>
-      <c r="K628" s="20"/>
-      <c r="L628" s="25"/>
-      <c r="M628" s="26"/>
-    </row>
-    <row r="629" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G629" s="21"/>
-      <c r="H629" s="22"/>
-      <c r="I629" s="23"/>
-      <c r="J629" s="24"/>
-      <c r="K629" s="20"/>
-      <c r="L629" s="25"/>
-      <c r="M629" s="26"/>
-    </row>
-    <row r="630" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G630" s="21"/>
-      <c r="H630" s="22"/>
-      <c r="I630" s="23"/>
-      <c r="J630" s="24"/>
-      <c r="K630" s="20"/>
-      <c r="L630" s="25"/>
-      <c r="M630" s="26"/>
-    </row>
-    <row r="631" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G631" s="21"/>
-      <c r="H631" s="22"/>
-      <c r="I631" s="23"/>
-      <c r="J631" s="24"/>
-      <c r="K631" s="20"/>
-      <c r="L631" s="25"/>
-      <c r="M631" s="26"/>
-    </row>
-    <row r="632" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G632" s="21"/>
-      <c r="H632" s="22"/>
-      <c r="I632" s="23"/>
-      <c r="J632" s="24"/>
-      <c r="K632" s="20"/>
-      <c r="L632" s="25"/>
-      <c r="M632" s="26"/>
-    </row>
-    <row r="633" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G633" s="21"/>
-      <c r="H633" s="22"/>
-      <c r="I633" s="23"/>
-      <c r="J633" s="24"/>
-      <c r="K633" s="20"/>
-      <c r="L633" s="25"/>
-      <c r="M633" s="26"/>
-    </row>
-    <row r="634" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G634" s="21"/>
-      <c r="H634" s="22"/>
-      <c r="I634" s="23"/>
-      <c r="J634" s="24"/>
-      <c r="K634" s="20"/>
-      <c r="L634" s="25"/>
-      <c r="M634" s="26"/>
-    </row>
-    <row r="635" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G635" s="21"/>
-      <c r="H635" s="22"/>
-      <c r="I635" s="23"/>
-      <c r="J635" s="24"/>
-      <c r="K635" s="20"/>
-      <c r="L635" s="25"/>
-      <c r="M635" s="26"/>
-    </row>
-    <row r="636" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G636" s="21"/>
-      <c r="H636" s="22"/>
-      <c r="I636" s="23"/>
-      <c r="J636" s="24"/>
-      <c r="K636" s="20"/>
-      <c r="L636" s="25"/>
-      <c r="M636" s="26"/>
-    </row>
-    <row r="637" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G637" s="21"/>
-      <c r="H637" s="22"/>
-      <c r="I637" s="23"/>
-      <c r="J637" s="24"/>
-      <c r="K637" s="20"/>
-      <c r="L637" s="25"/>
-      <c r="M637" s="26"/>
-    </row>
-    <row r="638" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G638" s="21"/>
-      <c r="H638" s="22"/>
-      <c r="I638" s="23"/>
-      <c r="J638" s="24"/>
-      <c r="K638" s="20"/>
-      <c r="L638" s="25"/>
-      <c r="M638" s="26"/>
-    </row>
-    <row r="639" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G639" s="21"/>
-      <c r="H639" s="22"/>
-      <c r="I639" s="23"/>
-      <c r="J639" s="24"/>
-      <c r="K639" s="20"/>
-      <c r="L639" s="25"/>
-      <c r="M639" s="26"/>
-    </row>
-    <row r="640" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G640" s="21"/>
-      <c r="H640" s="22"/>
-      <c r="I640" s="23"/>
-      <c r="J640" s="24"/>
-      <c r="K640" s="20"/>
-      <c r="L640" s="25"/>
-      <c r="M640" s="26"/>
-    </row>
-    <row r="641" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G641" s="21"/>
-      <c r="H641" s="22"/>
-      <c r="I641" s="23"/>
-      <c r="J641" s="24"/>
-      <c r="K641" s="20"/>
-      <c r="L641" s="25"/>
-      <c r="M641" s="26"/>
-    </row>
-    <row r="642" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G642" s="21"/>
-      <c r="H642" s="22"/>
-      <c r="I642" s="23"/>
-      <c r="J642" s="24"/>
-      <c r="K642" s="20"/>
-      <c r="L642" s="25"/>
-      <c r="M642" s="26"/>
-    </row>
-    <row r="643" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G643" s="21"/>
-      <c r="H643" s="22"/>
-      <c r="I643" s="23"/>
-      <c r="J643" s="24"/>
-      <c r="K643" s="20"/>
-      <c r="L643" s="25"/>
-      <c r="M643" s="26"/>
-    </row>
-    <row r="644" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G644" s="21"/>
-      <c r="H644" s="22"/>
-      <c r="I644" s="23"/>
-      <c r="J644" s="24"/>
-      <c r="K644" s="20"/>
-      <c r="L644" s="25"/>
-      <c r="M644" s="26"/>
-    </row>
-    <row r="645" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G645" s="21"/>
-      <c r="H645" s="22"/>
-      <c r="I645" s="23"/>
-      <c r="J645" s="24"/>
-      <c r="K645" s="20"/>
-      <c r="L645" s="25"/>
-      <c r="M645" s="26"/>
-    </row>
-    <row r="646" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G646" s="21"/>
-      <c r="H646" s="22"/>
-      <c r="I646" s="23"/>
-      <c r="J646" s="24"/>
-      <c r="K646" s="20"/>
-      <c r="L646" s="25"/>
-      <c r="M646" s="26"/>
-    </row>
-    <row r="647" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G647" s="21"/>
-      <c r="H647" s="22"/>
-      <c r="I647" s="23"/>
-      <c r="J647" s="24"/>
-      <c r="K647" s="20"/>
-      <c r="L647" s="25"/>
-      <c r="M647" s="26"/>
-    </row>
-    <row r="648" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G648" s="21"/>
-      <c r="H648" s="22"/>
-      <c r="I648" s="23"/>
-      <c r="J648" s="24"/>
-      <c r="K648" s="20"/>
-      <c r="L648" s="25"/>
-      <c r="M648" s="26"/>
-    </row>
-    <row r="649" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G649" s="21"/>
-      <c r="H649" s="22"/>
-      <c r="I649" s="23"/>
-      <c r="J649" s="24"/>
-      <c r="K649" s="20"/>
-      <c r="L649" s="25"/>
-      <c r="M649" s="26"/>
-    </row>
-    <row r="650" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G650" s="21"/>
-      <c r="H650" s="22"/>
-      <c r="I650" s="23"/>
-      <c r="J650" s="24"/>
-      <c r="K650" s="20"/>
-      <c r="L650" s="25"/>
-      <c r="M650" s="26"/>
-    </row>
-    <row r="651" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G651" s="21"/>
-      <c r="H651" s="22"/>
-      <c r="I651" s="23"/>
-      <c r="J651" s="24"/>
-      <c r="K651" s="20"/>
-      <c r="L651" s="25"/>
-      <c r="M651" s="26"/>
-    </row>
-    <row r="652" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G652" s="21"/>
-      <c r="H652" s="22"/>
-      <c r="I652" s="23"/>
-      <c r="J652" s="24"/>
-      <c r="K652" s="20"/>
-      <c r="L652" s="25"/>
-      <c r="M652" s="26"/>
-    </row>
-    <row r="653" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G653" s="21"/>
-      <c r="H653" s="22"/>
-      <c r="I653" s="23"/>
-      <c r="J653" s="24"/>
-      <c r="K653" s="20"/>
-      <c r="L653" s="25"/>
-      <c r="M653" s="26"/>
-    </row>
-    <row r="654" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G654" s="21"/>
-      <c r="H654" s="22"/>
-      <c r="I654" s="23"/>
-      <c r="J654" s="24"/>
-      <c r="K654" s="20"/>
-      <c r="L654" s="25"/>
-      <c r="M654" s="26"/>
-    </row>
-    <row r="655" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G655" s="21"/>
-      <c r="H655" s="22"/>
-      <c r="I655" s="23"/>
-      <c r="J655" s="24"/>
-      <c r="K655" s="20"/>
-      <c r="L655" s="25"/>
-      <c r="M655" s="26"/>
-    </row>
-    <row r="656" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G656" s="21"/>
-      <c r="H656" s="22"/>
-      <c r="I656" s="23"/>
-      <c r="J656" s="24"/>
-      <c r="K656" s="20"/>
-      <c r="L656" s="25"/>
-      <c r="M656" s="26"/>
-    </row>
-    <row r="657" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G657" s="21"/>
-      <c r="H657" s="22"/>
-      <c r="I657" s="23"/>
-      <c r="J657" s="24"/>
-      <c r="K657" s="20"/>
-      <c r="L657" s="25"/>
-      <c r="M657" s="26"/>
-    </row>
-    <row r="658" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G658" s="21"/>
-      <c r="H658" s="22"/>
-      <c r="I658" s="23"/>
-      <c r="J658" s="24"/>
-      <c r="K658" s="20"/>
-      <c r="L658" s="25"/>
-      <c r="M658" s="26"/>
-    </row>
-    <row r="659" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G659" s="21"/>
-      <c r="H659" s="22"/>
-      <c r="I659" s="23"/>
-      <c r="J659" s="24"/>
-      <c r="K659" s="20"/>
-      <c r="L659" s="25"/>
-      <c r="M659" s="26"/>
-    </row>
-    <row r="660" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G660" s="21"/>
-      <c r="H660" s="22"/>
-      <c r="I660" s="23"/>
-      <c r="J660" s="24"/>
-      <c r="K660" s="20"/>
-      <c r="L660" s="25"/>
-      <c r="M660" s="26"/>
-    </row>
-    <row r="661" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G661" s="21"/>
-      <c r="H661" s="22"/>
-      <c r="I661" s="23"/>
-      <c r="J661" s="24"/>
-      <c r="K661" s="20"/>
-      <c r="L661" s="25"/>
-      <c r="M661" s="26"/>
-    </row>
-    <row r="662" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G662" s="21"/>
-      <c r="H662" s="22"/>
-      <c r="I662" s="23"/>
-      <c r="J662" s="24"/>
-      <c r="K662" s="20"/>
-      <c r="L662" s="25"/>
-      <c r="M662" s="26"/>
-    </row>
-    <row r="663" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G663" s="21"/>
-      <c r="H663" s="22"/>
-      <c r="I663" s="23"/>
-      <c r="J663" s="24"/>
-      <c r="K663" s="20"/>
-      <c r="L663" s="25"/>
-      <c r="M663" s="26"/>
-    </row>
-    <row r="664" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G664" s="21"/>
-      <c r="H664" s="22"/>
-      <c r="I664" s="23"/>
-      <c r="J664" s="24"/>
-      <c r="K664" s="20"/>
-      <c r="L664" s="25"/>
-      <c r="M664" s="26"/>
-    </row>
-    <row r="665" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G665" s="21"/>
-      <c r="H665" s="22"/>
-      <c r="I665" s="23"/>
-      <c r="J665" s="24"/>
-      <c r="K665" s="20"/>
-      <c r="L665" s="25"/>
-      <c r="M665" s="26"/>
-    </row>
-    <row r="666" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G666" s="21"/>
-      <c r="H666" s="22"/>
-      <c r="I666" s="23"/>
-      <c r="J666" s="24"/>
-      <c r="K666" s="20"/>
-      <c r="L666" s="25"/>
-      <c r="M666" s="26"/>
-    </row>
-    <row r="667" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G667" s="21"/>
-      <c r="H667" s="22"/>
-      <c r="I667" s="23"/>
-      <c r="J667" s="24"/>
-      <c r="K667" s="20"/>
-      <c r="L667" s="25"/>
-      <c r="M667" s="26"/>
-    </row>
-    <row r="668" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G668" s="21"/>
-      <c r="H668" s="22"/>
-      <c r="I668" s="23"/>
-      <c r="J668" s="24"/>
-      <c r="K668" s="20"/>
-      <c r="L668" s="25"/>
-      <c r="M668" s="26"/>
-    </row>
-    <row r="669" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G669" s="21"/>
-      <c r="H669" s="22"/>
-      <c r="I669" s="23"/>
-      <c r="J669" s="24"/>
-      <c r="K669" s="20"/>
-      <c r="L669" s="25"/>
-      <c r="M669" s="26"/>
-    </row>
-    <row r="670" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G670" s="21"/>
-      <c r="H670" s="22"/>
-      <c r="I670" s="23"/>
-      <c r="J670" s="24"/>
-      <c r="K670" s="20"/>
-      <c r="L670" s="25"/>
-      <c r="M670" s="26"/>
-    </row>
-    <row r="671" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G671" s="21"/>
-      <c r="H671" s="22"/>
-      <c r="I671" s="23"/>
-      <c r="J671" s="24"/>
-      <c r="K671" s="20"/>
-      <c r="L671" s="25"/>
-      <c r="M671" s="26"/>
-    </row>
-    <row r="672" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G672" s="21"/>
-      <c r="H672" s="22"/>
-      <c r="I672" s="23"/>
-      <c r="J672" s="24"/>
-      <c r="K672" s="20"/>
-      <c r="L672" s="25"/>
-      <c r="M672" s="26"/>
-    </row>
-    <row r="673" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G673" s="21"/>
-      <c r="H673" s="22"/>
-      <c r="I673" s="23"/>
-      <c r="J673" s="24"/>
-      <c r="K673" s="20"/>
-      <c r="L673" s="25"/>
-      <c r="M673" s="26"/>
-    </row>
-    <row r="674" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G674" s="21"/>
-      <c r="H674" s="22"/>
-      <c r="I674" s="23"/>
-      <c r="J674" s="24"/>
-      <c r="K674" s="20"/>
-      <c r="L674" s="25"/>
-      <c r="M674" s="26"/>
-    </row>
-    <row r="675" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G675" s="21"/>
-      <c r="H675" s="22"/>
-      <c r="I675" s="23"/>
-      <c r="J675" s="24"/>
-      <c r="K675" s="20"/>
-      <c r="L675" s="25"/>
-      <c r="M675" s="26"/>
-    </row>
-    <row r="676" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G676" s="21"/>
-      <c r="H676" s="22"/>
-      <c r="I676" s="23"/>
-      <c r="J676" s="24"/>
-      <c r="K676" s="20"/>
-      <c r="L676" s="25"/>
-      <c r="M676" s="26"/>
-    </row>
-    <row r="677" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G677" s="21"/>
-      <c r="H677" s="22"/>
-      <c r="I677" s="23"/>
-      <c r="J677" s="24"/>
-      <c r="K677" s="20"/>
-      <c r="L677" s="25"/>
-      <c r="M677" s="26"/>
-    </row>
-    <row r="678" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G678" s="21"/>
-      <c r="H678" s="22"/>
-      <c r="I678" s="23"/>
-      <c r="J678" s="24"/>
-      <c r="K678" s="20"/>
-      <c r="L678" s="25"/>
-      <c r="M678" s="26"/>
-    </row>
-    <row r="679" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G679" s="21"/>
-      <c r="H679" s="22"/>
-      <c r="I679" s="23"/>
-      <c r="J679" s="24"/>
-      <c r="K679" s="20"/>
-      <c r="L679" s="25"/>
-      <c r="M679" s="26"/>
-    </row>
-    <row r="680" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G680" s="21"/>
-      <c r="H680" s="22"/>
-      <c r="I680" s="23"/>
-      <c r="J680" s="24"/>
-      <c r="K680" s="20"/>
-      <c r="L680" s="25"/>
-      <c r="M680" s="26"/>
-    </row>
-    <row r="681" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G681" s="21"/>
-      <c r="H681" s="22"/>
-      <c r="I681" s="23"/>
-      <c r="J681" s="24"/>
-      <c r="K681" s="20"/>
-      <c r="L681" s="25"/>
-      <c r="M681" s="26"/>
-    </row>
-    <row r="682" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G682" s="21"/>
-      <c r="H682" s="22"/>
-      <c r="I682" s="23"/>
-      <c r="J682" s="24"/>
-      <c r="K682" s="20"/>
-      <c r="L682" s="25"/>
-      <c r="M682" s="26"/>
-    </row>
-    <row r="683" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G683" s="21"/>
-      <c r="H683" s="22"/>
-      <c r="I683" s="23"/>
-      <c r="J683" s="24"/>
-      <c r="K683" s="20"/>
-      <c r="L683" s="25"/>
-      <c r="M683" s="26"/>
-    </row>
-    <row r="684" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G684" s="21"/>
-      <c r="H684" s="22"/>
-      <c r="I684" s="23"/>
-      <c r="J684" s="24"/>
-      <c r="K684" s="20"/>
-      <c r="L684" s="25"/>
-      <c r="M684" s="26"/>
-    </row>
-    <row r="685" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G685" s="21"/>
-      <c r="H685" s="22"/>
-      <c r="I685" s="23"/>
-      <c r="J685" s="24"/>
-      <c r="K685" s="20"/>
-      <c r="L685" s="25"/>
-      <c r="M685" s="26"/>
-    </row>
-    <row r="686" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G686" s="21"/>
-      <c r="H686" s="22"/>
-      <c r="I686" s="23"/>
-      <c r="J686" s="24"/>
-      <c r="K686" s="20"/>
-      <c r="L686" s="25"/>
-      <c r="M686" s="26"/>
-    </row>
-    <row r="687" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G687" s="21"/>
-      <c r="H687" s="22"/>
-      <c r="I687" s="23"/>
-      <c r="J687" s="24"/>
-      <c r="K687" s="20"/>
-      <c r="L687" s="25"/>
-      <c r="M687" s="26"/>
-    </row>
-    <row r="688" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G688" s="21"/>
-      <c r="H688" s="22"/>
-      <c r="I688" s="23"/>
-      <c r="J688" s="24"/>
-      <c r="K688" s="20"/>
-      <c r="L688" s="25"/>
-      <c r="M688" s="26"/>
-    </row>
-    <row r="689" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G689" s="21"/>
-      <c r="H689" s="22"/>
-      <c r="I689" s="23"/>
-      <c r="J689" s="24"/>
-      <c r="K689" s="20"/>
-      <c r="L689" s="25"/>
-      <c r="M689" s="26"/>
-    </row>
-    <row r="690" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G690" s="21"/>
-      <c r="H690" s="22"/>
-      <c r="I690" s="23"/>
-      <c r="J690" s="24"/>
-      <c r="K690" s="20"/>
-      <c r="L690" s="25"/>
-      <c r="M690" s="26"/>
-    </row>
-    <row r="691" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G691" s="21"/>
-      <c r="H691" s="22"/>
-      <c r="I691" s="23"/>
-      <c r="J691" s="24"/>
-      <c r="K691" s="20"/>
-      <c r="L691" s="25"/>
-      <c r="M691" s="26"/>
-    </row>
-    <row r="692" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G692" s="21"/>
-      <c r="H692" s="22"/>
-      <c r="I692" s="23"/>
-      <c r="J692" s="24"/>
-      <c r="K692" s="20"/>
-      <c r="L692" s="25"/>
-      <c r="M692" s="26"/>
-    </row>
-    <row r="693" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G693" s="21"/>
-      <c r="H693" s="22"/>
-      <c r="I693" s="23"/>
-      <c r="J693" s="24"/>
-      <c r="K693" s="20"/>
-      <c r="L693" s="25"/>
-      <c r="M693" s="26"/>
-    </row>
-    <row r="694" spans="7:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G694" s="21"/>
-      <c r="H694" s="22"/>
-      <c r="I694" s="23"/>
-      <c r="J694" s="24"/>
-      <c r="K694" s="20"/>
-      <c r="L694" s="25"/>
-      <c r="M694" s="26"/>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B276" s="18"/>
+      <c r="E276" s="19"/>
+      <c r="F276" s="20"/>
+      <c r="G276" s="20"/>
+      <c r="H276" s="21"/>
+      <c r="I276" s="22"/>
+      <c r="J276" s="23"/>
+      <c r="K276" s="19"/>
+      <c r="L276" s="24"/>
+      <c r="M276" s="20"/>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B277" s="18"/>
+      <c r="E277" s="19"/>
+      <c r="F277" s="20"/>
+      <c r="G277" s="20"/>
+      <c r="H277" s="21"/>
+      <c r="I277" s="22"/>
+      <c r="J277" s="23"/>
+      <c r="K277" s="19"/>
+      <c r="L277" s="24"/>
+      <c r="M277" s="20"/>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B278" s="18"/>
+      <c r="E278" s="19"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="20"/>
+      <c r="H278" s="21"/>
+      <c r="I278" s="22"/>
+      <c r="J278" s="23"/>
+      <c r="K278" s="19"/>
+      <c r="L278" s="24"/>
+      <c r="M278" s="20"/>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B279" s="18"/>
+      <c r="E279" s="19"/>
+      <c r="F279" s="20"/>
+      <c r="G279" s="20"/>
+      <c r="H279" s="21"/>
+      <c r="I279" s="22"/>
+      <c r="J279" s="23"/>
+      <c r="K279" s="19"/>
+      <c r="L279" s="24"/>
+      <c r="M279" s="20"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B280" s="18"/>
+      <c r="E280" s="19"/>
+      <c r="F280" s="20"/>
+      <c r="G280" s="20"/>
+      <c r="H280" s="21"/>
+      <c r="I280" s="22"/>
+      <c r="J280" s="23"/>
+      <c r="K280" s="19"/>
+      <c r="L280" s="24"/>
+      <c r="M280" s="20"/>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B281" s="18"/>
+      <c r="E281" s="19"/>
+      <c r="F281" s="20"/>
+      <c r="G281" s="20"/>
+      <c r="H281" s="21"/>
+      <c r="I281" s="22"/>
+      <c r="J281" s="23"/>
+      <c r="K281" s="19"/>
+      <c r="L281" s="24"/>
+      <c r="M281" s="20"/>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B282" s="18"/>
+      <c r="E282" s="19"/>
+      <c r="F282" s="20"/>
+      <c r="G282" s="20"/>
+      <c r="H282" s="21"/>
+      <c r="I282" s="22"/>
+      <c r="J282" s="23"/>
+      <c r="K282" s="19"/>
+      <c r="L282" s="24"/>
+      <c r="M282" s="20"/>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B283" s="18"/>
+      <c r="E283" s="19"/>
+      <c r="F283" s="20"/>
+      <c r="G283" s="20"/>
+      <c r="H283" s="21"/>
+      <c r="I283" s="22"/>
+      <c r="J283" s="23"/>
+      <c r="K283" s="19"/>
+      <c r="L283" s="24"/>
+      <c r="M283" s="20"/>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B284" s="18"/>
+      <c r="E284" s="19"/>
+      <c r="F284" s="20"/>
+      <c r="G284" s="20"/>
+      <c r="H284" s="21"/>
+      <c r="I284" s="22"/>
+      <c r="J284" s="23"/>
+      <c r="K284" s="19"/>
+      <c r="L284" s="24"/>
+      <c r="M284" s="20"/>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B285" s="18"/>
+      <c r="E285" s="19"/>
+      <c r="F285" s="20"/>
+      <c r="G285" s="20"/>
+      <c r="H285" s="21"/>
+      <c r="I285" s="22"/>
+      <c r="J285" s="23"/>
+      <c r="K285" s="19"/>
+      <c r="L285" s="24"/>
+      <c r="M285" s="20"/>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B286" s="18"/>
+      <c r="E286" s="19"/>
+      <c r="F286" s="20"/>
+      <c r="G286" s="20"/>
+      <c r="H286" s="21"/>
+      <c r="I286" s="22"/>
+      <c r="J286" s="23"/>
+      <c r="K286" s="19"/>
+      <c r="L286" s="24"/>
+      <c r="M286" s="20"/>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B287" s="18"/>
+      <c r="E287" s="19"/>
+      <c r="F287" s="20"/>
+      <c r="G287" s="20"/>
+      <c r="H287" s="21"/>
+      <c r="I287" s="22"/>
+      <c r="J287" s="23"/>
+      <c r="K287" s="19"/>
+      <c r="L287" s="24"/>
+      <c r="M287" s="20"/>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B288" s="18"/>
+      <c r="E288" s="19"/>
+      <c r="F288" s="20"/>
+      <c r="G288" s="20"/>
+      <c r="H288" s="21"/>
+      <c r="I288" s="22"/>
+      <c r="J288" s="23"/>
+      <c r="K288" s="19"/>
+      <c r="L288" s="24"/>
+      <c r="M288" s="20"/>
+    </row>
+    <row r="289" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B289" s="18"/>
+      <c r="E289" s="19"/>
+      <c r="F289" s="20"/>
+      <c r="G289" s="20"/>
+      <c r="H289" s="21"/>
+      <c r="I289" s="22"/>
+      <c r="J289" s="23"/>
+      <c r="K289" s="19"/>
+      <c r="L289" s="24"/>
+      <c r="M289" s="20"/>
+    </row>
+    <row r="290" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B290" s="18"/>
+      <c r="E290" s="19"/>
+      <c r="F290" s="20"/>
+      <c r="G290" s="20"/>
+      <c r="H290" s="21"/>
+      <c r="I290" s="22"/>
+      <c r="J290" s="23"/>
+      <c r="K290" s="19"/>
+      <c r="L290" s="24"/>
+      <c r="M290" s="20"/>
+    </row>
+    <row r="291" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B291" s="18"/>
+      <c r="E291" s="19"/>
+      <c r="F291" s="20"/>
+      <c r="G291" s="20"/>
+      <c r="H291" s="21"/>
+      <c r="I291" s="22"/>
+      <c r="J291" s="23"/>
+      <c r="K291" s="19"/>
+      <c r="L291" s="24"/>
+      <c r="M291" s="20"/>
+    </row>
+    <row r="292" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E292" s="19"/>
+      <c r="F292" s="20"/>
+      <c r="G292" s="20"/>
+      <c r="H292" s="21"/>
+      <c r="I292" s="22"/>
+      <c r="J292" s="23"/>
+      <c r="K292" s="19"/>
+      <c r="L292" s="24"/>
+      <c r="M292" s="25"/>
+    </row>
+    <row r="293" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E293" s="19"/>
+      <c r="F293" s="20"/>
+      <c r="G293" s="20"/>
+      <c r="H293" s="21"/>
+      <c r="I293" s="22"/>
+      <c r="J293" s="23"/>
+      <c r="K293" s="19"/>
+      <c r="L293" s="24"/>
+      <c r="M293" s="25"/>
+    </row>
+    <row r="294" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E294" s="19"/>
+      <c r="F294" s="20"/>
+      <c r="G294" s="20"/>
+      <c r="H294" s="21"/>
+      <c r="I294" s="22"/>
+      <c r="J294" s="23"/>
+      <c r="K294" s="19"/>
+      <c r="L294" s="24"/>
+      <c r="M294" s="25"/>
+    </row>
+    <row r="295" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E295" s="19"/>
+      <c r="F295" s="20"/>
+      <c r="G295" s="20"/>
+      <c r="H295" s="21"/>
+      <c r="I295" s="22"/>
+      <c r="J295" s="23"/>
+      <c r="K295" s="19"/>
+      <c r="L295" s="24"/>
+      <c r="M295" s="25"/>
+    </row>
+    <row r="296" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E296" s="19"/>
+      <c r="F296" s="20"/>
+      <c r="G296" s="20"/>
+      <c r="H296" s="21"/>
+      <c r="I296" s="22"/>
+      <c r="J296" s="23"/>
+      <c r="K296" s="19"/>
+      <c r="L296" s="24"/>
+      <c r="M296" s="25"/>
+    </row>
+    <row r="297" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E297" s="19"/>
+      <c r="F297" s="20"/>
+      <c r="G297" s="20"/>
+      <c r="H297" s="21"/>
+      <c r="I297" s="22"/>
+      <c r="J297" s="23"/>
+      <c r="K297" s="19"/>
+      <c r="L297" s="24"/>
+      <c r="M297" s="25"/>
+    </row>
+    <row r="298" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E298" s="19"/>
+      <c r="F298" s="20"/>
+      <c r="G298" s="20"/>
+      <c r="H298" s="21"/>
+      <c r="I298" s="22"/>
+      <c r="J298" s="23"/>
+      <c r="K298" s="19"/>
+      <c r="L298" s="24"/>
+      <c r="M298" s="25"/>
+    </row>
+    <row r="299" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E299" s="19"/>
+      <c r="F299" s="20"/>
+      <c r="G299" s="20"/>
+      <c r="H299" s="21"/>
+      <c r="I299" s="22"/>
+      <c r="J299" s="23"/>
+      <c r="K299" s="19"/>
+      <c r="L299" s="24"/>
+      <c r="M299" s="25"/>
+    </row>
+    <row r="300" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E300" s="19"/>
+      <c r="F300" s="20"/>
+      <c r="G300" s="20"/>
+      <c r="H300" s="21"/>
+      <c r="I300" s="22"/>
+      <c r="J300" s="23"/>
+      <c r="K300" s="19"/>
+      <c r="L300" s="24"/>
+      <c r="M300" s="25"/>
+    </row>
+    <row r="301" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E301" s="19"/>
+      <c r="F301" s="20"/>
+      <c r="G301" s="20"/>
+      <c r="H301" s="21"/>
+      <c r="I301" s="22"/>
+      <c r="J301" s="23"/>
+      <c r="K301" s="19"/>
+      <c r="L301" s="24"/>
+      <c r="M301" s="25"/>
+    </row>
+    <row r="302" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E302" s="19"/>
+      <c r="F302" s="20"/>
+      <c r="G302" s="20"/>
+      <c r="H302" s="21"/>
+      <c r="I302" s="22"/>
+      <c r="J302" s="23"/>
+      <c r="K302" s="19"/>
+      <c r="L302" s="24"/>
+      <c r="M302" s="25"/>
+    </row>
+    <row r="303" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E303" s="19"/>
+      <c r="F303" s="20"/>
+      <c r="G303" s="20"/>
+      <c r="H303" s="21"/>
+      <c r="I303" s="22"/>
+      <c r="J303" s="23"/>
+      <c r="K303" s="19"/>
+      <c r="L303" s="24"/>
+      <c r="M303" s="25"/>
+    </row>
+    <row r="304" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E304" s="19"/>
+      <c r="F304" s="20"/>
+      <c r="G304" s="20"/>
+      <c r="H304" s="21"/>
+      <c r="I304" s="22"/>
+      <c r="J304" s="23"/>
+      <c r="K304" s="19"/>
+      <c r="L304" s="24"/>
+      <c r="M304" s="25"/>
+    </row>
+    <row r="305" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G305" s="20"/>
+      <c r="H305" s="21"/>
+      <c r="I305" s="22"/>
+      <c r="J305" s="23"/>
+      <c r="K305" s="19"/>
+      <c r="L305" s="24"/>
+      <c r="M305" s="25"/>
+    </row>
+    <row r="306" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G306" s="20"/>
+      <c r="H306" s="21"/>
+      <c r="I306" s="22"/>
+      <c r="J306" s="23"/>
+      <c r="K306" s="19"/>
+      <c r="L306" s="24"/>
+      <c r="M306" s="25"/>
+    </row>
+    <row r="307" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G307" s="20"/>
+      <c r="H307" s="21"/>
+      <c r="I307" s="22"/>
+      <c r="J307" s="23"/>
+      <c r="K307" s="19"/>
+      <c r="L307" s="24"/>
+      <c r="M307" s="25"/>
+    </row>
+    <row r="308" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G308" s="20"/>
+      <c r="H308" s="21"/>
+      <c r="I308" s="22"/>
+      <c r="J308" s="23"/>
+      <c r="K308" s="19"/>
+      <c r="L308" s="24"/>
+      <c r="M308" s="25"/>
+    </row>
+    <row r="309" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G309" s="20"/>
+      <c r="H309" s="21"/>
+      <c r="I309" s="22"/>
+      <c r="J309" s="23"/>
+      <c r="K309" s="19"/>
+      <c r="L309" s="24"/>
+      <c r="M309" s="25"/>
+    </row>
+    <row r="310" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G310" s="20"/>
+      <c r="H310" s="21"/>
+      <c r="I310" s="22"/>
+      <c r="J310" s="23"/>
+      <c r="K310" s="19"/>
+      <c r="L310" s="24"/>
+      <c r="M310" s="25"/>
+    </row>
+    <row r="311" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G311" s="20"/>
+      <c r="H311" s="21"/>
+      <c r="I311" s="22"/>
+      <c r="J311" s="23"/>
+      <c r="K311" s="19"/>
+      <c r="L311" s="24"/>
+      <c r="M311" s="25"/>
+    </row>
+    <row r="312" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G312" s="20"/>
+      <c r="H312" s="21"/>
+      <c r="I312" s="22"/>
+      <c r="J312" s="23"/>
+      <c r="K312" s="19"/>
+      <c r="L312" s="24"/>
+      <c r="M312" s="25"/>
+    </row>
+    <row r="313" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G313" s="20"/>
+      <c r="H313" s="21"/>
+      <c r="I313" s="22"/>
+      <c r="J313" s="23"/>
+      <c r="K313" s="19"/>
+      <c r="L313" s="24"/>
+      <c r="M313" s="25"/>
+    </row>
+    <row r="314" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G314" s="20"/>
+      <c r="H314" s="21"/>
+      <c r="I314" s="22"/>
+      <c r="J314" s="23"/>
+      <c r="K314" s="19"/>
+      <c r="L314" s="24"/>
+      <c r="M314" s="25"/>
+    </row>
+    <row r="315" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G315" s="20"/>
+      <c r="H315" s="21"/>
+      <c r="I315" s="22"/>
+      <c r="J315" s="23"/>
+      <c r="K315" s="19"/>
+      <c r="L315" s="24"/>
+      <c r="M315" s="25"/>
+    </row>
+    <row r="316" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G316" s="20"/>
+      <c r="H316" s="21"/>
+      <c r="I316" s="22"/>
+      <c r="J316" s="23"/>
+      <c r="K316" s="19"/>
+      <c r="L316" s="24"/>
+      <c r="M316" s="25"/>
+    </row>
+    <row r="317" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G317" s="20"/>
+      <c r="H317" s="21"/>
+      <c r="I317" s="22"/>
+      <c r="J317" s="23"/>
+      <c r="K317" s="19"/>
+      <c r="L317" s="24"/>
+      <c r="M317" s="25"/>
+    </row>
+    <row r="318" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G318" s="20"/>
+      <c r="H318" s="21"/>
+      <c r="I318" s="22"/>
+      <c r="J318" s="23"/>
+      <c r="K318" s="19"/>
+      <c r="L318" s="24"/>
+      <c r="M318" s="25"/>
+    </row>
+    <row r="319" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G319" s="20"/>
+      <c r="H319" s="21"/>
+      <c r="I319" s="22"/>
+      <c r="J319" s="23"/>
+      <c r="K319" s="19"/>
+      <c r="L319" s="24"/>
+      <c r="M319" s="25"/>
+    </row>
+    <row r="320" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G320" s="20"/>
+      <c r="H320" s="21"/>
+      <c r="I320" s="22"/>
+      <c r="J320" s="23"/>
+      <c r="K320" s="19"/>
+      <c r="L320" s="24"/>
+      <c r="M320" s="25"/>
+    </row>
+    <row r="321" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G321" s="20"/>
+      <c r="H321" s="21"/>
+      <c r="I321" s="22"/>
+      <c r="J321" s="23"/>
+      <c r="K321" s="19"/>
+      <c r="L321" s="24"/>
+      <c r="M321" s="25"/>
+    </row>
+    <row r="322" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G322" s="20"/>
+      <c r="H322" s="21"/>
+      <c r="I322" s="22"/>
+      <c r="J322" s="23"/>
+      <c r="K322" s="19"/>
+      <c r="L322" s="24"/>
+      <c r="M322" s="25"/>
+    </row>
+    <row r="323" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G323" s="20"/>
+      <c r="H323" s="21"/>
+      <c r="I323" s="22"/>
+      <c r="J323" s="23"/>
+      <c r="K323" s="19"/>
+      <c r="L323" s="24"/>
+      <c r="M323" s="25"/>
+    </row>
+    <row r="324" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G324" s="20"/>
+      <c r="H324" s="21"/>
+      <c r="I324" s="22"/>
+      <c r="J324" s="23"/>
+      <c r="K324" s="19"/>
+      <c r="L324" s="24"/>
+      <c r="M324" s="25"/>
+    </row>
+    <row r="325" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G325" s="20"/>
+      <c r="H325" s="21"/>
+      <c r="I325" s="22"/>
+      <c r="J325" s="23"/>
+      <c r="K325" s="19"/>
+      <c r="L325" s="24"/>
+      <c r="M325" s="25"/>
+    </row>
+    <row r="326" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G326" s="20"/>
+      <c r="H326" s="21"/>
+      <c r="I326" s="22"/>
+      <c r="J326" s="23"/>
+      <c r="K326" s="19"/>
+      <c r="L326" s="24"/>
+      <c r="M326" s="25"/>
+    </row>
+    <row r="327" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G327" s="20"/>
+      <c r="H327" s="21"/>
+      <c r="I327" s="22"/>
+      <c r="J327" s="23"/>
+      <c r="K327" s="19"/>
+      <c r="L327" s="24"/>
+      <c r="M327" s="25"/>
+    </row>
+    <row r="328" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G328" s="20"/>
+      <c r="H328" s="21"/>
+      <c r="I328" s="22"/>
+      <c r="J328" s="23"/>
+      <c r="K328" s="19"/>
+      <c r="L328" s="24"/>
+      <c r="M328" s="25"/>
+    </row>
+    <row r="329" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G329" s="20"/>
+      <c r="H329" s="21"/>
+      <c r="I329" s="22"/>
+      <c r="J329" s="23"/>
+      <c r="K329" s="19"/>
+      <c r="L329" s="24"/>
+      <c r="M329" s="25"/>
+    </row>
+    <row r="330" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G330" s="20"/>
+      <c r="H330" s="21"/>
+      <c r="I330" s="22"/>
+      <c r="J330" s="23"/>
+      <c r="K330" s="19"/>
+      <c r="L330" s="24"/>
+      <c r="M330" s="25"/>
+    </row>
+    <row r="331" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G331" s="20"/>
+      <c r="H331" s="21"/>
+      <c r="I331" s="22"/>
+      <c r="J331" s="23"/>
+      <c r="K331" s="19"/>
+      <c r="L331" s="24"/>
+      <c r="M331" s="25"/>
+    </row>
+    <row r="332" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G332" s="20"/>
+      <c r="H332" s="21"/>
+      <c r="I332" s="22"/>
+      <c r="J332" s="23"/>
+      <c r="K332" s="19"/>
+      <c r="L332" s="24"/>
+      <c r="M332" s="25"/>
+    </row>
+    <row r="333" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G333" s="20"/>
+      <c r="H333" s="21"/>
+      <c r="I333" s="22"/>
+      <c r="J333" s="23"/>
+      <c r="K333" s="19"/>
+      <c r="L333" s="24"/>
+      <c r="M333" s="25"/>
+    </row>
+    <row r="334" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G334" s="20"/>
+      <c r="H334" s="21"/>
+      <c r="I334" s="22"/>
+      <c r="J334" s="23"/>
+      <c r="K334" s="19"/>
+      <c r="L334" s="24"/>
+      <c r="M334" s="25"/>
+    </row>
+    <row r="335" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G335" s="20"/>
+      <c r="H335" s="21"/>
+      <c r="I335" s="22"/>
+      <c r="J335" s="23"/>
+      <c r="K335" s="19"/>
+      <c r="L335" s="24"/>
+      <c r="M335" s="25"/>
+    </row>
+    <row r="336" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G336" s="20"/>
+      <c r="H336" s="21"/>
+      <c r="I336" s="22"/>
+      <c r="J336" s="23"/>
+      <c r="K336" s="19"/>
+      <c r="L336" s="24"/>
+      <c r="M336" s="25"/>
+    </row>
+    <row r="337" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G337" s="20"/>
+      <c r="H337" s="21"/>
+      <c r="I337" s="22"/>
+      <c r="J337" s="23"/>
+      <c r="K337" s="19"/>
+      <c r="L337" s="24"/>
+      <c r="M337" s="25"/>
+    </row>
+    <row r="338" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G338" s="20"/>
+      <c r="H338" s="21"/>
+      <c r="I338" s="22"/>
+      <c r="J338" s="23"/>
+      <c r="K338" s="19"/>
+      <c r="L338" s="24"/>
+      <c r="M338" s="25"/>
+    </row>
+    <row r="339" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G339" s="20"/>
+      <c r="H339" s="21"/>
+      <c r="I339" s="22"/>
+      <c r="J339" s="23"/>
+      <c r="K339" s="19"/>
+      <c r="L339" s="24"/>
+      <c r="M339" s="25"/>
+    </row>
+    <row r="340" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G340" s="20"/>
+      <c r="H340" s="21"/>
+      <c r="I340" s="22"/>
+      <c r="J340" s="23"/>
+      <c r="K340" s="19"/>
+      <c r="L340" s="24"/>
+      <c r="M340" s="25"/>
+    </row>
+    <row r="341" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G341" s="20"/>
+      <c r="H341" s="21"/>
+      <c r="I341" s="22"/>
+      <c r="J341" s="23"/>
+      <c r="K341" s="19"/>
+      <c r="L341" s="24"/>
+      <c r="M341" s="25"/>
+    </row>
+    <row r="342" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G342" s="20"/>
+      <c r="H342" s="21"/>
+      <c r="I342" s="22"/>
+      <c r="J342" s="23"/>
+      <c r="K342" s="19"/>
+      <c r="L342" s="24"/>
+      <c r="M342" s="25"/>
+    </row>
+    <row r="343" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G343" s="20"/>
+      <c r="H343" s="21"/>
+      <c r="I343" s="22"/>
+      <c r="J343" s="23"/>
+      <c r="K343" s="19"/>
+      <c r="L343" s="24"/>
+      <c r="M343" s="25"/>
+    </row>
+    <row r="344" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G344" s="20"/>
+      <c r="H344" s="21"/>
+      <c r="I344" s="22"/>
+      <c r="J344" s="23"/>
+      <c r="K344" s="19"/>
+      <c r="L344" s="24"/>
+      <c r="M344" s="25"/>
+    </row>
+    <row r="345" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G345" s="20"/>
+      <c r="H345" s="21"/>
+      <c r="I345" s="22"/>
+      <c r="J345" s="23"/>
+      <c r="K345" s="19"/>
+      <c r="L345" s="24"/>
+      <c r="M345" s="25"/>
+    </row>
+    <row r="346" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G346" s="20"/>
+      <c r="H346" s="21"/>
+      <c r="I346" s="22"/>
+      <c r="J346" s="23"/>
+      <c r="K346" s="19"/>
+      <c r="L346" s="24"/>
+      <c r="M346" s="25"/>
+    </row>
+    <row r="347" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G347" s="20"/>
+      <c r="H347" s="21"/>
+      <c r="I347" s="22"/>
+      <c r="J347" s="23"/>
+      <c r="K347" s="19"/>
+      <c r="L347" s="24"/>
+      <c r="M347" s="25"/>
+    </row>
+    <row r="348" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G348" s="20"/>
+      <c r="H348" s="21"/>
+      <c r="I348" s="22"/>
+      <c r="J348" s="23"/>
+      <c r="K348" s="19"/>
+      <c r="L348" s="24"/>
+      <c r="M348" s="25"/>
+    </row>
+    <row r="349" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G349" s="20"/>
+      <c r="H349" s="21"/>
+      <c r="I349" s="22"/>
+      <c r="J349" s="23"/>
+      <c r="K349" s="19"/>
+      <c r="L349" s="24"/>
+      <c r="M349" s="25"/>
+    </row>
+    <row r="350" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G350" s="20"/>
+      <c r="H350" s="21"/>
+      <c r="I350" s="22"/>
+      <c r="J350" s="23"/>
+      <c r="K350" s="19"/>
+      <c r="L350" s="24"/>
+      <c r="M350" s="25"/>
+    </row>
+    <row r="351" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G351" s="20"/>
+      <c r="H351" s="21"/>
+      <c r="I351" s="22"/>
+      <c r="J351" s="23"/>
+      <c r="K351" s="19"/>
+      <c r="L351" s="24"/>
+      <c r="M351" s="25"/>
+    </row>
+    <row r="352" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G352" s="20"/>
+      <c r="H352" s="21"/>
+      <c r="I352" s="22"/>
+      <c r="J352" s="23"/>
+      <c r="K352" s="19"/>
+      <c r="L352" s="24"/>
+      <c r="M352" s="25"/>
+    </row>
+    <row r="353" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G353" s="20"/>
+      <c r="H353" s="21"/>
+      <c r="I353" s="22"/>
+      <c r="J353" s="23"/>
+      <c r="K353" s="19"/>
+      <c r="L353" s="24"/>
+      <c r="M353" s="25"/>
+    </row>
+    <row r="354" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G354" s="20"/>
+      <c r="H354" s="21"/>
+      <c r="I354" s="22"/>
+      <c r="J354" s="23"/>
+      <c r="K354" s="19"/>
+      <c r="L354" s="24"/>
+      <c r="M354" s="25"/>
+    </row>
+    <row r="355" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G355" s="20"/>
+      <c r="H355" s="21"/>
+      <c r="I355" s="22"/>
+      <c r="J355" s="23"/>
+      <c r="K355" s="19"/>
+      <c r="L355" s="24"/>
+      <c r="M355" s="25"/>
+    </row>
+    <row r="356" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G356" s="20"/>
+      <c r="H356" s="21"/>
+      <c r="I356" s="22"/>
+      <c r="J356" s="23"/>
+      <c r="K356" s="19"/>
+      <c r="L356" s="24"/>
+      <c r="M356" s="25"/>
+    </row>
+    <row r="357" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G357" s="20"/>
+      <c r="H357" s="21"/>
+      <c r="I357" s="22"/>
+      <c r="J357" s="23"/>
+      <c r="K357" s="19"/>
+      <c r="L357" s="24"/>
+      <c r="M357" s="25"/>
+    </row>
+    <row r="358" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G358" s="20"/>
+      <c r="H358" s="21"/>
+      <c r="I358" s="22"/>
+      <c r="J358" s="23"/>
+      <c r="K358" s="19"/>
+      <c r="L358" s="24"/>
+      <c r="M358" s="25"/>
+    </row>
+    <row r="359" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G359" s="20"/>
+      <c r="H359" s="21"/>
+      <c r="I359" s="22"/>
+      <c r="J359" s="23"/>
+      <c r="K359" s="19"/>
+      <c r="L359" s="24"/>
+      <c r="M359" s="25"/>
+    </row>
+    <row r="360" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G360" s="20"/>
+      <c r="H360" s="21"/>
+      <c r="I360" s="22"/>
+      <c r="J360" s="23"/>
+      <c r="K360" s="19"/>
+      <c r="L360" s="24"/>
+      <c r="M360" s="25"/>
+    </row>
+    <row r="361" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G361" s="20"/>
+      <c r="H361" s="21"/>
+      <c r="I361" s="22"/>
+      <c r="J361" s="23"/>
+      <c r="K361" s="19"/>
+      <c r="L361" s="24"/>
+      <c r="M361" s="25"/>
+    </row>
+    <row r="362" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G362" s="20"/>
+      <c r="H362" s="21"/>
+      <c r="I362" s="22"/>
+      <c r="J362" s="23"/>
+      <c r="K362" s="19"/>
+      <c r="L362" s="24"/>
+      <c r="M362" s="25"/>
+    </row>
+    <row r="363" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G363" s="20"/>
+      <c r="H363" s="21"/>
+      <c r="I363" s="22"/>
+      <c r="J363" s="23"/>
+      <c r="K363" s="19"/>
+      <c r="L363" s="24"/>
+      <c r="M363" s="25"/>
+    </row>
+    <row r="364" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G364" s="20"/>
+      <c r="H364" s="21"/>
+      <c r="I364" s="22"/>
+      <c r="J364" s="23"/>
+      <c r="K364" s="19"/>
+      <c r="L364" s="24"/>
+      <c r="M364" s="25"/>
+    </row>
+    <row r="365" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G365" s="20"/>
+      <c r="H365" s="21"/>
+      <c r="I365" s="22"/>
+      <c r="J365" s="23"/>
+      <c r="K365" s="19"/>
+      <c r="L365" s="24"/>
+      <c r="M365" s="25"/>
+    </row>
+    <row r="366" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G366" s="20"/>
+      <c r="H366" s="21"/>
+      <c r="I366" s="22"/>
+      <c r="J366" s="23"/>
+      <c r="K366" s="19"/>
+      <c r="L366" s="24"/>
+      <c r="M366" s="25"/>
+    </row>
+    <row r="367" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G367" s="20"/>
+      <c r="H367" s="21"/>
+      <c r="I367" s="22"/>
+      <c r="J367" s="23"/>
+      <c r="K367" s="19"/>
+      <c r="L367" s="24"/>
+      <c r="M367" s="25"/>
+    </row>
+    <row r="368" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G368" s="20"/>
+      <c r="H368" s="21"/>
+      <c r="I368" s="22"/>
+      <c r="J368" s="23"/>
+      <c r="K368" s="19"/>
+      <c r="L368" s="24"/>
+      <c r="M368" s="25"/>
+    </row>
+    <row r="369" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G369" s="20"/>
+      <c r="H369" s="21"/>
+      <c r="I369" s="22"/>
+      <c r="J369" s="23"/>
+      <c r="K369" s="19"/>
+      <c r="L369" s="24"/>
+      <c r="M369" s="25"/>
+    </row>
+    <row r="370" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G370" s="20"/>
+      <c r="H370" s="21"/>
+      <c r="I370" s="22"/>
+      <c r="J370" s="23"/>
+      <c r="K370" s="19"/>
+      <c r="L370" s="24"/>
+      <c r="M370" s="25"/>
+    </row>
+    <row r="371" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G371" s="20"/>
+      <c r="H371" s="21"/>
+      <c r="I371" s="22"/>
+      <c r="J371" s="23"/>
+      <c r="K371" s="19"/>
+      <c r="L371" s="24"/>
+      <c r="M371" s="25"/>
+    </row>
+    <row r="372" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G372" s="20"/>
+      <c r="H372" s="21"/>
+      <c r="I372" s="22"/>
+      <c r="J372" s="23"/>
+      <c r="K372" s="19"/>
+      <c r="L372" s="24"/>
+      <c r="M372" s="25"/>
+    </row>
+    <row r="373" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G373" s="20"/>
+      <c r="H373" s="21"/>
+      <c r="I373" s="22"/>
+      <c r="J373" s="23"/>
+      <c r="K373" s="19"/>
+      <c r="L373" s="24"/>
+      <c r="M373" s="25"/>
+    </row>
+    <row r="374" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G374" s="20"/>
+      <c r="H374" s="21"/>
+      <c r="I374" s="22"/>
+      <c r="J374" s="23"/>
+      <c r="K374" s="19"/>
+      <c r="L374" s="24"/>
+      <c r="M374" s="25"/>
+    </row>
+    <row r="375" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G375" s="20"/>
+      <c r="H375" s="21"/>
+      <c r="I375" s="22"/>
+      <c r="J375" s="23"/>
+      <c r="K375" s="19"/>
+      <c r="L375" s="24"/>
+      <c r="M375" s="25"/>
+    </row>
+    <row r="376" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G376" s="20"/>
+      <c r="H376" s="21"/>
+      <c r="I376" s="22"/>
+      <c r="J376" s="23"/>
+      <c r="K376" s="19"/>
+      <c r="L376" s="24"/>
+      <c r="M376" s="25"/>
+    </row>
+    <row r="377" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G377" s="20"/>
+      <c r="H377" s="21"/>
+      <c r="I377" s="22"/>
+      <c r="J377" s="23"/>
+      <c r="K377" s="19"/>
+      <c r="L377" s="24"/>
+      <c r="M377" s="25"/>
+    </row>
+    <row r="378" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G378" s="20"/>
+      <c r="H378" s="21"/>
+      <c r="I378" s="22"/>
+      <c r="J378" s="23"/>
+      <c r="K378" s="19"/>
+      <c r="L378" s="24"/>
+      <c r="M378" s="25"/>
+    </row>
+    <row r="379" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G379" s="20"/>
+      <c r="H379" s="21"/>
+      <c r="I379" s="22"/>
+      <c r="J379" s="23"/>
+      <c r="K379" s="19"/>
+      <c r="L379" s="24"/>
+      <c r="M379" s="25"/>
+    </row>
+    <row r="380" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G380" s="20"/>
+      <c r="H380" s="21"/>
+      <c r="I380" s="22"/>
+      <c r="J380" s="23"/>
+      <c r="K380" s="19"/>
+      <c r="L380" s="24"/>
+      <c r="M380" s="25"/>
+    </row>
+    <row r="381" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G381" s="20"/>
+      <c r="H381" s="21"/>
+      <c r="I381" s="22"/>
+      <c r="J381" s="23"/>
+      <c r="K381" s="19"/>
+      <c r="L381" s="24"/>
+      <c r="M381" s="25"/>
+    </row>
+    <row r="382" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G382" s="20"/>
+      <c r="H382" s="21"/>
+      <c r="I382" s="22"/>
+      <c r="J382" s="23"/>
+      <c r="K382" s="19"/>
+      <c r="L382" s="24"/>
+      <c r="M382" s="25"/>
+    </row>
+    <row r="383" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G383" s="20"/>
+      <c r="H383" s="21"/>
+      <c r="I383" s="22"/>
+      <c r="J383" s="23"/>
+      <c r="K383" s="19"/>
+      <c r="L383" s="24"/>
+      <c r="M383" s="25"/>
+    </row>
+    <row r="384" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G384" s="20"/>
+      <c r="H384" s="21"/>
+      <c r="I384" s="22"/>
+      <c r="J384" s="23"/>
+      <c r="K384" s="19"/>
+      <c r="L384" s="24"/>
+      <c r="M384" s="25"/>
+    </row>
+    <row r="385" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G385" s="20"/>
+      <c r="H385" s="21"/>
+      <c r="I385" s="22"/>
+      <c r="J385" s="23"/>
+      <c r="K385" s="19"/>
+      <c r="L385" s="24"/>
+      <c r="M385" s="25"/>
+    </row>
+    <row r="386" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G386" s="20"/>
+      <c r="H386" s="21"/>
+      <c r="I386" s="22"/>
+      <c r="J386" s="23"/>
+      <c r="K386" s="19"/>
+      <c r="L386" s="24"/>
+      <c r="M386" s="25"/>
+    </row>
+    <row r="387" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G387" s="20"/>
+      <c r="H387" s="21"/>
+      <c r="I387" s="22"/>
+      <c r="J387" s="23"/>
+      <c r="K387" s="19"/>
+      <c r="L387" s="24"/>
+      <c r="M387" s="25"/>
+    </row>
+    <row r="388" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G388" s="20"/>
+      <c r="H388" s="21"/>
+      <c r="I388" s="22"/>
+      <c r="J388" s="23"/>
+      <c r="K388" s="19"/>
+      <c r="L388" s="24"/>
+      <c r="M388" s="25"/>
+    </row>
+    <row r="389" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G389" s="20"/>
+      <c r="H389" s="21"/>
+      <c r="I389" s="22"/>
+      <c r="J389" s="23"/>
+      <c r="K389" s="19"/>
+      <c r="L389" s="24"/>
+      <c r="M389" s="25"/>
+    </row>
+    <row r="390" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G390" s="20"/>
+      <c r="H390" s="21"/>
+      <c r="I390" s="22"/>
+      <c r="J390" s="23"/>
+      <c r="K390" s="19"/>
+      <c r="L390" s="24"/>
+      <c r="M390" s="25"/>
+    </row>
+    <row r="391" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G391" s="20"/>
+      <c r="H391" s="21"/>
+      <c r="I391" s="22"/>
+      <c r="J391" s="23"/>
+      <c r="K391" s="19"/>
+      <c r="L391" s="24"/>
+      <c r="M391" s="25"/>
+    </row>
+    <row r="392" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G392" s="20"/>
+      <c r="H392" s="21"/>
+      <c r="I392" s="22"/>
+      <c r="J392" s="23"/>
+      <c r="K392" s="19"/>
+      <c r="L392" s="24"/>
+      <c r="M392" s="25"/>
+    </row>
+    <row r="393" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G393" s="20"/>
+      <c r="H393" s="21"/>
+      <c r="I393" s="22"/>
+      <c r="J393" s="23"/>
+      <c r="K393" s="19"/>
+      <c r="L393" s="24"/>
+      <c r="M393" s="25"/>
+    </row>
+    <row r="394" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G394" s="20"/>
+      <c r="H394" s="21"/>
+      <c r="I394" s="22"/>
+      <c r="J394" s="23"/>
+      <c r="K394" s="19"/>
+      <c r="L394" s="24"/>
+      <c r="M394" s="25"/>
+    </row>
+    <row r="395" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G395" s="20"/>
+      <c r="H395" s="21"/>
+      <c r="I395" s="22"/>
+      <c r="J395" s="23"/>
+      <c r="K395" s="19"/>
+      <c r="L395" s="24"/>
+      <c r="M395" s="25"/>
+    </row>
+    <row r="396" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G396" s="20"/>
+      <c r="H396" s="21"/>
+      <c r="I396" s="22"/>
+      <c r="J396" s="23"/>
+      <c r="K396" s="19"/>
+      <c r="L396" s="24"/>
+      <c r="M396" s="25"/>
+    </row>
+    <row r="397" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G397" s="20"/>
+      <c r="H397" s="21"/>
+      <c r="I397" s="22"/>
+      <c r="J397" s="23"/>
+      <c r="K397" s="19"/>
+      <c r="L397" s="24"/>
+      <c r="M397" s="25"/>
+    </row>
+    <row r="398" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G398" s="20"/>
+      <c r="H398" s="21"/>
+      <c r="I398" s="22"/>
+      <c r="J398" s="23"/>
+      <c r="K398" s="19"/>
+      <c r="L398" s="24"/>
+      <c r="M398" s="25"/>
+    </row>
+    <row r="399" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G399" s="20"/>
+      <c r="H399" s="21"/>
+      <c r="I399" s="22"/>
+      <c r="J399" s="23"/>
+      <c r="K399" s="19"/>
+      <c r="L399" s="24"/>
+      <c r="M399" s="25"/>
+    </row>
+    <row r="400" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G400" s="20"/>
+      <c r="H400" s="21"/>
+      <c r="I400" s="22"/>
+      <c r="J400" s="23"/>
+      <c r="K400" s="19"/>
+      <c r="L400" s="24"/>
+      <c r="M400" s="25"/>
+    </row>
+    <row r="401" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G401" s="20"/>
+      <c r="H401" s="21"/>
+      <c r="I401" s="22"/>
+      <c r="J401" s="23"/>
+      <c r="K401" s="19"/>
+      <c r="L401" s="24"/>
+      <c r="M401" s="25"/>
+    </row>
+    <row r="402" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G402" s="20"/>
+      <c r="H402" s="21"/>
+      <c r="I402" s="22"/>
+      <c r="J402" s="23"/>
+      <c r="K402" s="19"/>
+      <c r="L402" s="24"/>
+      <c r="M402" s="25"/>
+    </row>
+    <row r="403" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G403" s="20"/>
+      <c r="H403" s="21"/>
+      <c r="I403" s="22"/>
+      <c r="J403" s="23"/>
+      <c r="K403" s="19"/>
+      <c r="L403" s="24"/>
+      <c r="M403" s="25"/>
+    </row>
+    <row r="404" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G404" s="20"/>
+      <c r="H404" s="21"/>
+      <c r="I404" s="22"/>
+      <c r="J404" s="23"/>
+      <c r="K404" s="19"/>
+      <c r="L404" s="24"/>
+      <c r="M404" s="25"/>
+    </row>
+    <row r="405" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G405" s="20"/>
+      <c r="H405" s="21"/>
+      <c r="I405" s="22"/>
+      <c r="J405" s="23"/>
+      <c r="K405" s="19"/>
+      <c r="L405" s="24"/>
+      <c r="M405" s="25"/>
+    </row>
+    <row r="406" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G406" s="20"/>
+      <c r="H406" s="21"/>
+      <c r="I406" s="22"/>
+      <c r="J406" s="23"/>
+      <c r="K406" s="19"/>
+      <c r="L406" s="24"/>
+      <c r="M406" s="25"/>
+    </row>
+    <row r="407" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G407" s="20"/>
+      <c r="H407" s="21"/>
+      <c r="I407" s="22"/>
+      <c r="J407" s="23"/>
+      <c r="K407" s="19"/>
+      <c r="L407" s="24"/>
+      <c r="M407" s="25"/>
+    </row>
+    <row r="408" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G408" s="20"/>
+      <c r="H408" s="21"/>
+      <c r="I408" s="22"/>
+      <c r="J408" s="23"/>
+      <c r="K408" s="19"/>
+      <c r="L408" s="24"/>
+      <c r="M408" s="25"/>
+    </row>
+    <row r="409" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G409" s="20"/>
+      <c r="H409" s="21"/>
+      <c r="I409" s="22"/>
+      <c r="J409" s="23"/>
+      <c r="K409" s="19"/>
+      <c r="L409" s="24"/>
+      <c r="M409" s="25"/>
+    </row>
+    <row r="410" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G410" s="20"/>
+      <c r="H410" s="21"/>
+      <c r="I410" s="22"/>
+      <c r="J410" s="23"/>
+      <c r="K410" s="19"/>
+      <c r="L410" s="24"/>
+      <c r="M410" s="25"/>
+    </row>
+    <row r="411" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G411" s="20"/>
+      <c r="H411" s="21"/>
+      <c r="I411" s="22"/>
+      <c r="J411" s="23"/>
+      <c r="K411" s="19"/>
+      <c r="L411" s="24"/>
+      <c r="M411" s="25"/>
+    </row>
+    <row r="412" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G412" s="20"/>
+      <c r="H412" s="21"/>
+      <c r="I412" s="22"/>
+      <c r="J412" s="23"/>
+      <c r="K412" s="19"/>
+      <c r="L412" s="24"/>
+      <c r="M412" s="25"/>
+    </row>
+    <row r="413" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G413" s="20"/>
+      <c r="H413" s="21"/>
+      <c r="I413" s="22"/>
+      <c r="J413" s="23"/>
+      <c r="K413" s="19"/>
+      <c r="L413" s="24"/>
+      <c r="M413" s="25"/>
+    </row>
+    <row r="414" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G414" s="20"/>
+      <c r="H414" s="21"/>
+      <c r="I414" s="22"/>
+      <c r="J414" s="23"/>
+      <c r="K414" s="19"/>
+      <c r="L414" s="24"/>
+      <c r="M414" s="25"/>
+    </row>
+    <row r="415" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G415" s="20"/>
+      <c r="H415" s="21"/>
+      <c r="I415" s="22"/>
+      <c r="J415" s="23"/>
+      <c r="K415" s="19"/>
+      <c r="L415" s="24"/>
+      <c r="M415" s="25"/>
+    </row>
+    <row r="416" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G416" s="20"/>
+      <c r="H416" s="21"/>
+      <c r="I416" s="22"/>
+      <c r="J416" s="23"/>
+      <c r="K416" s="19"/>
+      <c r="L416" s="24"/>
+      <c r="M416" s="25"/>
+    </row>
+    <row r="417" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G417" s="20"/>
+      <c r="H417" s="21"/>
+      <c r="I417" s="22"/>
+      <c r="J417" s="23"/>
+      <c r="K417" s="19"/>
+      <c r="L417" s="24"/>
+      <c r="M417" s="25"/>
+    </row>
+    <row r="418" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G418" s="20"/>
+      <c r="H418" s="21"/>
+      <c r="I418" s="22"/>
+      <c r="J418" s="23"/>
+      <c r="K418" s="19"/>
+      <c r="L418" s="24"/>
+      <c r="M418" s="25"/>
+    </row>
+    <row r="419" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G419" s="20"/>
+      <c r="H419" s="21"/>
+      <c r="I419" s="22"/>
+      <c r="J419" s="23"/>
+      <c r="K419" s="19"/>
+      <c r="L419" s="24"/>
+      <c r="M419" s="25"/>
+    </row>
+    <row r="420" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G420" s="20"/>
+      <c r="H420" s="21"/>
+      <c r="I420" s="22"/>
+      <c r="J420" s="23"/>
+      <c r="K420" s="19"/>
+      <c r="L420" s="24"/>
+      <c r="M420" s="25"/>
+    </row>
+    <row r="421" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G421" s="20"/>
+      <c r="H421" s="21"/>
+      <c r="I421" s="22"/>
+      <c r="J421" s="23"/>
+      <c r="K421" s="19"/>
+      <c r="L421" s="24"/>
+      <c r="M421" s="25"/>
+    </row>
+    <row r="422" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G422" s="20"/>
+      <c r="H422" s="21"/>
+      <c r="I422" s="22"/>
+      <c r="J422" s="23"/>
+      <c r="K422" s="19"/>
+      <c r="L422" s="24"/>
+      <c r="M422" s="25"/>
+    </row>
+    <row r="423" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G423" s="20"/>
+      <c r="H423" s="21"/>
+      <c r="I423" s="22"/>
+      <c r="J423" s="23"/>
+      <c r="K423" s="19"/>
+      <c r="L423" s="24"/>
+      <c r="M423" s="25"/>
+    </row>
+    <row r="424" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G424" s="20"/>
+      <c r="H424" s="21"/>
+      <c r="I424" s="22"/>
+      <c r="J424" s="23"/>
+      <c r="K424" s="19"/>
+      <c r="L424" s="24"/>
+      <c r="M424" s="25"/>
+    </row>
+    <row r="425" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G425" s="20"/>
+      <c r="H425" s="21"/>
+      <c r="I425" s="22"/>
+      <c r="J425" s="23"/>
+      <c r="K425" s="19"/>
+      <c r="L425" s="24"/>
+      <c r="M425" s="25"/>
+    </row>
+    <row r="426" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G426" s="20"/>
+      <c r="H426" s="21"/>
+      <c r="I426" s="22"/>
+      <c r="J426" s="23"/>
+      <c r="K426" s="19"/>
+      <c r="L426" s="24"/>
+      <c r="M426" s="25"/>
+    </row>
+    <row r="427" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G427" s="20"/>
+      <c r="H427" s="21"/>
+      <c r="I427" s="22"/>
+      <c r="J427" s="23"/>
+      <c r="K427" s="19"/>
+      <c r="L427" s="24"/>
+      <c r="M427" s="25"/>
+    </row>
+    <row r="428" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G428" s="20"/>
+      <c r="H428" s="21"/>
+      <c r="I428" s="22"/>
+      <c r="J428" s="23"/>
+      <c r="K428" s="19"/>
+      <c r="L428" s="24"/>
+      <c r="M428" s="25"/>
+    </row>
+    <row r="429" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G429" s="20"/>
+      <c r="H429" s="21"/>
+      <c r="I429" s="22"/>
+      <c r="J429" s="23"/>
+      <c r="K429" s="19"/>
+      <c r="L429" s="24"/>
+      <c r="M429" s="25"/>
+    </row>
+    <row r="430" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G430" s="20"/>
+      <c r="H430" s="21"/>
+      <c r="I430" s="22"/>
+      <c r="J430" s="23"/>
+      <c r="K430" s="19"/>
+      <c r="L430" s="24"/>
+      <c r="M430" s="25"/>
+    </row>
+    <row r="431" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G431" s="20"/>
+      <c r="H431" s="21"/>
+      <c r="I431" s="22"/>
+      <c r="J431" s="23"/>
+      <c r="K431" s="19"/>
+      <c r="L431" s="24"/>
+      <c r="M431" s="25"/>
+    </row>
+    <row r="432" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G432" s="20"/>
+      <c r="H432" s="21"/>
+      <c r="I432" s="22"/>
+      <c r="J432" s="23"/>
+      <c r="K432" s="19"/>
+      <c r="L432" s="24"/>
+      <c r="M432" s="25"/>
+    </row>
+    <row r="433" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G433" s="20"/>
+      <c r="H433" s="21"/>
+      <c r="I433" s="22"/>
+      <c r="J433" s="23"/>
+      <c r="K433" s="19"/>
+      <c r="L433" s="24"/>
+      <c r="M433" s="25"/>
+    </row>
+    <row r="434" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G434" s="20"/>
+      <c r="H434" s="21"/>
+      <c r="I434" s="22"/>
+      <c r="J434" s="23"/>
+      <c r="K434" s="19"/>
+      <c r="L434" s="24"/>
+      <c r="M434" s="25"/>
+    </row>
+    <row r="435" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G435" s="20"/>
+      <c r="H435" s="21"/>
+      <c r="I435" s="22"/>
+      <c r="J435" s="23"/>
+      <c r="K435" s="19"/>
+      <c r="L435" s="24"/>
+      <c r="M435" s="25"/>
+    </row>
+    <row r="436" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G436" s="20"/>
+      <c r="H436" s="21"/>
+      <c r="I436" s="22"/>
+      <c r="J436" s="23"/>
+      <c r="K436" s="19"/>
+      <c r="L436" s="24"/>
+      <c r="M436" s="25"/>
+    </row>
+    <row r="437" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G437" s="20"/>
+      <c r="H437" s="21"/>
+      <c r="I437" s="22"/>
+      <c r="J437" s="23"/>
+      <c r="K437" s="19"/>
+      <c r="L437" s="24"/>
+      <c r="M437" s="25"/>
+    </row>
+    <row r="438" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G438" s="20"/>
+      <c r="H438" s="21"/>
+      <c r="I438" s="22"/>
+      <c r="J438" s="23"/>
+      <c r="K438" s="19"/>
+      <c r="L438" s="24"/>
+      <c r="M438" s="25"/>
+    </row>
+    <row r="439" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G439" s="20"/>
+      <c r="H439" s="21"/>
+      <c r="I439" s="22"/>
+      <c r="J439" s="23"/>
+      <c r="K439" s="19"/>
+      <c r="L439" s="24"/>
+      <c r="M439" s="25"/>
+    </row>
+    <row r="440" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G440" s="20"/>
+      <c r="H440" s="21"/>
+      <c r="I440" s="22"/>
+      <c r="J440" s="23"/>
+      <c r="K440" s="19"/>
+      <c r="L440" s="24"/>
+      <c r="M440" s="25"/>
+    </row>
+    <row r="441" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G441" s="20"/>
+      <c r="H441" s="21"/>
+      <c r="I441" s="22"/>
+      <c r="J441" s="23"/>
+      <c r="K441" s="19"/>
+      <c r="L441" s="24"/>
+      <c r="M441" s="25"/>
+    </row>
+    <row r="442" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G442" s="20"/>
+      <c r="H442" s="21"/>
+      <c r="I442" s="22"/>
+      <c r="J442" s="23"/>
+      <c r="K442" s="19"/>
+      <c r="L442" s="24"/>
+      <c r="M442" s="25"/>
+    </row>
+    <row r="443" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G443" s="20"/>
+      <c r="H443" s="21"/>
+      <c r="I443" s="22"/>
+      <c r="J443" s="23"/>
+      <c r="K443" s="19"/>
+      <c r="L443" s="24"/>
+      <c r="M443" s="25"/>
+    </row>
+    <row r="444" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G444" s="20"/>
+      <c r="H444" s="21"/>
+      <c r="I444" s="22"/>
+      <c r="J444" s="23"/>
+      <c r="K444" s="19"/>
+      <c r="L444" s="24"/>
+      <c r="M444" s="25"/>
+    </row>
+    <row r="445" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G445" s="20"/>
+      <c r="H445" s="21"/>
+      <c r="I445" s="22"/>
+      <c r="J445" s="23"/>
+      <c r="K445" s="19"/>
+      <c r="L445" s="24"/>
+      <c r="M445" s="25"/>
+    </row>
+    <row r="446" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G446" s="20"/>
+      <c r="H446" s="21"/>
+      <c r="I446" s="22"/>
+      <c r="J446" s="23"/>
+      <c r="K446" s="19"/>
+      <c r="L446" s="24"/>
+      <c r="M446" s="25"/>
+    </row>
+    <row r="447" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G447" s="20"/>
+      <c r="H447" s="21"/>
+      <c r="I447" s="22"/>
+      <c r="J447" s="23"/>
+      <c r="K447" s="19"/>
+      <c r="L447" s="24"/>
+      <c r="M447" s="25"/>
+    </row>
+    <row r="448" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G448" s="20"/>
+      <c r="H448" s="21"/>
+      <c r="I448" s="22"/>
+      <c r="J448" s="23"/>
+      <c r="K448" s="19"/>
+      <c r="L448" s="24"/>
+      <c r="M448" s="25"/>
+    </row>
+    <row r="449" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G449" s="20"/>
+      <c r="H449" s="21"/>
+      <c r="I449" s="22"/>
+      <c r="J449" s="23"/>
+      <c r="K449" s="19"/>
+      <c r="L449" s="24"/>
+      <c r="M449" s="25"/>
+    </row>
+    <row r="450" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G450" s="20"/>
+      <c r="H450" s="21"/>
+      <c r="I450" s="22"/>
+      <c r="J450" s="23"/>
+      <c r="K450" s="19"/>
+      <c r="L450" s="24"/>
+      <c r="M450" s="25"/>
+    </row>
+    <row r="451" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G451" s="20"/>
+      <c r="H451" s="21"/>
+      <c r="I451" s="22"/>
+      <c r="J451" s="23"/>
+      <c r="K451" s="19"/>
+      <c r="L451" s="24"/>
+      <c r="M451" s="25"/>
+    </row>
+    <row r="452" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G452" s="20"/>
+      <c r="H452" s="21"/>
+      <c r="I452" s="22"/>
+      <c r="J452" s="23"/>
+      <c r="K452" s="19"/>
+      <c r="L452" s="24"/>
+      <c r="M452" s="25"/>
+    </row>
+    <row r="453" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G453" s="20"/>
+      <c r="H453" s="21"/>
+      <c r="I453" s="22"/>
+      <c r="J453" s="23"/>
+      <c r="K453" s="19"/>
+      <c r="L453" s="24"/>
+      <c r="M453" s="25"/>
+    </row>
+    <row r="454" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G454" s="20"/>
+      <c r="H454" s="21"/>
+      <c r="I454" s="22"/>
+      <c r="J454" s="23"/>
+      <c r="K454" s="19"/>
+      <c r="L454" s="24"/>
+      <c r="M454" s="25"/>
+    </row>
+    <row r="455" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G455" s="20"/>
+      <c r="H455" s="21"/>
+      <c r="I455" s="22"/>
+      <c r="J455" s="23"/>
+      <c r="K455" s="19"/>
+      <c r="L455" s="24"/>
+      <c r="M455" s="25"/>
+    </row>
+    <row r="456" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G456" s="20"/>
+      <c r="H456" s="21"/>
+      <c r="I456" s="22"/>
+      <c r="J456" s="23"/>
+      <c r="K456" s="19"/>
+      <c r="L456" s="24"/>
+      <c r="M456" s="25"/>
+    </row>
+    <row r="457" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G457" s="20"/>
+      <c r="H457" s="21"/>
+      <c r="I457" s="22"/>
+      <c r="J457" s="23"/>
+      <c r="K457" s="19"/>
+      <c r="L457" s="24"/>
+      <c r="M457" s="25"/>
+    </row>
+    <row r="458" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G458" s="20"/>
+      <c r="H458" s="21"/>
+      <c r="I458" s="22"/>
+      <c r="J458" s="23"/>
+      <c r="K458" s="19"/>
+      <c r="L458" s="24"/>
+      <c r="M458" s="25"/>
+    </row>
+    <row r="459" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G459" s="20"/>
+      <c r="H459" s="21"/>
+      <c r="I459" s="22"/>
+      <c r="J459" s="23"/>
+      <c r="K459" s="19"/>
+      <c r="L459" s="24"/>
+      <c r="M459" s="25"/>
+    </row>
+    <row r="460" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G460" s="20"/>
+      <c r="H460" s="21"/>
+      <c r="I460" s="22"/>
+      <c r="J460" s="23"/>
+      <c r="K460" s="19"/>
+      <c r="L460" s="24"/>
+      <c r="M460" s="25"/>
+    </row>
+    <row r="461" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G461" s="20"/>
+      <c r="H461" s="21"/>
+      <c r="I461" s="22"/>
+      <c r="J461" s="23"/>
+      <c r="K461" s="19"/>
+      <c r="L461" s="24"/>
+      <c r="M461" s="25"/>
+    </row>
+    <row r="462" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G462" s="20"/>
+      <c r="H462" s="21"/>
+      <c r="I462" s="22"/>
+      <c r="J462" s="23"/>
+      <c r="K462" s="19"/>
+      <c r="L462" s="24"/>
+      <c r="M462" s="25"/>
+    </row>
+    <row r="463" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G463" s="20"/>
+      <c r="H463" s="21"/>
+      <c r="I463" s="22"/>
+      <c r="J463" s="23"/>
+      <c r="K463" s="19"/>
+      <c r="L463" s="24"/>
+      <c r="M463" s="25"/>
+    </row>
+    <row r="464" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G464" s="20"/>
+      <c r="H464" s="21"/>
+      <c r="I464" s="22"/>
+      <c r="J464" s="23"/>
+      <c r="K464" s="19"/>
+      <c r="L464" s="24"/>
+      <c r="M464" s="25"/>
+    </row>
+    <row r="465" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G465" s="20"/>
+      <c r="H465" s="21"/>
+      <c r="I465" s="22"/>
+      <c r="J465" s="23"/>
+      <c r="K465" s="19"/>
+      <c r="L465" s="24"/>
+      <c r="M465" s="25"/>
+    </row>
+    <row r="466" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G466" s="20"/>
+      <c r="H466" s="21"/>
+      <c r="I466" s="22"/>
+      <c r="J466" s="23"/>
+      <c r="K466" s="19"/>
+      <c r="L466" s="24"/>
+      <c r="M466" s="25"/>
+    </row>
+    <row r="467" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G467" s="20"/>
+      <c r="H467" s="21"/>
+      <c r="I467" s="22"/>
+      <c r="J467" s="23"/>
+      <c r="K467" s="19"/>
+      <c r="L467" s="24"/>
+      <c r="M467" s="25"/>
+    </row>
+    <row r="468" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G468" s="20"/>
+      <c r="H468" s="21"/>
+      <c r="I468" s="22"/>
+      <c r="J468" s="23"/>
+      <c r="K468" s="19"/>
+      <c r="L468" s="24"/>
+      <c r="M468" s="25"/>
+    </row>
+    <row r="469" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G469" s="20"/>
+      <c r="H469" s="21"/>
+      <c r="I469" s="22"/>
+      <c r="J469" s="23"/>
+      <c r="K469" s="19"/>
+      <c r="L469" s="24"/>
+      <c r="M469" s="25"/>
+    </row>
+    <row r="470" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G470" s="20"/>
+      <c r="H470" s="21"/>
+      <c r="I470" s="22"/>
+      <c r="J470" s="23"/>
+      <c r="K470" s="19"/>
+      <c r="L470" s="24"/>
+      <c r="M470" s="25"/>
+    </row>
+    <row r="471" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G471" s="20"/>
+      <c r="H471" s="21"/>
+      <c r="I471" s="22"/>
+      <c r="J471" s="23"/>
+      <c r="K471" s="19"/>
+      <c r="L471" s="24"/>
+      <c r="M471" s="25"/>
+    </row>
+    <row r="472" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G472" s="20"/>
+      <c r="H472" s="21"/>
+      <c r="I472" s="22"/>
+      <c r="J472" s="23"/>
+      <c r="K472" s="19"/>
+      <c r="L472" s="24"/>
+      <c r="M472" s="25"/>
+    </row>
+    <row r="473" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G473" s="20"/>
+      <c r="H473" s="21"/>
+      <c r="I473" s="22"/>
+      <c r="J473" s="23"/>
+      <c r="K473" s="19"/>
+      <c r="L473" s="24"/>
+      <c r="M473" s="25"/>
+    </row>
+    <row r="474" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G474" s="20"/>
+      <c r="H474" s="21"/>
+      <c r="I474" s="22"/>
+      <c r="J474" s="23"/>
+      <c r="K474" s="19"/>
+      <c r="L474" s="24"/>
+      <c r="M474" s="25"/>
+    </row>
+    <row r="475" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G475" s="20"/>
+      <c r="H475" s="21"/>
+      <c r="I475" s="22"/>
+      <c r="J475" s="23"/>
+      <c r="K475" s="19"/>
+      <c r="L475" s="24"/>
+      <c r="M475" s="25"/>
+    </row>
+    <row r="476" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G476" s="20"/>
+      <c r="H476" s="21"/>
+      <c r="I476" s="22"/>
+      <c r="J476" s="23"/>
+      <c r="K476" s="19"/>
+      <c r="L476" s="24"/>
+      <c r="M476" s="25"/>
+    </row>
+    <row r="477" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G477" s="20"/>
+      <c r="H477" s="21"/>
+      <c r="I477" s="22"/>
+      <c r="J477" s="23"/>
+      <c r="K477" s="19"/>
+      <c r="L477" s="24"/>
+      <c r="M477" s="25"/>
+    </row>
+    <row r="478" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G478" s="20"/>
+      <c r="H478" s="21"/>
+      <c r="I478" s="22"/>
+      <c r="J478" s="23"/>
+      <c r="K478" s="19"/>
+      <c r="L478" s="24"/>
+      <c r="M478" s="25"/>
+    </row>
+    <row r="479" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G479" s="20"/>
+      <c r="H479" s="21"/>
+      <c r="I479" s="22"/>
+      <c r="J479" s="23"/>
+      <c r="K479" s="19"/>
+      <c r="L479" s="24"/>
+      <c r="M479" s="25"/>
+    </row>
+    <row r="480" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G480" s="20"/>
+      <c r="H480" s="21"/>
+      <c r="I480" s="22"/>
+      <c r="J480" s="23"/>
+      <c r="K480" s="19"/>
+      <c r="L480" s="24"/>
+      <c r="M480" s="25"/>
+    </row>
+    <row r="481" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G481" s="20"/>
+      <c r="H481" s="21"/>
+      <c r="I481" s="22"/>
+      <c r="J481" s="23"/>
+      <c r="K481" s="19"/>
+      <c r="L481" s="24"/>
+      <c r="M481" s="25"/>
+    </row>
+    <row r="482" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G482" s="20"/>
+      <c r="H482" s="21"/>
+      <c r="I482" s="22"/>
+      <c r="J482" s="23"/>
+      <c r="K482" s="19"/>
+      <c r="L482" s="24"/>
+      <c r="M482" s="25"/>
+    </row>
+    <row r="483" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G483" s="20"/>
+      <c r="H483" s="21"/>
+      <c r="I483" s="22"/>
+      <c r="J483" s="23"/>
+      <c r="K483" s="19"/>
+      <c r="L483" s="24"/>
+      <c r="M483" s="25"/>
+    </row>
+    <row r="484" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G484" s="20"/>
+      <c r="H484" s="21"/>
+      <c r="I484" s="22"/>
+      <c r="J484" s="23"/>
+      <c r="K484" s="19"/>
+      <c r="L484" s="24"/>
+      <c r="M484" s="25"/>
+    </row>
+    <row r="485" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G485" s="20"/>
+      <c r="H485" s="21"/>
+      <c r="I485" s="22"/>
+      <c r="J485" s="23"/>
+      <c r="K485" s="19"/>
+      <c r="L485" s="24"/>
+      <c r="M485" s="25"/>
+    </row>
+    <row r="486" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G486" s="20"/>
+      <c r="H486" s="21"/>
+      <c r="I486" s="22"/>
+      <c r="J486" s="23"/>
+      <c r="K486" s="19"/>
+      <c r="L486" s="24"/>
+      <c r="M486" s="25"/>
+    </row>
+    <row r="487" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G487" s="20"/>
+      <c r="H487" s="21"/>
+      <c r="I487" s="22"/>
+      <c r="J487" s="23"/>
+      <c r="K487" s="19"/>
+      <c r="L487" s="24"/>
+      <c r="M487" s="25"/>
+    </row>
+    <row r="488" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G488" s="20"/>
+      <c r="H488" s="21"/>
+      <c r="I488" s="22"/>
+      <c r="J488" s="23"/>
+      <c r="K488" s="19"/>
+      <c r="L488" s="24"/>
+      <c r="M488" s="25"/>
+    </row>
+    <row r="489" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G489" s="20"/>
+      <c r="H489" s="21"/>
+      <c r="I489" s="22"/>
+      <c r="J489" s="23"/>
+      <c r="K489" s="19"/>
+      <c r="L489" s="24"/>
+      <c r="M489" s="25"/>
+    </row>
+    <row r="490" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G490" s="20"/>
+      <c r="H490" s="21"/>
+      <c r="I490" s="22"/>
+      <c r="J490" s="23"/>
+      <c r="K490" s="19"/>
+      <c r="L490" s="24"/>
+      <c r="M490" s="25"/>
+    </row>
+    <row r="491" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G491" s="20"/>
+      <c r="H491" s="21"/>
+      <c r="I491" s="22"/>
+      <c r="J491" s="23"/>
+      <c r="K491" s="19"/>
+      <c r="L491" s="24"/>
+      <c r="M491" s="25"/>
+    </row>
+    <row r="492" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G492" s="20"/>
+      <c r="H492" s="21"/>
+      <c r="I492" s="22"/>
+      <c r="J492" s="23"/>
+      <c r="K492" s="19"/>
+      <c r="L492" s="24"/>
+      <c r="M492" s="25"/>
+    </row>
+    <row r="493" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G493" s="20"/>
+      <c r="H493" s="21"/>
+      <c r="I493" s="22"/>
+      <c r="J493" s="23"/>
+      <c r="K493" s="19"/>
+      <c r="L493" s="24"/>
+      <c r="M493" s="25"/>
+    </row>
+    <row r="494" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G494" s="20"/>
+      <c r="H494" s="21"/>
+      <c r="I494" s="22"/>
+      <c r="J494" s="23"/>
+      <c r="K494" s="19"/>
+      <c r="L494" s="24"/>
+      <c r="M494" s="25"/>
+    </row>
+    <row r="495" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G495" s="20"/>
+      <c r="H495" s="21"/>
+      <c r="I495" s="22"/>
+      <c r="J495" s="23"/>
+      <c r="K495" s="19"/>
+      <c r="L495" s="24"/>
+      <c r="M495" s="25"/>
+    </row>
+    <row r="496" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G496" s="20"/>
+      <c r="H496" s="21"/>
+      <c r="I496" s="22"/>
+      <c r="J496" s="23"/>
+      <c r="K496" s="19"/>
+      <c r="L496" s="24"/>
+      <c r="M496" s="25"/>
+    </row>
+    <row r="497" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G497" s="20"/>
+      <c r="H497" s="21"/>
+      <c r="I497" s="22"/>
+      <c r="J497" s="23"/>
+      <c r="K497" s="19"/>
+      <c r="L497" s="24"/>
+      <c r="M497" s="25"/>
+    </row>
+    <row r="498" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G498" s="20"/>
+      <c r="H498" s="21"/>
+      <c r="I498" s="22"/>
+      <c r="J498" s="23"/>
+      <c r="K498" s="19"/>
+      <c r="L498" s="24"/>
+      <c r="M498" s="25"/>
+    </row>
+    <row r="499" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G499" s="20"/>
+      <c r="H499" s="21"/>
+      <c r="I499" s="22"/>
+      <c r="J499" s="23"/>
+      <c r="K499" s="19"/>
+      <c r="L499" s="24"/>
+      <c r="M499" s="25"/>
+    </row>
+    <row r="500" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G500" s="20"/>
+      <c r="H500" s="21"/>
+      <c r="I500" s="22"/>
+      <c r="J500" s="23"/>
+      <c r="K500" s="19"/>
+      <c r="L500" s="24"/>
+      <c r="M500" s="25"/>
+    </row>
+    <row r="501" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G501" s="20"/>
+      <c r="H501" s="21"/>
+      <c r="I501" s="22"/>
+      <c r="J501" s="23"/>
+      <c r="K501" s="19"/>
+      <c r="L501" s="24"/>
+      <c r="M501" s="25"/>
+    </row>
+    <row r="502" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G502" s="20"/>
+      <c r="H502" s="21"/>
+      <c r="I502" s="22"/>
+      <c r="J502" s="23"/>
+      <c r="K502" s="19"/>
+      <c r="L502" s="24"/>
+      <c r="M502" s="25"/>
+    </row>
+    <row r="503" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G503" s="20"/>
+      <c r="H503" s="21"/>
+      <c r="I503" s="22"/>
+      <c r="J503" s="23"/>
+      <c r="K503" s="19"/>
+      <c r="L503" s="24"/>
+      <c r="M503" s="25"/>
+    </row>
+    <row r="504" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G504" s="20"/>
+      <c r="H504" s="21"/>
+      <c r="I504" s="22"/>
+      <c r="J504" s="23"/>
+      <c r="K504" s="19"/>
+      <c r="L504" s="24"/>
+      <c r="M504" s="25"/>
+    </row>
+    <row r="505" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G505" s="20"/>
+      <c r="H505" s="21"/>
+      <c r="I505" s="22"/>
+      <c r="J505" s="23"/>
+      <c r="K505" s="19"/>
+      <c r="L505" s="24"/>
+      <c r="M505" s="25"/>
+    </row>
+    <row r="506" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G506" s="20"/>
+      <c r="H506" s="21"/>
+      <c r="I506" s="22"/>
+      <c r="J506" s="23"/>
+      <c r="K506" s="19"/>
+      <c r="L506" s="24"/>
+      <c r="M506" s="25"/>
+    </row>
+    <row r="507" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G507" s="20"/>
+      <c r="H507" s="21"/>
+      <c r="I507" s="22"/>
+      <c r="J507" s="23"/>
+      <c r="K507" s="19"/>
+      <c r="L507" s="24"/>
+      <c r="M507" s="25"/>
+    </row>
+    <row r="508" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G508" s="20"/>
+      <c r="H508" s="21"/>
+      <c r="I508" s="22"/>
+      <c r="J508" s="23"/>
+      <c r="K508" s="19"/>
+      <c r="L508" s="24"/>
+      <c r="M508" s="25"/>
+    </row>
+    <row r="509" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G509" s="20"/>
+      <c r="H509" s="21"/>
+      <c r="I509" s="22"/>
+      <c r="J509" s="23"/>
+      <c r="K509" s="19"/>
+      <c r="L509" s="24"/>
+      <c r="M509" s="25"/>
+    </row>
+    <row r="510" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G510" s="20"/>
+      <c r="H510" s="21"/>
+      <c r="I510" s="22"/>
+      <c r="J510" s="23"/>
+      <c r="K510" s="19"/>
+      <c r="L510" s="24"/>
+      <c r="M510" s="25"/>
+    </row>
+    <row r="511" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G511" s="20"/>
+      <c r="H511" s="21"/>
+      <c r="I511" s="22"/>
+      <c r="J511" s="23"/>
+      <c r="K511" s="19"/>
+      <c r="L511" s="24"/>
+      <c r="M511" s="25"/>
+    </row>
+    <row r="512" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G512" s="20"/>
+      <c r="H512" s="21"/>
+      <c r="I512" s="22"/>
+      <c r="J512" s="23"/>
+      <c r="K512" s="19"/>
+      <c r="L512" s="24"/>
+      <c r="M512" s="25"/>
+    </row>
+    <row r="513" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G513" s="20"/>
+      <c r="H513" s="21"/>
+      <c r="I513" s="22"/>
+      <c r="J513" s="23"/>
+      <c r="K513" s="19"/>
+      <c r="L513" s="24"/>
+      <c r="M513" s="25"/>
+    </row>
+    <row r="514" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G514" s="20"/>
+      <c r="H514" s="21"/>
+      <c r="I514" s="22"/>
+      <c r="J514" s="23"/>
+      <c r="K514" s="19"/>
+      <c r="L514" s="24"/>
+      <c r="M514" s="25"/>
+    </row>
+    <row r="515" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G515" s="20"/>
+      <c r="H515" s="21"/>
+      <c r="I515" s="22"/>
+      <c r="J515" s="23"/>
+      <c r="K515" s="19"/>
+      <c r="L515" s="24"/>
+      <c r="M515" s="25"/>
+    </row>
+    <row r="516" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G516" s="20"/>
+      <c r="H516" s="21"/>
+      <c r="I516" s="22"/>
+      <c r="J516" s="23"/>
+      <c r="K516" s="19"/>
+      <c r="L516" s="24"/>
+      <c r="M516" s="25"/>
+    </row>
+    <row r="517" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G517" s="20"/>
+      <c r="H517" s="21"/>
+      <c r="I517" s="22"/>
+      <c r="J517" s="23"/>
+      <c r="K517" s="19"/>
+      <c r="L517" s="24"/>
+      <c r="M517" s="25"/>
+    </row>
+    <row r="518" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G518" s="20"/>
+      <c r="H518" s="21"/>
+      <c r="I518" s="22"/>
+      <c r="J518" s="23"/>
+      <c r="K518" s="19"/>
+      <c r="L518" s="24"/>
+      <c r="M518" s="25"/>
+    </row>
+    <row r="519" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G519" s="20"/>
+      <c r="H519" s="21"/>
+      <c r="I519" s="22"/>
+      <c r="J519" s="23"/>
+      <c r="K519" s="19"/>
+      <c r="L519" s="24"/>
+      <c r="M519" s="25"/>
+    </row>
+    <row r="520" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G520" s="20"/>
+      <c r="H520" s="21"/>
+      <c r="I520" s="22"/>
+      <c r="J520" s="23"/>
+      <c r="K520" s="19"/>
+      <c r="L520" s="24"/>
+      <c r="M520" s="25"/>
+    </row>
+    <row r="521" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G521" s="20"/>
+      <c r="H521" s="21"/>
+      <c r="I521" s="22"/>
+      <c r="J521" s="23"/>
+      <c r="K521" s="19"/>
+      <c r="L521" s="24"/>
+      <c r="M521" s="25"/>
+    </row>
+    <row r="522" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G522" s="20"/>
+      <c r="H522" s="21"/>
+      <c r="I522" s="22"/>
+      <c r="J522" s="23"/>
+      <c r="K522" s="19"/>
+      <c r="L522" s="24"/>
+      <c r="M522" s="25"/>
+    </row>
+    <row r="523" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G523" s="20"/>
+      <c r="H523" s="21"/>
+      <c r="I523" s="22"/>
+      <c r="J523" s="23"/>
+      <c r="K523" s="19"/>
+      <c r="L523" s="24"/>
+      <c r="M523" s="25"/>
+    </row>
+    <row r="524" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G524" s="20"/>
+      <c r="H524" s="21"/>
+      <c r="I524" s="22"/>
+      <c r="J524" s="23"/>
+      <c r="K524" s="19"/>
+      <c r="L524" s="24"/>
+      <c r="M524" s="25"/>
+    </row>
+    <row r="525" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G525" s="20"/>
+      <c r="H525" s="21"/>
+      <c r="I525" s="22"/>
+      <c r="J525" s="23"/>
+      <c r="K525" s="19"/>
+      <c r="L525" s="24"/>
+      <c r="M525" s="25"/>
+    </row>
+    <row r="526" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G526" s="20"/>
+      <c r="H526" s="21"/>
+      <c r="I526" s="22"/>
+      <c r="J526" s="23"/>
+      <c r="K526" s="19"/>
+      <c r="L526" s="24"/>
+      <c r="M526" s="25"/>
+    </row>
+    <row r="527" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G527" s="20"/>
+      <c r="H527" s="21"/>
+      <c r="I527" s="22"/>
+      <c r="J527" s="23"/>
+      <c r="K527" s="19"/>
+      <c r="L527" s="24"/>
+      <c r="M527" s="25"/>
+    </row>
+    <row r="528" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G528" s="20"/>
+      <c r="H528" s="21"/>
+      <c r="I528" s="22"/>
+      <c r="J528" s="23"/>
+      <c r="K528" s="19"/>
+      <c r="L528" s="24"/>
+      <c r="M528" s="25"/>
+    </row>
+    <row r="529" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G529" s="20"/>
+      <c r="H529" s="21"/>
+      <c r="I529" s="22"/>
+      <c r="J529" s="23"/>
+      <c r="K529" s="19"/>
+      <c r="L529" s="24"/>
+      <c r="M529" s="25"/>
+    </row>
+    <row r="530" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G530" s="20"/>
+      <c r="H530" s="21"/>
+      <c r="I530" s="22"/>
+      <c r="J530" s="23"/>
+      <c r="K530" s="19"/>
+      <c r="L530" s="24"/>
+      <c r="M530" s="25"/>
+    </row>
+    <row r="531" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G531" s="20"/>
+      <c r="H531" s="21"/>
+      <c r="I531" s="22"/>
+      <c r="J531" s="23"/>
+      <c r="K531" s="19"/>
+      <c r="L531" s="24"/>
+      <c r="M531" s="25"/>
+    </row>
+    <row r="532" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G532" s="20"/>
+      <c r="H532" s="21"/>
+      <c r="I532" s="22"/>
+      <c r="J532" s="23"/>
+      <c r="K532" s="19"/>
+      <c r="L532" s="24"/>
+      <c r="M532" s="25"/>
+    </row>
+    <row r="533" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G533" s="20"/>
+      <c r="H533" s="21"/>
+      <c r="I533" s="22"/>
+      <c r="J533" s="23"/>
+      <c r="K533" s="19"/>
+      <c r="L533" s="24"/>
+      <c r="M533" s="25"/>
+    </row>
+    <row r="534" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G534" s="20"/>
+      <c r="H534" s="21"/>
+      <c r="I534" s="22"/>
+      <c r="J534" s="23"/>
+      <c r="K534" s="19"/>
+      <c r="L534" s="24"/>
+      <c r="M534" s="25"/>
+    </row>
+    <row r="535" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G535" s="20"/>
+      <c r="H535" s="21"/>
+      <c r="I535" s="22"/>
+      <c r="J535" s="23"/>
+      <c r="K535" s="19"/>
+      <c r="L535" s="24"/>
+      <c r="M535" s="25"/>
+    </row>
+    <row r="536" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G536" s="20"/>
+      <c r="H536" s="21"/>
+      <c r="I536" s="22"/>
+      <c r="J536" s="23"/>
+      <c r="K536" s="19"/>
+      <c r="L536" s="24"/>
+      <c r="M536" s="25"/>
+    </row>
+    <row r="537" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G537" s="20"/>
+      <c r="H537" s="21"/>
+      <c r="I537" s="22"/>
+      <c r="J537" s="23"/>
+      <c r="K537" s="19"/>
+      <c r="L537" s="24"/>
+      <c r="M537" s="25"/>
+    </row>
+    <row r="538" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G538" s="20"/>
+      <c r="H538" s="21"/>
+      <c r="I538" s="22"/>
+      <c r="J538" s="23"/>
+      <c r="K538" s="19"/>
+      <c r="L538" s="24"/>
+      <c r="M538" s="25"/>
+    </row>
+    <row r="539" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G539" s="20"/>
+      <c r="H539" s="21"/>
+      <c r="I539" s="22"/>
+      <c r="J539" s="23"/>
+      <c r="K539" s="19"/>
+      <c r="L539" s="24"/>
+      <c r="M539" s="25"/>
+    </row>
+    <row r="540" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G540" s="20"/>
+      <c r="H540" s="21"/>
+      <c r="I540" s="22"/>
+      <c r="J540" s="23"/>
+      <c r="K540" s="19"/>
+      <c r="L540" s="24"/>
+      <c r="M540" s="25"/>
+    </row>
+    <row r="541" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G541" s="20"/>
+      <c r="H541" s="21"/>
+      <c r="I541" s="22"/>
+      <c r="J541" s="23"/>
+      <c r="K541" s="19"/>
+      <c r="L541" s="24"/>
+      <c r="M541" s="25"/>
+    </row>
+    <row r="542" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G542" s="20"/>
+      <c r="H542" s="21"/>
+      <c r="I542" s="22"/>
+      <c r="J542" s="23"/>
+      <c r="K542" s="19"/>
+      <c r="L542" s="24"/>
+      <c r="M542" s="25"/>
+    </row>
+    <row r="543" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G543" s="20"/>
+      <c r="H543" s="21"/>
+      <c r="I543" s="22"/>
+      <c r="J543" s="23"/>
+      <c r="K543" s="19"/>
+      <c r="L543" s="24"/>
+      <c r="M543" s="25"/>
+    </row>
+    <row r="544" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G544" s="20"/>
+      <c r="H544" s="21"/>
+      <c r="I544" s="22"/>
+      <c r="J544" s="23"/>
+      <c r="K544" s="19"/>
+      <c r="L544" s="24"/>
+      <c r="M544" s="25"/>
+    </row>
+    <row r="545" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G545" s="20"/>
+      <c r="H545" s="21"/>
+      <c r="I545" s="22"/>
+      <c r="J545" s="23"/>
+      <c r="K545" s="19"/>
+      <c r="L545" s="24"/>
+      <c r="M545" s="25"/>
+    </row>
+    <row r="546" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G546" s="20"/>
+      <c r="H546" s="21"/>
+      <c r="I546" s="22"/>
+      <c r="J546" s="23"/>
+      <c r="K546" s="19"/>
+      <c r="L546" s="24"/>
+      <c r="M546" s="25"/>
+    </row>
+    <row r="547" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G547" s="20"/>
+      <c r="H547" s="21"/>
+      <c r="I547" s="22"/>
+      <c r="J547" s="23"/>
+      <c r="K547" s="19"/>
+      <c r="L547" s="24"/>
+      <c r="M547" s="25"/>
+    </row>
+    <row r="548" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G548" s="20"/>
+      <c r="H548" s="21"/>
+      <c r="I548" s="22"/>
+      <c r="J548" s="23"/>
+      <c r="K548" s="19"/>
+      <c r="L548" s="24"/>
+      <c r="M548" s="25"/>
+    </row>
+    <row r="549" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G549" s="20"/>
+      <c r="H549" s="21"/>
+      <c r="I549" s="22"/>
+      <c r="J549" s="23"/>
+      <c r="K549" s="19"/>
+      <c r="L549" s="24"/>
+      <c r="M549" s="25"/>
+    </row>
+    <row r="550" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G550" s="20"/>
+      <c r="H550" s="21"/>
+      <c r="I550" s="22"/>
+      <c r="J550" s="23"/>
+      <c r="K550" s="19"/>
+      <c r="L550" s="24"/>
+      <c r="M550" s="25"/>
+    </row>
+    <row r="551" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G551" s="20"/>
+      <c r="H551" s="21"/>
+      <c r="I551" s="22"/>
+      <c r="J551" s="23"/>
+      <c r="K551" s="19"/>
+      <c r="L551" s="24"/>
+      <c r="M551" s="25"/>
+    </row>
+    <row r="552" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G552" s="20"/>
+      <c r="H552" s="21"/>
+      <c r="I552" s="22"/>
+      <c r="J552" s="23"/>
+      <c r="K552" s="19"/>
+      <c r="L552" s="24"/>
+      <c r="M552" s="25"/>
+    </row>
+    <row r="553" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G553" s="20"/>
+      <c r="H553" s="21"/>
+      <c r="I553" s="22"/>
+      <c r="J553" s="23"/>
+      <c r="K553" s="19"/>
+      <c r="L553" s="24"/>
+      <c r="M553" s="25"/>
+    </row>
+    <row r="554" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G554" s="20"/>
+      <c r="H554" s="21"/>
+      <c r="I554" s="22"/>
+      <c r="J554" s="23"/>
+      <c r="K554" s="19"/>
+      <c r="L554" s="24"/>
+      <c r="M554" s="25"/>
+    </row>
+    <row r="555" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G555" s="20"/>
+      <c r="H555" s="21"/>
+      <c r="I555" s="22"/>
+      <c r="J555" s="23"/>
+      <c r="K555" s="19"/>
+      <c r="L555" s="24"/>
+      <c r="M555" s="25"/>
+    </row>
+    <row r="556" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G556" s="20"/>
+      <c r="H556" s="21"/>
+      <c r="I556" s="22"/>
+      <c r="J556" s="23"/>
+      <c r="K556" s="19"/>
+      <c r="L556" s="24"/>
+      <c r="M556" s="25"/>
+    </row>
+    <row r="557" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G557" s="20"/>
+      <c r="H557" s="21"/>
+      <c r="I557" s="22"/>
+      <c r="J557" s="23"/>
+      <c r="K557" s="19"/>
+      <c r="L557" s="24"/>
+      <c r="M557" s="25"/>
+    </row>
+    <row r="558" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G558" s="20"/>
+      <c r="H558" s="21"/>
+      <c r="I558" s="22"/>
+      <c r="J558" s="23"/>
+      <c r="K558" s="19"/>
+      <c r="L558" s="24"/>
+      <c r="M558" s="25"/>
+    </row>
+    <row r="559" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G559" s="20"/>
+      <c r="H559" s="21"/>
+      <c r="I559" s="22"/>
+      <c r="J559" s="23"/>
+      <c r="K559" s="19"/>
+      <c r="L559" s="24"/>
+      <c r="M559" s="25"/>
+    </row>
+    <row r="560" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G560" s="20"/>
+      <c r="H560" s="21"/>
+      <c r="I560" s="22"/>
+      <c r="J560" s="23"/>
+      <c r="K560" s="19"/>
+      <c r="L560" s="24"/>
+      <c r="M560" s="25"/>
+    </row>
+    <row r="561" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G561" s="20"/>
+      <c r="H561" s="21"/>
+      <c r="I561" s="22"/>
+      <c r="J561" s="23"/>
+      <c r="K561" s="19"/>
+      <c r="L561" s="24"/>
+      <c r="M561" s="25"/>
+    </row>
+    <row r="562" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G562" s="20"/>
+      <c r="H562" s="21"/>
+      <c r="I562" s="22"/>
+      <c r="J562" s="23"/>
+      <c r="K562" s="19"/>
+      <c r="L562" s="24"/>
+      <c r="M562" s="25"/>
+    </row>
+    <row r="563" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G563" s="20"/>
+      <c r="H563" s="21"/>
+      <c r="I563" s="22"/>
+      <c r="J563" s="23"/>
+      <c r="K563" s="19"/>
+      <c r="L563" s="24"/>
+      <c r="M563" s="25"/>
+    </row>
+    <row r="564" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G564" s="20"/>
+      <c r="H564" s="21"/>
+      <c r="I564" s="22"/>
+      <c r="J564" s="23"/>
+      <c r="K564" s="19"/>
+      <c r="L564" s="24"/>
+      <c r="M564" s="25"/>
+    </row>
+    <row r="565" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G565" s="20"/>
+      <c r="H565" s="21"/>
+      <c r="I565" s="22"/>
+      <c r="J565" s="23"/>
+      <c r="K565" s="19"/>
+      <c r="L565" s="24"/>
+      <c r="M565" s="25"/>
+    </row>
+    <row r="566" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G566" s="20"/>
+      <c r="H566" s="21"/>
+      <c r="I566" s="22"/>
+      <c r="J566" s="23"/>
+      <c r="K566" s="19"/>
+      <c r="L566" s="24"/>
+      <c r="M566" s="25"/>
+    </row>
+    <row r="567" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G567" s="20"/>
+      <c r="H567" s="21"/>
+      <c r="I567" s="22"/>
+      <c r="J567" s="23"/>
+      <c r="K567" s="19"/>
+      <c r="L567" s="24"/>
+      <c r="M567" s="25"/>
+    </row>
+    <row r="568" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G568" s="20"/>
+      <c r="H568" s="21"/>
+      <c r="I568" s="22"/>
+      <c r="J568" s="23"/>
+      <c r="K568" s="19"/>
+      <c r="L568" s="24"/>
+      <c r="M568" s="25"/>
+    </row>
+    <row r="569" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G569" s="20"/>
+      <c r="H569" s="21"/>
+      <c r="I569" s="22"/>
+      <c r="J569" s="23"/>
+      <c r="K569" s="19"/>
+      <c r="L569" s="24"/>
+      <c r="M569" s="25"/>
+    </row>
+    <row r="570" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G570" s="20"/>
+      <c r="H570" s="21"/>
+      <c r="I570" s="22"/>
+      <c r="J570" s="23"/>
+      <c r="K570" s="19"/>
+      <c r="L570" s="24"/>
+      <c r="M570" s="25"/>
+    </row>
+    <row r="571" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G571" s="20"/>
+      <c r="H571" s="21"/>
+      <c r="I571" s="22"/>
+      <c r="J571" s="23"/>
+      <c r="K571" s="19"/>
+      <c r="L571" s="24"/>
+      <c r="M571" s="25"/>
+    </row>
+    <row r="572" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G572" s="20"/>
+      <c r="H572" s="21"/>
+      <c r="I572" s="22"/>
+      <c r="J572" s="23"/>
+      <c r="K572" s="19"/>
+      <c r="L572" s="24"/>
+      <c r="M572" s="25"/>
+    </row>
+    <row r="573" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G573" s="20"/>
+      <c r="H573" s="21"/>
+      <c r="I573" s="22"/>
+      <c r="J573" s="23"/>
+      <c r="K573" s="19"/>
+      <c r="L573" s="24"/>
+      <c r="M573" s="25"/>
+    </row>
+    <row r="574" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G574" s="20"/>
+      <c r="H574" s="21"/>
+      <c r="I574" s="22"/>
+      <c r="J574" s="23"/>
+      <c r="K574" s="19"/>
+      <c r="L574" s="24"/>
+      <c r="M574" s="25"/>
+    </row>
+    <row r="575" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G575" s="20"/>
+      <c r="H575" s="21"/>
+      <c r="I575" s="22"/>
+      <c r="J575" s="23"/>
+      <c r="K575" s="19"/>
+      <c r="L575" s="24"/>
+      <c r="M575" s="25"/>
+    </row>
+    <row r="576" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G576" s="20"/>
+      <c r="H576" s="21"/>
+      <c r="I576" s="22"/>
+      <c r="J576" s="23"/>
+      <c r="K576" s="19"/>
+      <c r="L576" s="24"/>
+      <c r="M576" s="25"/>
+    </row>
+    <row r="577" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G577" s="20"/>
+      <c r="H577" s="21"/>
+      <c r="I577" s="22"/>
+      <c r="J577" s="23"/>
+      <c r="K577" s="19"/>
+      <c r="L577" s="24"/>
+      <c r="M577" s="25"/>
+    </row>
+    <row r="578" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G578" s="20"/>
+      <c r="H578" s="21"/>
+      <c r="I578" s="22"/>
+      <c r="J578" s="23"/>
+      <c r="K578" s="19"/>
+      <c r="L578" s="24"/>
+      <c r="M578" s="25"/>
+    </row>
+    <row r="579" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G579" s="20"/>
+      <c r="H579" s="21"/>
+      <c r="I579" s="22"/>
+      <c r="J579" s="23"/>
+      <c r="K579" s="19"/>
+      <c r="L579" s="24"/>
+      <c r="M579" s="25"/>
+    </row>
+    <row r="580" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G580" s="20"/>
+      <c r="H580" s="21"/>
+      <c r="I580" s="22"/>
+      <c r="J580" s="23"/>
+      <c r="K580" s="19"/>
+      <c r="L580" s="24"/>
+      <c r="M580" s="25"/>
+    </row>
+    <row r="581" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G581" s="20"/>
+      <c r="H581" s="21"/>
+      <c r="I581" s="22"/>
+      <c r="J581" s="23"/>
+      <c r="K581" s="19"/>
+      <c r="L581" s="24"/>
+      <c r="M581" s="25"/>
+    </row>
+    <row r="582" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G582" s="20"/>
+      <c r="H582" s="21"/>
+      <c r="I582" s="22"/>
+      <c r="J582" s="23"/>
+      <c r="K582" s="19"/>
+      <c r="L582" s="24"/>
+      <c r="M582" s="25"/>
+    </row>
+    <row r="583" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G583" s="20"/>
+      <c r="H583" s="21"/>
+      <c r="I583" s="22"/>
+      <c r="J583" s="23"/>
+      <c r="K583" s="19"/>
+      <c r="L583" s="24"/>
+      <c r="M583" s="25"/>
+    </row>
+    <row r="584" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G584" s="20"/>
+      <c r="H584" s="21"/>
+      <c r="I584" s="22"/>
+      <c r="J584" s="23"/>
+      <c r="K584" s="19"/>
+      <c r="L584" s="24"/>
+      <c r="M584" s="25"/>
+    </row>
+    <row r="585" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G585" s="20"/>
+      <c r="H585" s="21"/>
+      <c r="I585" s="22"/>
+      <c r="J585" s="23"/>
+      <c r="K585" s="19"/>
+      <c r="L585" s="24"/>
+      <c r="M585" s="25"/>
+    </row>
+    <row r="586" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G586" s="20"/>
+      <c r="H586" s="21"/>
+      <c r="I586" s="22"/>
+      <c r="J586" s="23"/>
+      <c r="K586" s="19"/>
+      <c r="L586" s="24"/>
+      <c r="M586" s="25"/>
+    </row>
+    <row r="587" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G587" s="20"/>
+      <c r="H587" s="21"/>
+      <c r="I587" s="22"/>
+      <c r="J587" s="23"/>
+      <c r="K587" s="19"/>
+      <c r="L587" s="24"/>
+      <c r="M587" s="25"/>
+    </row>
+    <row r="588" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G588" s="20"/>
+      <c r="H588" s="21"/>
+      <c r="I588" s="22"/>
+      <c r="J588" s="23"/>
+      <c r="K588" s="19"/>
+      <c r="L588" s="24"/>
+      <c r="M588" s="25"/>
+    </row>
+    <row r="589" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G589" s="20"/>
+      <c r="H589" s="21"/>
+      <c r="I589" s="22"/>
+      <c r="J589" s="23"/>
+      <c r="K589" s="19"/>
+      <c r="L589" s="24"/>
+      <c r="M589" s="25"/>
+    </row>
+    <row r="590" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G590" s="20"/>
+      <c r="H590" s="21"/>
+      <c r="I590" s="22"/>
+      <c r="J590" s="23"/>
+      <c r="K590" s="19"/>
+      <c r="L590" s="24"/>
+      <c r="M590" s="25"/>
+    </row>
+    <row r="591" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G591" s="20"/>
+      <c r="H591" s="21"/>
+      <c r="I591" s="22"/>
+      <c r="J591" s="23"/>
+      <c r="K591" s="19"/>
+      <c r="L591" s="24"/>
+      <c r="M591" s="25"/>
+    </row>
+    <row r="592" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G592" s="20"/>
+      <c r="H592" s="21"/>
+      <c r="I592" s="22"/>
+      <c r="J592" s="23"/>
+      <c r="K592" s="19"/>
+      <c r="L592" s="24"/>
+      <c r="M592" s="25"/>
+    </row>
+    <row r="593" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G593" s="20"/>
+      <c r="H593" s="21"/>
+      <c r="I593" s="22"/>
+      <c r="J593" s="23"/>
+      <c r="K593" s="19"/>
+      <c r="L593" s="24"/>
+      <c r="M593" s="25"/>
+    </row>
+    <row r="594" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G594" s="20"/>
+      <c r="H594" s="21"/>
+      <c r="I594" s="22"/>
+      <c r="J594" s="23"/>
+      <c r="K594" s="19"/>
+      <c r="L594" s="24"/>
+      <c r="M594" s="25"/>
+    </row>
+    <row r="595" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G595" s="20"/>
+      <c r="H595" s="21"/>
+      <c r="I595" s="22"/>
+      <c r="J595" s="23"/>
+      <c r="K595" s="19"/>
+      <c r="L595" s="24"/>
+      <c r="M595" s="25"/>
+    </row>
+    <row r="596" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G596" s="20"/>
+      <c r="H596" s="21"/>
+      <c r="I596" s="22"/>
+      <c r="J596" s="23"/>
+      <c r="K596" s="19"/>
+      <c r="L596" s="24"/>
+      <c r="M596" s="25"/>
+    </row>
+    <row r="597" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G597" s="20"/>
+      <c r="H597" s="21"/>
+      <c r="I597" s="22"/>
+      <c r="J597" s="23"/>
+      <c r="K597" s="19"/>
+      <c r="L597" s="24"/>
+      <c r="M597" s="25"/>
+    </row>
+    <row r="598" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G598" s="20"/>
+      <c r="H598" s="21"/>
+      <c r="I598" s="22"/>
+      <c r="J598" s="23"/>
+      <c r="K598" s="19"/>
+      <c r="L598" s="24"/>
+      <c r="M598" s="25"/>
+    </row>
+    <row r="599" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G599" s="20"/>
+      <c r="H599" s="21"/>
+      <c r="I599" s="22"/>
+      <c r="J599" s="23"/>
+      <c r="K599" s="19"/>
+      <c r="L599" s="24"/>
+      <c r="M599" s="25"/>
+    </row>
+    <row r="600" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G600" s="20"/>
+      <c r="H600" s="21"/>
+      <c r="I600" s="22"/>
+      <c r="J600" s="23"/>
+      <c r="K600" s="19"/>
+      <c r="L600" s="24"/>
+      <c r="M600" s="25"/>
+    </row>
+    <row r="601" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G601" s="20"/>
+      <c r="H601" s="21"/>
+      <c r="I601" s="22"/>
+      <c r="J601" s="23"/>
+      <c r="K601" s="19"/>
+      <c r="L601" s="24"/>
+      <c r="M601" s="25"/>
+    </row>
+    <row r="602" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G602" s="20"/>
+      <c r="H602" s="21"/>
+      <c r="I602" s="22"/>
+      <c r="J602" s="23"/>
+      <c r="K602" s="19"/>
+      <c r="L602" s="24"/>
+      <c r="M602" s="25"/>
+    </row>
+    <row r="603" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G603" s="20"/>
+      <c r="H603" s="21"/>
+      <c r="I603" s="22"/>
+      <c r="J603" s="23"/>
+      <c r="K603" s="19"/>
+      <c r="L603" s="24"/>
+      <c r="M603" s="25"/>
+    </row>
+    <row r="604" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G604" s="20"/>
+      <c r="H604" s="21"/>
+      <c r="I604" s="22"/>
+      <c r="J604" s="23"/>
+      <c r="K604" s="19"/>
+      <c r="L604" s="24"/>
+      <c r="M604" s="25"/>
+    </row>
+    <row r="605" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G605" s="20"/>
+      <c r="H605" s="21"/>
+      <c r="I605" s="22"/>
+      <c r="J605" s="23"/>
+      <c r="K605" s="19"/>
+      <c r="L605" s="24"/>
+      <c r="M605" s="25"/>
+    </row>
+    <row r="606" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G606" s="20"/>
+      <c r="H606" s="21"/>
+      <c r="I606" s="22"/>
+      <c r="J606" s="23"/>
+      <c r="K606" s="19"/>
+      <c r="L606" s="24"/>
+      <c r="M606" s="25"/>
+    </row>
+    <row r="607" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G607" s="20"/>
+      <c r="H607" s="21"/>
+      <c r="I607" s="22"/>
+      <c r="J607" s="23"/>
+      <c r="K607" s="19"/>
+      <c r="L607" s="24"/>
+      <c r="M607" s="25"/>
+    </row>
+    <row r="608" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G608" s="20"/>
+      <c r="H608" s="21"/>
+      <c r="I608" s="22"/>
+      <c r="J608" s="23"/>
+      <c r="K608" s="19"/>
+      <c r="L608" s="24"/>
+      <c r="M608" s="25"/>
+    </row>
+    <row r="609" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G609" s="20"/>
+      <c r="H609" s="21"/>
+      <c r="I609" s="22"/>
+      <c r="J609" s="23"/>
+      <c r="K609" s="19"/>
+      <c r="L609" s="24"/>
+      <c r="M609" s="25"/>
+    </row>
+    <row r="610" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G610" s="20"/>
+      <c r="H610" s="21"/>
+      <c r="I610" s="22"/>
+      <c r="J610" s="23"/>
+      <c r="K610" s="19"/>
+      <c r="L610" s="24"/>
+      <c r="M610" s="25"/>
+    </row>
+    <row r="611" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G611" s="20"/>
+      <c r="H611" s="21"/>
+      <c r="I611" s="22"/>
+      <c r="J611" s="23"/>
+      <c r="K611" s="19"/>
+      <c r="L611" s="24"/>
+      <c r="M611" s="25"/>
+    </row>
+    <row r="612" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G612" s="20"/>
+      <c r="H612" s="21"/>
+      <c r="I612" s="22"/>
+      <c r="J612" s="23"/>
+      <c r="K612" s="19"/>
+      <c r="L612" s="24"/>
+      <c r="M612" s="25"/>
+    </row>
+    <row r="613" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G613" s="20"/>
+      <c r="H613" s="21"/>
+      <c r="I613" s="22"/>
+      <c r="J613" s="23"/>
+      <c r="K613" s="19"/>
+      <c r="L613" s="24"/>
+      <c r="M613" s="25"/>
+    </row>
+    <row r="614" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G614" s="20"/>
+      <c r="H614" s="21"/>
+      <c r="I614" s="22"/>
+      <c r="J614" s="23"/>
+      <c r="K614" s="19"/>
+      <c r="L614" s="24"/>
+      <c r="M614" s="25"/>
+    </row>
+    <row r="615" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G615" s="20"/>
+      <c r="H615" s="21"/>
+      <c r="I615" s="22"/>
+      <c r="J615" s="23"/>
+      <c r="K615" s="19"/>
+      <c r="L615" s="24"/>
+      <c r="M615" s="25"/>
+    </row>
+    <row r="616" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G616" s="20"/>
+      <c r="H616" s="21"/>
+      <c r="I616" s="22"/>
+      <c r="J616" s="23"/>
+      <c r="K616" s="19"/>
+      <c r="L616" s="24"/>
+      <c r="M616" s="25"/>
+    </row>
+    <row r="617" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G617" s="20"/>
+      <c r="H617" s="21"/>
+      <c r="I617" s="22"/>
+      <c r="J617" s="23"/>
+      <c r="K617" s="19"/>
+      <c r="L617" s="24"/>
+      <c r="M617" s="25"/>
+    </row>
+    <row r="618" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G618" s="20"/>
+      <c r="H618" s="21"/>
+      <c r="I618" s="22"/>
+      <c r="J618" s="23"/>
+      <c r="K618" s="19"/>
+      <c r="L618" s="24"/>
+      <c r="M618" s="25"/>
+    </row>
+    <row r="619" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G619" s="20"/>
+      <c r="H619" s="21"/>
+      <c r="I619" s="22"/>
+      <c r="J619" s="23"/>
+      <c r="K619" s="19"/>
+      <c r="L619" s="24"/>
+      <c r="M619" s="25"/>
+    </row>
+    <row r="620" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G620" s="20"/>
+      <c r="H620" s="21"/>
+      <c r="I620" s="22"/>
+      <c r="J620" s="23"/>
+      <c r="K620" s="19"/>
+      <c r="L620" s="24"/>
+      <c r="M620" s="25"/>
+    </row>
+    <row r="621" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G621" s="20"/>
+      <c r="H621" s="21"/>
+      <c r="I621" s="22"/>
+      <c r="J621" s="23"/>
+      <c r="K621" s="19"/>
+      <c r="L621" s="24"/>
+      <c r="M621" s="25"/>
+    </row>
+    <row r="622" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G622" s="20"/>
+      <c r="H622" s="21"/>
+      <c r="I622" s="22"/>
+      <c r="J622" s="23"/>
+      <c r="K622" s="19"/>
+      <c r="L622" s="24"/>
+      <c r="M622" s="25"/>
+    </row>
+    <row r="623" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G623" s="20"/>
+      <c r="H623" s="21"/>
+      <c r="I623" s="22"/>
+      <c r="J623" s="23"/>
+      <c r="K623" s="19"/>
+      <c r="L623" s="24"/>
+      <c r="M623" s="25"/>
+    </row>
+    <row r="624" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G624" s="20"/>
+      <c r="H624" s="21"/>
+      <c r="I624" s="22"/>
+      <c r="J624" s="23"/>
+      <c r="K624" s="19"/>
+      <c r="L624" s="24"/>
+      <c r="M624" s="25"/>
+    </row>
+    <row r="625" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G625" s="20"/>
+      <c r="H625" s="21"/>
+      <c r="I625" s="22"/>
+      <c r="J625" s="23"/>
+      <c r="K625" s="19"/>
+      <c r="L625" s="24"/>
+      <c r="M625" s="25"/>
+    </row>
+    <row r="626" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G626" s="20"/>
+      <c r="H626" s="21"/>
+      <c r="I626" s="22"/>
+      <c r="J626" s="23"/>
+      <c r="K626" s="19"/>
+      <c r="L626" s="24"/>
+      <c r="M626" s="25"/>
+    </row>
+    <row r="627" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G627" s="20"/>
+      <c r="H627" s="21"/>
+      <c r="I627" s="22"/>
+      <c r="J627" s="23"/>
+      <c r="K627" s="19"/>
+      <c r="L627" s="24"/>
+      <c r="M627" s="25"/>
+    </row>
+    <row r="628" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G628" s="20"/>
+      <c r="H628" s="21"/>
+      <c r="I628" s="22"/>
+      <c r="J628" s="23"/>
+      <c r="K628" s="19"/>
+      <c r="L628" s="24"/>
+      <c r="M628" s="25"/>
+    </row>
+    <row r="629" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G629" s="20"/>
+      <c r="H629" s="21"/>
+      <c r="I629" s="22"/>
+      <c r="J629" s="23"/>
+      <c r="K629" s="19"/>
+      <c r="L629" s="24"/>
+      <c r="M629" s="25"/>
+    </row>
+    <row r="630" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G630" s="20"/>
+      <c r="H630" s="21"/>
+      <c r="I630" s="22"/>
+      <c r="J630" s="23"/>
+      <c r="K630" s="19"/>
+      <c r="L630" s="24"/>
+      <c r="M630" s="25"/>
+    </row>
+    <row r="631" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G631" s="20"/>
+      <c r="H631" s="21"/>
+      <c r="I631" s="22"/>
+      <c r="J631" s="23"/>
+      <c r="K631" s="19"/>
+      <c r="L631" s="24"/>
+      <c r="M631" s="25"/>
+    </row>
+    <row r="632" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G632" s="20"/>
+      <c r="H632" s="21"/>
+      <c r="I632" s="22"/>
+      <c r="J632" s="23"/>
+      <c r="K632" s="19"/>
+      <c r="L632" s="24"/>
+      <c r="M632" s="25"/>
+    </row>
+    <row r="633" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G633" s="20"/>
+      <c r="H633" s="21"/>
+      <c r="I633" s="22"/>
+      <c r="J633" s="23"/>
+      <c r="K633" s="19"/>
+      <c r="L633" s="24"/>
+      <c r="M633" s="25"/>
+    </row>
+    <row r="634" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G634" s="20"/>
+      <c r="H634" s="21"/>
+      <c r="I634" s="22"/>
+      <c r="J634" s="23"/>
+      <c r="K634" s="19"/>
+      <c r="L634" s="24"/>
+      <c r="M634" s="25"/>
+    </row>
+    <row r="635" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G635" s="20"/>
+      <c r="H635" s="21"/>
+      <c r="I635" s="22"/>
+      <c r="J635" s="23"/>
+      <c r="K635" s="19"/>
+      <c r="L635" s="24"/>
+      <c r="M635" s="25"/>
+    </row>
+    <row r="636" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G636" s="20"/>
+      <c r="H636" s="21"/>
+      <c r="I636" s="22"/>
+      <c r="J636" s="23"/>
+      <c r="K636" s="19"/>
+      <c r="L636" s="24"/>
+      <c r="M636" s="25"/>
+    </row>
+    <row r="637" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G637" s="20"/>
+      <c r="H637" s="21"/>
+      <c r="I637" s="22"/>
+      <c r="J637" s="23"/>
+      <c r="K637" s="19"/>
+      <c r="L637" s="24"/>
+      <c r="M637" s="25"/>
+    </row>
+    <row r="638" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G638" s="20"/>
+      <c r="H638" s="21"/>
+      <c r="I638" s="22"/>
+      <c r="J638" s="23"/>
+      <c r="K638" s="19"/>
+      <c r="L638" s="24"/>
+      <c r="M638" s="25"/>
+    </row>
+    <row r="639" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G639" s="20"/>
+      <c r="H639" s="21"/>
+      <c r="I639" s="22"/>
+      <c r="J639" s="23"/>
+      <c r="K639" s="19"/>
+      <c r="L639" s="24"/>
+      <c r="M639" s="25"/>
+    </row>
+    <row r="640" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G640" s="20"/>
+      <c r="H640" s="21"/>
+      <c r="I640" s="22"/>
+      <c r="J640" s="23"/>
+      <c r="K640" s="19"/>
+      <c r="L640" s="24"/>
+      <c r="M640" s="25"/>
+    </row>
+    <row r="641" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G641" s="20"/>
+      <c r="H641" s="21"/>
+      <c r="I641" s="22"/>
+      <c r="J641" s="23"/>
+      <c r="K641" s="19"/>
+      <c r="L641" s="24"/>
+      <c r="M641" s="25"/>
+    </row>
+    <row r="642" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G642" s="20"/>
+      <c r="H642" s="21"/>
+      <c r="I642" s="22"/>
+      <c r="J642" s="23"/>
+      <c r="K642" s="19"/>
+      <c r="L642" s="24"/>
+      <c r="M642" s="25"/>
+    </row>
+    <row r="643" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G643" s="20"/>
+      <c r="H643" s="21"/>
+      <c r="I643" s="22"/>
+      <c r="J643" s="23"/>
+      <c r="K643" s="19"/>
+      <c r="L643" s="24"/>
+      <c r="M643" s="25"/>
+    </row>
+    <row r="644" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G644" s="20"/>
+      <c r="H644" s="21"/>
+      <c r="I644" s="22"/>
+      <c r="J644" s="23"/>
+      <c r="K644" s="19"/>
+      <c r="L644" s="24"/>
+      <c r="M644" s="25"/>
+    </row>
+    <row r="645" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G645" s="20"/>
+      <c r="H645" s="21"/>
+      <c r="I645" s="22"/>
+      <c r="J645" s="23"/>
+      <c r="K645" s="19"/>
+      <c r="L645" s="24"/>
+      <c r="M645" s="25"/>
+    </row>
+    <row r="646" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G646" s="20"/>
+      <c r="H646" s="21"/>
+      <c r="I646" s="22"/>
+      <c r="J646" s="23"/>
+      <c r="K646" s="19"/>
+      <c r="L646" s="24"/>
+      <c r="M646" s="25"/>
+    </row>
+    <row r="647" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G647" s="20"/>
+      <c r="H647" s="21"/>
+      <c r="I647" s="22"/>
+      <c r="J647" s="23"/>
+      <c r="K647" s="19"/>
+      <c r="L647" s="24"/>
+      <c r="M647" s="25"/>
+    </row>
+    <row r="648" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G648" s="20"/>
+      <c r="H648" s="21"/>
+      <c r="I648" s="22"/>
+      <c r="J648" s="23"/>
+      <c r="K648" s="19"/>
+      <c r="L648" s="24"/>
+      <c r="M648" s="25"/>
+    </row>
+    <row r="649" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G649" s="20"/>
+      <c r="H649" s="21"/>
+      <c r="I649" s="22"/>
+      <c r="J649" s="23"/>
+      <c r="K649" s="19"/>
+      <c r="L649" s="24"/>
+      <c r="M649" s="25"/>
+    </row>
+    <row r="650" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G650" s="20"/>
+      <c r="H650" s="21"/>
+      <c r="I650" s="22"/>
+      <c r="J650" s="23"/>
+      <c r="K650" s="19"/>
+      <c r="L650" s="24"/>
+      <c r="M650" s="25"/>
+    </row>
+    <row r="651" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G651" s="20"/>
+      <c r="H651" s="21"/>
+      <c r="I651" s="22"/>
+      <c r="J651" s="23"/>
+      <c r="K651" s="19"/>
+      <c r="L651" s="24"/>
+      <c r="M651" s="25"/>
+    </row>
+    <row r="652" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G652" s="20"/>
+      <c r="H652" s="21"/>
+      <c r="I652" s="22"/>
+      <c r="J652" s="23"/>
+      <c r="K652" s="19"/>
+      <c r="L652" s="24"/>
+      <c r="M652" s="25"/>
+    </row>
+    <row r="653" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G653" s="20"/>
+      <c r="H653" s="21"/>
+      <c r="I653" s="22"/>
+      <c r="J653" s="23"/>
+      <c r="K653" s="19"/>
+      <c r="L653" s="24"/>
+      <c r="M653" s="25"/>
+    </row>
+    <row r="654" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G654" s="20"/>
+      <c r="H654" s="21"/>
+      <c r="I654" s="22"/>
+      <c r="J654" s="23"/>
+      <c r="K654" s="19"/>
+      <c r="L654" s="24"/>
+      <c r="M654" s="25"/>
+    </row>
+    <row r="655" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G655" s="20"/>
+      <c r="H655" s="21"/>
+      <c r="I655" s="22"/>
+      <c r="J655" s="23"/>
+      <c r="K655" s="19"/>
+      <c r="L655" s="24"/>
+      <c r="M655" s="25"/>
+    </row>
+    <row r="656" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G656" s="20"/>
+      <c r="H656" s="21"/>
+      <c r="I656" s="22"/>
+      <c r="J656" s="23"/>
+      <c r="K656" s="19"/>
+      <c r="L656" s="24"/>
+      <c r="M656" s="25"/>
+    </row>
+    <row r="657" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G657" s="20"/>
+      <c r="H657" s="21"/>
+      <c r="I657" s="22"/>
+      <c r="J657" s="23"/>
+      <c r="K657" s="19"/>
+      <c r="L657" s="24"/>
+      <c r="M657" s="25"/>
+    </row>
+    <row r="658" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G658" s="20"/>
+      <c r="H658" s="21"/>
+      <c r="I658" s="22"/>
+      <c r="J658" s="23"/>
+      <c r="K658" s="19"/>
+      <c r="L658" s="24"/>
+      <c r="M658" s="25"/>
+    </row>
+    <row r="659" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G659" s="20"/>
+      <c r="H659" s="21"/>
+      <c r="I659" s="22"/>
+      <c r="J659" s="23"/>
+      <c r="K659" s="19"/>
+      <c r="L659" s="24"/>
+      <c r="M659" s="25"/>
+    </row>
+    <row r="660" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G660" s="20"/>
+      <c r="H660" s="21"/>
+      <c r="I660" s="22"/>
+      <c r="J660" s="23"/>
+      <c r="K660" s="19"/>
+      <c r="L660" s="24"/>
+      <c r="M660" s="25"/>
+    </row>
+    <row r="661" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G661" s="20"/>
+      <c r="H661" s="21"/>
+      <c r="I661" s="22"/>
+      <c r="J661" s="23"/>
+      <c r="K661" s="19"/>
+      <c r="L661" s="24"/>
+      <c r="M661" s="25"/>
+    </row>
+    <row r="662" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G662" s="20"/>
+      <c r="H662" s="21"/>
+      <c r="I662" s="22"/>
+      <c r="J662" s="23"/>
+      <c r="K662" s="19"/>
+      <c r="L662" s="24"/>
+      <c r="M662" s="25"/>
+    </row>
+    <row r="663" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G663" s="20"/>
+      <c r="H663" s="21"/>
+      <c r="I663" s="22"/>
+      <c r="J663" s="23"/>
+      <c r="K663" s="19"/>
+      <c r="L663" s="24"/>
+      <c r="M663" s="25"/>
+    </row>
+    <row r="664" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G664" s="20"/>
+      <c r="H664" s="21"/>
+      <c r="I664" s="22"/>
+      <c r="J664" s="23"/>
+      <c r="K664" s="19"/>
+      <c r="L664" s="24"/>
+      <c r="M664" s="25"/>
+    </row>
+    <row r="665" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G665" s="20"/>
+      <c r="H665" s="21"/>
+      <c r="I665" s="22"/>
+      <c r="J665" s="23"/>
+      <c r="K665" s="19"/>
+      <c r="L665" s="24"/>
+      <c r="M665" s="25"/>
+    </row>
+    <row r="666" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G666" s="20"/>
+      <c r="H666" s="21"/>
+      <c r="I666" s="22"/>
+      <c r="J666" s="23"/>
+      <c r="K666" s="19"/>
+      <c r="L666" s="24"/>
+      <c r="M666" s="25"/>
+    </row>
+    <row r="667" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G667" s="20"/>
+      <c r="H667" s="21"/>
+      <c r="I667" s="22"/>
+      <c r="J667" s="23"/>
+      <c r="K667" s="19"/>
+      <c r="L667" s="24"/>
+      <c r="M667" s="25"/>
+    </row>
+    <row r="668" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G668" s="20"/>
+      <c r="H668" s="21"/>
+      <c r="I668" s="22"/>
+      <c r="J668" s="23"/>
+      <c r="K668" s="19"/>
+      <c r="L668" s="24"/>
+      <c r="M668" s="25"/>
+    </row>
+    <row r="669" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G669" s="20"/>
+      <c r="H669" s="21"/>
+      <c r="I669" s="22"/>
+      <c r="J669" s="23"/>
+      <c r="K669" s="19"/>
+      <c r="L669" s="24"/>
+      <c r="M669" s="25"/>
+    </row>
+    <row r="670" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G670" s="20"/>
+      <c r="H670" s="21"/>
+      <c r="I670" s="22"/>
+      <c r="J670" s="23"/>
+      <c r="K670" s="19"/>
+      <c r="L670" s="24"/>
+      <c r="M670" s="25"/>
+    </row>
+    <row r="671" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G671" s="20"/>
+      <c r="H671" s="21"/>
+      <c r="I671" s="22"/>
+      <c r="J671" s="23"/>
+      <c r="K671" s="19"/>
+      <c r="L671" s="24"/>
+      <c r="M671" s="25"/>
+    </row>
+    <row r="672" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G672" s="20"/>
+      <c r="H672" s="21"/>
+      <c r="I672" s="22"/>
+      <c r="J672" s="23"/>
+      <c r="K672" s="19"/>
+      <c r="L672" s="24"/>
+      <c r="M672" s="25"/>
+    </row>
+    <row r="673" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G673" s="20"/>
+      <c r="H673" s="21"/>
+      <c r="I673" s="22"/>
+      <c r="J673" s="23"/>
+      <c r="K673" s="19"/>
+      <c r="L673" s="24"/>
+      <c r="M673" s="25"/>
+    </row>
+    <row r="674" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G674" s="20"/>
+      <c r="H674" s="21"/>
+      <c r="I674" s="22"/>
+      <c r="J674" s="23"/>
+      <c r="K674" s="19"/>
+      <c r="L674" s="24"/>
+      <c r="M674" s="25"/>
+    </row>
+    <row r="675" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G675" s="20"/>
+      <c r="H675" s="21"/>
+      <c r="I675" s="22"/>
+      <c r="J675" s="23"/>
+      <c r="K675" s="19"/>
+      <c r="L675" s="24"/>
+      <c r="M675" s="25"/>
+    </row>
+    <row r="676" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G676" s="20"/>
+      <c r="H676" s="21"/>
+      <c r="I676" s="22"/>
+      <c r="J676" s="23"/>
+      <c r="K676" s="19"/>
+      <c r="L676" s="24"/>
+      <c r="M676" s="25"/>
+    </row>
+    <row r="677" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G677" s="20"/>
+      <c r="H677" s="21"/>
+      <c r="I677" s="22"/>
+      <c r="J677" s="23"/>
+      <c r="K677" s="19"/>
+      <c r="L677" s="24"/>
+      <c r="M677" s="25"/>
+    </row>
+    <row r="678" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G678" s="20"/>
+      <c r="H678" s="21"/>
+      <c r="I678" s="22"/>
+      <c r="J678" s="23"/>
+      <c r="K678" s="19"/>
+      <c r="L678" s="24"/>
+      <c r="M678" s="25"/>
+    </row>
+    <row r="679" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G679" s="20"/>
+      <c r="H679" s="21"/>
+      <c r="I679" s="22"/>
+      <c r="J679" s="23"/>
+      <c r="K679" s="19"/>
+      <c r="L679" s="24"/>
+      <c r="M679" s="25"/>
+    </row>
+    <row r="680" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G680" s="20"/>
+      <c r="H680" s="21"/>
+      <c r="I680" s="22"/>
+      <c r="J680" s="23"/>
+      <c r="K680" s="19"/>
+      <c r="L680" s="24"/>
+      <c r="M680" s="25"/>
+    </row>
+    <row r="681" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G681" s="20"/>
+      <c r="H681" s="21"/>
+      <c r="I681" s="22"/>
+      <c r="J681" s="23"/>
+      <c r="K681" s="19"/>
+      <c r="L681" s="24"/>
+      <c r="M681" s="25"/>
+    </row>
+    <row r="682" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G682" s="20"/>
+      <c r="H682" s="21"/>
+      <c r="I682" s="22"/>
+      <c r="J682" s="23"/>
+      <c r="K682" s="19"/>
+      <c r="L682" s="24"/>
+      <c r="M682" s="25"/>
+    </row>
+    <row r="683" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G683" s="20"/>
+      <c r="H683" s="21"/>
+      <c r="I683" s="22"/>
+      <c r="J683" s="23"/>
+      <c r="K683" s="19"/>
+      <c r="L683" s="24"/>
+      <c r="M683" s="25"/>
+    </row>
+    <row r="684" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G684" s="20"/>
+      <c r="H684" s="21"/>
+      <c r="I684" s="22"/>
+      <c r="J684" s="23"/>
+      <c r="K684" s="19"/>
+      <c r="L684" s="24"/>
+      <c r="M684" s="25"/>
+    </row>
+    <row r="685" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G685" s="20"/>
+      <c r="H685" s="21"/>
+      <c r="I685" s="22"/>
+      <c r="J685" s="23"/>
+      <c r="K685" s="19"/>
+      <c r="L685" s="24"/>
+      <c r="M685" s="25"/>
+    </row>
+    <row r="686" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G686" s="20"/>
+      <c r="H686" s="21"/>
+      <c r="I686" s="22"/>
+      <c r="J686" s="23"/>
+      <c r="K686" s="19"/>
+      <c r="L686" s="24"/>
+      <c r="M686" s="25"/>
+    </row>
+    <row r="687" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G687" s="20"/>
+      <c r="H687" s="21"/>
+      <c r="I687" s="22"/>
+      <c r="J687" s="23"/>
+      <c r="K687" s="19"/>
+      <c r="L687" s="24"/>
+      <c r="M687" s="25"/>
+    </row>
+    <row r="688" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G688" s="20"/>
+      <c r="H688" s="21"/>
+      <c r="I688" s="22"/>
+      <c r="J688" s="23"/>
+      <c r="K688" s="19"/>
+      <c r="L688" s="24"/>
+      <c r="M688" s="25"/>
+    </row>
+    <row r="689" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G689" s="20"/>
+      <c r="H689" s="21"/>
+      <c r="I689" s="22"/>
+      <c r="J689" s="23"/>
+      <c r="K689" s="19"/>
+      <c r="L689" s="24"/>
+      <c r="M689" s="25"/>
+    </row>
+    <row r="690" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G690" s="20"/>
+      <c r="H690" s="21"/>
+      <c r="I690" s="22"/>
+      <c r="J690" s="23"/>
+      <c r="K690" s="19"/>
+      <c r="L690" s="24"/>
+      <c r="M690" s="25"/>
+    </row>
+    <row r="691" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G691" s="20"/>
+      <c r="H691" s="21"/>
+      <c r="I691" s="22"/>
+      <c r="J691" s="23"/>
+      <c r="K691" s="19"/>
+      <c r="L691" s="24"/>
+      <c r="M691" s="25"/>
+    </row>
+    <row r="692" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G692" s="20"/>
+      <c r="H692" s="21"/>
+      <c r="I692" s="22"/>
+      <c r="J692" s="23"/>
+      <c r="K692" s="19"/>
+      <c r="L692" s="24"/>
+      <c r="M692" s="25"/>
+    </row>
+    <row r="693" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G693" s="20"/>
+      <c r="H693" s="21"/>
+      <c r="I693" s="22"/>
+      <c r="J693" s="23"/>
+      <c r="K693" s="19"/>
+      <c r="L693" s="24"/>
+      <c r="M693" s="25"/>
+    </row>
+    <row r="694" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G694" s="20"/>
+      <c r="H694" s="21"/>
+      <c r="I694" s="22"/>
+      <c r="J694" s="23"/>
+      <c r="K694" s="19"/>
+      <c r="L694" s="24"/>
+      <c r="M694" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
